--- a/docs/Journal-de-Travail_Berchel-Joachim.xlsx
+++ b/docs/Journal-de-Travail_Berchel-Joachim.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\px59nyu\Documents\GitHub\joachim-MonProjetGenial\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDF864A7-B740-4145-ACE2-AA8F61187014}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C888F38-2CFB-496F-A32E-87D8459023F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7125" yWindow="1665" windowWidth="21600" windowHeight="11385" xr2:uid="{6CC57B32-2488-5244-B7A6-FB7E808234AC}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6CC57B32-2488-5244-B7A6-FB7E808234AC}"/>
   </bookViews>
   <sheets>
     <sheet name="Journal de travail" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="26">
   <si>
     <t>Journal de travail</t>
   </si>
@@ -108,6 +108,15 @@
   </si>
   <si>
     <t>Création de la planification</t>
+  </si>
+  <si>
+    <t>Réunion pour définir le programme de la journée. Et analyser le code Rust de génération automatique du journal de travail.</t>
+  </si>
+  <si>
+    <t>J'essaie d'effectuer la connexion MQTT</t>
+  </si>
+  <si>
+    <t>Création du rapport</t>
   </si>
 </sst>
 </file>
@@ -267,10 +276,6 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="16" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -287,6 +292,10 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="16" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
@@ -294,17 +303,17 @@
   </cellStyles>
   <dxfs count="14">
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <protection locked="0" hidden="0"/>
     </dxf>
     <dxf>
       <protection locked="0" hidden="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="25" formatCode="hh:mm"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <protection locked="0" hidden="0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="25" formatCode="hh:mm"/>
       <protection locked="0" hidden="0"/>
     </dxf>
     <dxf>
@@ -420,10 +429,10 @@
       <calculatedColumnFormula>IF(ISBLANK(B6),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="2" xr3:uid="{8A6A2217-ACA1-B64A-AACC-E62161ECEC47}" name="Jour" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{7CF180A9-4021-614A-ABFA-FD02FA7EE89D}" name="Temps [h]" dataDxfId="2"/>
-    <tableColumn id="4" xr3:uid="{DA59D006-464D-084D-8523-AF3DB167EDE2}" name="Type" dataDxfId="0"/>
+    <tableColumn id="3" xr3:uid="{7CF180A9-4021-614A-ABFA-FD02FA7EE89D}" name="Temps [h]" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{DA59D006-464D-084D-8523-AF3DB167EDE2}" name="Type" dataDxfId="2"/>
     <tableColumn id="5" xr3:uid="{5207D366-301C-BA4D-A840-0D62AE8890E1}" name="Description" dataDxfId="1"/>
-    <tableColumn id="6" xr3:uid="{F7678D64-0216-D64A-A954-D1A966D4BF65}" name="Remarques/problèmes" dataDxfId="3"/>
+    <tableColumn id="6" xr3:uid="{F7678D64-0216-D64A-A954-D1A966D4BF65}" name="Remarques/problèmes" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -619,7 +628,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
+      <selection pane="bottomLeft" activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -627,7 +636,7 @@
     <col min="1" max="1" width="14.625" style="13" customWidth="1"/>
     <col min="2" max="2" width="9.875" style="1" customWidth="1"/>
     <col min="3" max="3" width="13.875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="13.875" style="29" customWidth="1"/>
+    <col min="4" max="4" width="13.875" style="28" customWidth="1"/>
     <col min="5" max="5" width="83.5" customWidth="1"/>
     <col min="6" max="6" width="91.875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11" customWidth="1"/>
@@ -642,7 +651,7 @@
       <c r="A1" s="15"/>
       <c r="B1" s="16"/>
       <c r="C1" s="17"/>
-      <c r="D1" s="27"/>
+      <c r="D1" s="26"/>
       <c r="E1" s="19" t="s">
         <v>0</v>
       </c>
@@ -652,10 +661,10 @@
       <c r="B2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="26" t="s">
+      <c r="C2" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="26"/>
+      <c r="D2" s="31"/>
       <c r="E2" s="4" t="s">
         <v>15</v>
       </c>
@@ -687,9 +696,9 @@
       </c>
       <c r="C3" s="25">
         <f>SUM(C6:C521)</f>
-        <v>6.9444444444444448E-2</v>
-      </c>
-      <c r="D3" s="30" t="s">
+        <v>0.1423611111111111</v>
+      </c>
+      <c r="D3" s="29" t="s">
         <v>13</v>
       </c>
       <c r="E3" s="3" t="s">
@@ -709,7 +718,7 @@
       <c r="C5" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="31" t="s">
+      <c r="D5" s="30" t="s">
         <v>4</v>
       </c>
       <c r="E5" s="7" t="s">
@@ -776,37 +785,61 @@
       </c>
       <c r="F8" s="23"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="13" t="str">
+    <row r="9" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="13">
         <f>IF(ISBLANK(B9),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
-        <v/>
-      </c>
-      <c r="B9" s="8"/>
-      <c r="C9" s="24"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="10"/>
+        <v>47</v>
+      </c>
+      <c r="B9" s="8">
+        <v>45618</v>
+      </c>
+      <c r="C9" s="24">
+        <v>1.3888888888888888E-2</v>
+      </c>
+      <c r="D9" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="20" t="s">
+        <v>23</v>
+      </c>
       <c r="F9" s="10"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="13" t="str">
+      <c r="A10" s="13">
         <f>IF(ISBLANK(B10),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
-        <v/>
-      </c>
-      <c r="B10" s="8"/>
-      <c r="C10" s="24"/>
-      <c r="D10" s="21"/>
-      <c r="E10" s="10"/>
+        <v>47</v>
+      </c>
+      <c r="B10" s="8">
+        <v>45618</v>
+      </c>
+      <c r="C10" s="24">
+        <v>4.8611111111111112E-2</v>
+      </c>
+      <c r="D10" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>24</v>
+      </c>
       <c r="F10" s="22"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="13" t="str">
+      <c r="A11" s="13">
         <f>IF(ISBLANK(B11),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
-        <v/>
-      </c>
-      <c r="B11" s="8"/>
-      <c r="C11" s="24"/>
-      <c r="D11" s="21"/>
-      <c r="E11" s="10"/>
+        <v>47</v>
+      </c>
+      <c r="B11" s="8">
+        <v>45618</v>
+      </c>
+      <c r="C11" s="24">
+        <v>1.0416666666666666E-2</v>
+      </c>
+      <c r="D11" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>25</v>
+      </c>
       <c r="F11" s="10"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
@@ -1036,7 +1069,7 @@
       </c>
       <c r="B32" s="8"/>
       <c r="C32" s="24"/>
-      <c r="D32" s="28"/>
+      <c r="D32" s="27"/>
       <c r="E32" s="10"/>
       <c r="F32" s="10"/>
     </row>
@@ -6571,6 +6604,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="be0d3259-a7ce-4623-88ec-81594dfcbc1c" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="99ffe1f3-7857-457f-add0-5bdef636f38d">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D4F20F00DBE2EE49BE9523363A2DF18B" ma:contentTypeVersion="13" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="83ae57d85107fc73e8c281aedb059e49">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="99ffe1f3-7857-457f-add0-5bdef636f38d" xmlns:ns3="be0d3259-a7ce-4623-88ec-81594dfcbc1c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b000e6a26fbebedf4c24f086a5622afe" ns2:_="" ns3:_="">
     <xsd:import namespace="99ffe1f3-7857-457f-add0-5bdef636f38d"/>
@@ -6793,27 +6846,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8EB0028C-89CE-4553-AB94-94DC6E832369}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="be0d3259-a7ce-4623-88ec-81594dfcbc1c"/>
+    <ds:schemaRef ds:uri="99ffe1f3-7857-457f-add0-5bdef636f38d"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="be0d3259-a7ce-4623-88ec-81594dfcbc1c" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="99ffe1f3-7857-457f-add0-5bdef636f38d">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BDECA689-F55E-43C8-8CEF-25DE741768EA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{146BE2DA-6117-4657-9EA0-437EBB1E64B8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6830,23 +6882,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BDECA689-F55E-43C8-8CEF-25DE741768EA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8EB0028C-89CE-4553-AB94-94DC6E832369}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="be0d3259-a7ce-4623-88ec-81594dfcbc1c"/>
-    <ds:schemaRef ds:uri="99ffe1f3-7857-457f-add0-5bdef636f38d"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/docs/Journal-de-Travail_Berchel-Joachim.xlsx
+++ b/docs/Journal-de-Travail_Berchel-Joachim.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\px59nyu\Documents\GitHub\joachim-MonProjetGenial\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C888F38-2CFB-496F-A32E-87D8459023F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7A2D9B8-428F-4A78-9D07-CEA08A10F78A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6CC57B32-2488-5244-B7A6-FB7E808234AC}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="27">
   <si>
     <t>Journal de travail</t>
   </si>
@@ -117,6 +117,9 @@
   </si>
   <si>
     <t>Création du rapport</t>
+  </si>
+  <si>
+    <t>Je n'arrivais pas à effectuer la connexion car je mettais le mot de passe "123" et non "321"</t>
   </si>
 </sst>
 </file>
@@ -628,7 +631,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C12" sqref="C12"/>
+      <selection pane="bottomLeft" activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -696,7 +699,7 @@
       </c>
       <c r="C3" s="25">
         <f>SUM(C6:C521)</f>
-        <v>0.1423611111111111</v>
+        <v>0.1701388888888889</v>
       </c>
       <c r="D3" s="29" t="s">
         <v>13</v>
@@ -843,14 +846,22 @@
       <c r="F11" s="10"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="13" t="str">
+      <c r="A12" s="13">
         <f>IF(ISBLANK(B12),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
-        <v/>
-      </c>
-      <c r="B12" s="8"/>
-      <c r="C12" s="24"/>
-      <c r="D12" s="21"/>
-      <c r="E12" s="10"/>
+        <v>47</v>
+      </c>
+      <c r="B12" s="8">
+        <v>45618</v>
+      </c>
+      <c r="C12" s="24">
+        <v>2.7777777777777776E-2</v>
+      </c>
+      <c r="D12" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>26</v>
+      </c>
       <c r="F12" s="10"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">

--- a/docs/Journal-de-Travail_Berchel-Joachim.xlsx
+++ b/docs/Journal-de-Travail_Berchel-Joachim.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\px59nyu\Documents\GitHub\joachim-MonProjetGenial\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7A2D9B8-428F-4A78-9D07-CEA08A10F78A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47212FB7-A2A1-413E-8396-52367D475783}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6CC57B32-2488-5244-B7A6-FB7E808234AC}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="28">
   <si>
     <t>Journal de travail</t>
   </si>
@@ -120,6 +120,9 @@
   </si>
   <si>
     <t>Je n'arrivais pas à effectuer la connexion car je mettais le mot de passe "123" et non "321"</t>
+  </si>
+  <si>
+    <t>Problème de réseau</t>
   </si>
 </sst>
 </file>
@@ -631,7 +634,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C13" sqref="C13"/>
+      <selection pane="bottomLeft" activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -699,7 +702,7 @@
       </c>
       <c r="C3" s="25">
         <f>SUM(C6:C521)</f>
-        <v>0.1701388888888889</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="D3" s="29" t="s">
         <v>13</v>
@@ -854,7 +857,7 @@
         <v>45618</v>
       </c>
       <c r="C12" s="24">
-        <v>2.7777777777777776E-2</v>
+        <v>2.0833333333333332E-2</v>
       </c>
       <c r="D12" s="21" t="s">
         <v>8</v>
@@ -865,14 +868,22 @@
       <c r="F12" s="10"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="13" t="str">
+      <c r="A13" s="13">
         <f>IF(ISBLANK(B13),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
-        <v/>
-      </c>
-      <c r="B13" s="8"/>
-      <c r="C13" s="24"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="20"/>
+        <v>47</v>
+      </c>
+      <c r="B13" s="8">
+        <v>45618</v>
+      </c>
+      <c r="C13" s="24">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="D13" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" s="20" t="s">
+        <v>27</v>
+      </c>
       <c r="F13" s="10"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">

--- a/docs/Journal-de-Travail_Berchel-Joachim.xlsx
+++ b/docs/Journal-de-Travail_Berchel-Joachim.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\px59nyu\Documents\GitHub\joachim-MonProjetGenial\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47212FB7-A2A1-413E-8396-52367D475783}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8743FB5-C513-4147-8E51-BC3350A7147F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6CC57B32-2488-5244-B7A6-FB7E808234AC}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="30">
   <si>
     <t>Journal de travail</t>
   </si>
@@ -123,6 +123,12 @@
   </si>
   <si>
     <t>Problème de réseau</t>
+  </si>
+  <si>
+    <t>Je crée une méthode séparer pour se déconnecter. J'ai un problème pour réutiliser la même option.</t>
+  </si>
+  <si>
+    <t>J'essaie de m'abonner à un topic mais je n'arrive pas à tester si cela fonctionne et à quel topic je me suis abonné.</t>
   </si>
 </sst>
 </file>
@@ -634,7 +640,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B14" sqref="B14"/>
+      <selection pane="bottomLeft" activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -702,7 +708,7 @@
       </c>
       <c r="C3" s="25">
         <f>SUM(C6:C521)</f>
-        <v>0.16666666666666666</v>
+        <v>0.21527777777777776</v>
       </c>
       <c r="D3" s="29" t="s">
         <v>13</v>
@@ -887,25 +893,41 @@
       <c r="F13" s="10"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="13" t="str">
+      <c r="A14" s="13">
         <f>IF(ISBLANK(B14),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
-        <v/>
-      </c>
-      <c r="B14" s="8"/>
-      <c r="C14" s="24"/>
-      <c r="D14" s="21"/>
-      <c r="E14" s="10"/>
+        <v>47</v>
+      </c>
+      <c r="B14" s="8">
+        <v>45618</v>
+      </c>
+      <c r="C14" s="24">
+        <v>1.7361111111111112E-2</v>
+      </c>
+      <c r="D14" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>28</v>
+      </c>
       <c r="F14" s="10"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="13" t="str">
+    <row r="15" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A15" s="13">
         <f>IF(ISBLANK(B15),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
-        <v/>
-      </c>
-      <c r="B15" s="8"/>
-      <c r="C15" s="24"/>
-      <c r="D15" s="21"/>
-      <c r="E15" s="10"/>
+        <v>47</v>
+      </c>
+      <c r="B15" s="8">
+        <v>45618</v>
+      </c>
+      <c r="C15" s="24">
+        <v>3.125E-2</v>
+      </c>
+      <c r="D15" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="20" t="s">
+        <v>29</v>
+      </c>
       <c r="F15" s="10"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">

--- a/docs/Journal-de-Travail_Berchel-Joachim.xlsx
+++ b/docs/Journal-de-Travail_Berchel-Joachim.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\px59nyu\Documents\GitHub\joachim-MonProjetGenial\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8743FB5-C513-4147-8E51-BC3350A7147F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97D449E3-5C88-4D41-8424-CC9011B56445}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6CC57B32-2488-5244-B7A6-FB7E808234AC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6CC57B32-2488-5244-B7A6-FB7E808234AC}"/>
   </bookViews>
   <sheets>
     <sheet name="Journal de travail" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="31">
   <si>
     <t>Journal de travail</t>
   </si>
@@ -129,6 +129,9 @@
   </si>
   <si>
     <t>J'essaie de m'abonner à un topic mais je n'arrive pas à tester si cela fonctionne et à quel topic je me suis abonné.</t>
+  </si>
+  <si>
+    <t>Écouter les instructions et les décisions sur les enveloppes</t>
   </si>
 </sst>
 </file>
@@ -640,7 +643,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E15" sqref="E15"/>
+      <selection pane="bottomLeft" activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -708,7 +711,7 @@
       </c>
       <c r="C3" s="25">
         <f>SUM(C6:C521)</f>
-        <v>0.21527777777777776</v>
+        <v>0.22569444444444442</v>
       </c>
       <c r="D3" s="29" t="s">
         <v>13</v>
@@ -931,14 +934,22 @@
       <c r="F15" s="10"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="13" t="str">
+      <c r="A16" s="13">
         <f>IF(ISBLANK(B16),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
-        <v/>
-      </c>
-      <c r="B16" s="8"/>
-      <c r="C16" s="24"/>
-      <c r="D16" s="21"/>
-      <c r="E16" s="10"/>
+        <v>48</v>
+      </c>
+      <c r="B16" s="8">
+        <v>45625</v>
+      </c>
+      <c r="C16" s="24">
+        <v>1.0416666666666666E-2</v>
+      </c>
+      <c r="D16" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>30</v>
+      </c>
       <c r="F16" s="10"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -6648,26 +6659,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="be0d3259-a7ce-4623-88ec-81594dfcbc1c" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="99ffe1f3-7857-457f-add0-5bdef636f38d">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D4F20F00DBE2EE49BE9523363A2DF18B" ma:contentTypeVersion="13" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="83ae57d85107fc73e8c281aedb059e49">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="99ffe1f3-7857-457f-add0-5bdef636f38d" xmlns:ns3="be0d3259-a7ce-4623-88ec-81594dfcbc1c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b000e6a26fbebedf4c24f086a5622afe" ns2:_="" ns3:_="">
     <xsd:import namespace="99ffe1f3-7857-457f-add0-5bdef636f38d"/>
@@ -6890,26 +6881,27 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8EB0028C-89CE-4553-AB94-94DC6E832369}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="be0d3259-a7ce-4623-88ec-81594dfcbc1c"/>
-    <ds:schemaRef ds:uri="99ffe1f3-7857-457f-add0-5bdef636f38d"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BDECA689-F55E-43C8-8CEF-25DE741768EA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="be0d3259-a7ce-4623-88ec-81594dfcbc1c" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="99ffe1f3-7857-457f-add0-5bdef636f38d">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{146BE2DA-6117-4657-9EA0-437EBB1E64B8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6926,4 +6918,23 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BDECA689-F55E-43C8-8CEF-25DE741768EA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8EB0028C-89CE-4553-AB94-94DC6E832369}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="be0d3259-a7ce-4623-88ec-81594dfcbc1c"/>
+    <ds:schemaRef ds:uri="99ffe1f3-7857-457f-add0-5bdef636f38d"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/docs/Journal-de-Travail_Berchel-Joachim.xlsx
+++ b/docs/Journal-de-Travail_Berchel-Joachim.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\px59nyu\Documents\GitHub\joachim-MonProjetGenial\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97D449E3-5C88-4D41-8424-CC9011B56445}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86C9F47C-8F05-4DA7-ABB9-E4072E124EA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6CC57B32-2488-5244-B7A6-FB7E808234AC}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="35">
   <si>
     <t>Journal de travail</t>
   </si>
@@ -132,6 +132,18 @@
   </si>
   <si>
     <t>Écouter les instructions et les décisions sur les enveloppes</t>
+  </si>
+  <si>
+    <t>Je voulais vérifier que j'étais bien connecté au Broker mais il ne tourne pas actuellement, j'essayerai de me connecter au blue plus tard, je code l'interface utilisateur.</t>
+  </si>
+  <si>
+    <t>Je me connecte au broker blue, j'ai trouvé l'adresse IP du broker depuis un repo créé spécialement par Philippe</t>
+  </si>
+  <si>
+    <t>Je crée des radioBox et j'essaie de changer le BrokerIP selon ce qui est sélectionné.</t>
+  </si>
+  <si>
+    <t>Changement du BrokerIP selon le réseau sélectionné.</t>
   </si>
 </sst>
 </file>
@@ -643,7 +655,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C17" sqref="C17"/>
+      <selection pane="bottomLeft" activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -711,7 +723,7 @@
       </c>
       <c r="C3" s="25">
         <f>SUM(C6:C521)</f>
-        <v>0.22569444444444442</v>
+        <v>0.29861111111111105</v>
       </c>
       <c r="D3" s="29" t="s">
         <v>13</v>
@@ -952,48 +964,80 @@
       </c>
       <c r="F16" s="10"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="13" t="str">
+    <row r="17" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A17" s="13">
         <f>IF(ISBLANK(B17),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
-        <v/>
-      </c>
-      <c r="B17" s="8"/>
-      <c r="C17" s="24"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="20"/>
+        <v>48</v>
+      </c>
+      <c r="B17" s="8">
+        <v>45625</v>
+      </c>
+      <c r="C17" s="24">
+        <v>2.7777777777777776E-2</v>
+      </c>
+      <c r="D17" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" s="20" t="s">
+        <v>31</v>
+      </c>
       <c r="F17" s="22"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="13" t="str">
+    <row r="18" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A18" s="13">
         <f>IF(ISBLANK(B18),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
-        <v/>
-      </c>
-      <c r="B18" s="8"/>
-      <c r="C18" s="24"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="10"/>
+        <v>48</v>
+      </c>
+      <c r="B18" s="8">
+        <v>45625</v>
+      </c>
+      <c r="C18" s="24">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="D18" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="20" t="s">
+        <v>32</v>
+      </c>
       <c r="F18" s="10"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="13" t="str">
+      <c r="A19" s="13">
         <f>IF(ISBLANK(B19),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
-        <v/>
-      </c>
-      <c r="B19" s="8"/>
-      <c r="C19" s="24"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="10"/>
+        <v>48</v>
+      </c>
+      <c r="B19" s="8">
+        <v>45625</v>
+      </c>
+      <c r="C19" s="24">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="D19" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>33</v>
+      </c>
       <c r="F19" s="10"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="13" t="str">
+      <c r="A20" s="13">
         <f>IF(ISBLANK(B20),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
-        <v/>
-      </c>
-      <c r="B20" s="8"/>
-      <c r="C20" s="24"/>
-      <c r="D20" s="21"/>
-      <c r="E20" s="20"/>
+        <v>48</v>
+      </c>
+      <c r="B20" s="8">
+        <v>45625</v>
+      </c>
+      <c r="C20" s="24">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="D20" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" s="20" t="s">
+        <v>34</v>
+      </c>
       <c r="F20" s="22"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">

--- a/docs/Journal-de-Travail_Berchel-Joachim.xlsx
+++ b/docs/Journal-de-Travail_Berchel-Joachim.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\px59nyu\Documents\GitHub\joachim-MonProjetGenial\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86C9F47C-8F05-4DA7-ABB9-E4072E124EA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A3D3610-03BB-4E10-A87F-8DE18E41F438}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6CC57B32-2488-5244-B7A6-FB7E808234AC}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="38">
   <si>
     <t>Journal de travail</t>
   </si>
@@ -144,6 +144,15 @@
   </si>
   <si>
     <t>Changement du BrokerIP selon le réseau sélectionné.</t>
+  </si>
+  <si>
+    <t>Je fais le menu d'ajout d'une musique.</t>
+  </si>
+  <si>
+    <t>J'essaie de récupérer les informations d'un fichier mp3, je pensais que cela ne marchais pas car la taille était de 0 mais en faite mon fichier était simplement vide</t>
+  </si>
+  <si>
+    <t>Je récupère les informations nécessaires de mon fichier.</t>
   </si>
 </sst>
 </file>
@@ -655,7 +664,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D21" sqref="D21"/>
+      <selection pane="bottomLeft" activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -723,7 +732,7 @@
       </c>
       <c r="C3" s="25">
         <f>SUM(C6:C521)</f>
-        <v>0.29861111111111105</v>
+        <v>0.34027777777777768</v>
       </c>
       <c r="D3" s="29" t="s">
         <v>13</v>
@@ -1041,36 +1050,60 @@
       <c r="F20" s="22"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="13" t="str">
+      <c r="A21" s="13">
         <f>IF(ISBLANK(B21),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
-        <v/>
-      </c>
-      <c r="B21" s="8"/>
-      <c r="C21" s="24"/>
-      <c r="D21" s="21"/>
-      <c r="E21" s="10"/>
+        <v>48</v>
+      </c>
+      <c r="B21" s="8">
+        <v>45625</v>
+      </c>
+      <c r="C21" s="24">
+        <v>1.7361111111111112E-2</v>
+      </c>
+      <c r="D21" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>35</v>
+      </c>
       <c r="F21" s="10"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="13" t="str">
+    <row r="22" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A22" s="13">
         <f>IF(ISBLANK(B22),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
-        <v/>
-      </c>
-      <c r="B22" s="8"/>
-      <c r="C22" s="24"/>
-      <c r="D22" s="21"/>
-      <c r="E22" s="10"/>
+        <v>48</v>
+      </c>
+      <c r="B22" s="8">
+        <v>45625</v>
+      </c>
+      <c r="C22" s="24">
+        <v>1.7361111111111112E-2</v>
+      </c>
+      <c r="D22" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="E22" s="20" t="s">
+        <v>36</v>
+      </c>
       <c r="F22" s="22"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="13" t="str">
+      <c r="A23" s="13">
         <f>IF(ISBLANK(B23),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
-        <v/>
-      </c>
-      <c r="B23" s="8"/>
-      <c r="C23" s="24"/>
-      <c r="D23" s="21"/>
-      <c r="E23" s="10"/>
+        <v>48</v>
+      </c>
+      <c r="B23" s="8">
+        <v>45625</v>
+      </c>
+      <c r="C23" s="24">
+        <v>6.9444444444444441E-3</v>
+      </c>
+      <c r="D23" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23" s="10" t="s">
+        <v>37</v>
+      </c>
       <c r="F23" s="10"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">

--- a/docs/Journal-de-Travail_Berchel-Joachim.xlsx
+++ b/docs/Journal-de-Travail_Berchel-Joachim.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\px59nyu\Documents\GitHub\joachim-MonProjetGenial\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A3D3610-03BB-4E10-A87F-8DE18E41F438}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB0E46BB-0A32-4319-A8D4-1C9871204551}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6CC57B32-2488-5244-B7A6-FB7E808234AC}"/>
   </bookViews>
@@ -664,7 +664,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B24" sqref="B24"/>
+      <selection pane="bottomLeft" activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -732,7 +732,7 @@
       </c>
       <c r="C3" s="25">
         <f>SUM(C6:C521)</f>
-        <v>0.34027777777777768</v>
+        <v>0.35069444444444436</v>
       </c>
       <c r="D3" s="29" t="s">
         <v>13</v>
@@ -1096,7 +1096,7 @@
         <v>45625</v>
       </c>
       <c r="C23" s="24">
-        <v>6.9444444444444441E-3</v>
+        <v>1.7361111111111112E-2</v>
       </c>
       <c r="D23" s="21" t="s">
         <v>8</v>

--- a/docs/Journal-de-Travail_Berchel-Joachim.xlsx
+++ b/docs/Journal-de-Travail_Berchel-Joachim.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\px59nyu\Documents\GitHub\joachim-MonProjetGenial\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB0E46BB-0A32-4319-A8D4-1C9871204551}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8222604E-17BA-42E1-8FE6-7883E9FAFB63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6CC57B32-2488-5244-B7A6-FB7E808234AC}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6CC57B32-2488-5244-B7A6-FB7E808234AC}"/>
   </bookViews>
   <sheets>
     <sheet name="Journal de travail" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="39">
   <si>
     <t>Journal de travail</t>
   </si>
@@ -153,6 +153,9 @@
   </si>
   <si>
     <t>Je récupère les informations nécessaires de mon fichier.</t>
+  </si>
+  <si>
+    <t>J'affiche les fichiers dans ma bibliothèque (sans connexion au MQTT)</t>
   </si>
 </sst>
 </file>
@@ -664,7 +667,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C24" sqref="C24"/>
+      <selection pane="bottomLeft" activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -732,7 +735,7 @@
       </c>
       <c r="C3" s="25">
         <f>SUM(C6:C521)</f>
-        <v>0.35069444444444436</v>
+        <v>0.38194444444444436</v>
       </c>
       <c r="D3" s="29" t="s">
         <v>13</v>
@@ -1107,14 +1110,22 @@
       <c r="F23" s="10"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="13" t="str">
+      <c r="A24" s="13">
         <f>IF(ISBLANK(B24),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
-        <v/>
-      </c>
-      <c r="B24" s="8"/>
-      <c r="C24" s="24"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="10"/>
+        <v>50</v>
+      </c>
+      <c r="B24" s="8">
+        <v>45639</v>
+      </c>
+      <c r="C24" s="24">
+        <v>3.125E-2</v>
+      </c>
+      <c r="D24" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="E24" s="10" t="s">
+        <v>38</v>
+      </c>
       <c r="F24" s="10"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -6736,6 +6747,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="be0d3259-a7ce-4623-88ec-81594dfcbc1c" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="99ffe1f3-7857-457f-add0-5bdef636f38d">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D4F20F00DBE2EE49BE9523363A2DF18B" ma:contentTypeVersion="13" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="83ae57d85107fc73e8c281aedb059e49">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="99ffe1f3-7857-457f-add0-5bdef636f38d" xmlns:ns3="be0d3259-a7ce-4623-88ec-81594dfcbc1c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b000e6a26fbebedf4c24f086a5622afe" ns2:_="" ns3:_="">
     <xsd:import namespace="99ffe1f3-7857-457f-add0-5bdef636f38d"/>
@@ -6958,27 +6989,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8EB0028C-89CE-4553-AB94-94DC6E832369}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="be0d3259-a7ce-4623-88ec-81594dfcbc1c"/>
+    <ds:schemaRef ds:uri="99ffe1f3-7857-457f-add0-5bdef636f38d"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="be0d3259-a7ce-4623-88ec-81594dfcbc1c" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="99ffe1f3-7857-457f-add0-5bdef636f38d">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BDECA689-F55E-43C8-8CEF-25DE741768EA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{146BE2DA-6117-4657-9EA0-437EBB1E64B8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6995,23 +7025,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BDECA689-F55E-43C8-8CEF-25DE741768EA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8EB0028C-89CE-4553-AB94-94DC6E832369}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="be0d3259-a7ce-4623-88ec-81594dfcbc1c"/>
-    <ds:schemaRef ds:uri="99ffe1f3-7857-457f-add0-5bdef636f38d"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/docs/Journal-de-Travail_Berchel-Joachim.xlsx
+++ b/docs/Journal-de-Travail_Berchel-Joachim.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\px59nyu\Documents\GitHub\joachim-MonProjetGenial\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8222604E-17BA-42E1-8FE6-7883E9FAFB63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFB8093E-DF93-4A28-822F-446B7AB12C47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6CC57B32-2488-5244-B7A6-FB7E808234AC}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="45">
   <si>
     <t>Journal de travail</t>
   </si>
@@ -156,6 +156,24 @@
   </si>
   <si>
     <t>J'affiche les fichiers dans ma bibliothèque (sans connexion au MQTT)</t>
+  </si>
+  <si>
+    <t>Je me connecte au broker blue avec les options donnés dans le README créé par Philippe, j'ai dû modifié un peu le code donc ça m'a pris plus de temps.</t>
+  </si>
+  <si>
+    <t>Je règle une erreur qui faisait crash mon code et je continue la création de mon menu pour chercher les catalogues (la recherche MQTT se fera après)</t>
+  </si>
+  <si>
+    <t>Évaluation des ~80%</t>
+  </si>
+  <si>
+    <t>J'ai un cours à rattraper</t>
+  </si>
+  <si>
+    <t>J'essaie d'implémenter le code fourni pour MQTT, je n'arrive pas à comprendre la logique des enveloppes.</t>
+  </si>
+  <si>
+    <t>Je crée la base du rapport</t>
   </si>
 </sst>
 </file>
@@ -455,6 +473,61 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>3143250</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>6051843</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>38224</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Image 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EEBB1963-9FD0-1FB5-EC68-18CCB23233A5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13487400" y="6553200"/>
+          <a:ext cx="2908593" cy="619249"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{45CB4986-052B-374B-A8D0-88D41B362A09}" name="Table2" displayName="Table2" ref="A5:F531" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
   <autoFilter ref="A5:F531" xr:uid="{45CB4986-052B-374B-A8D0-88D41B362A09}">
@@ -666,8 +739,8 @@
   <dimension ref="A1:N531"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E25" sqref="E25"/>
+      <pane ySplit="5" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -735,7 +808,7 @@
       </c>
       <c r="C3" s="25">
         <f>SUM(C6:C521)</f>
-        <v>0.38194444444444436</v>
+        <v>0.47569444444444436</v>
       </c>
       <c r="D3" s="29" t="s">
         <v>13</v>
@@ -1128,59 +1201,101 @@
       </c>
       <c r="F24" s="10"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="13" t="str">
+    <row r="25" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A25" s="13">
         <f>IF(ISBLANK(B25),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
-        <v/>
-      </c>
-      <c r="B25" s="8"/>
-      <c r="C25" s="24"/>
-      <c r="D25" s="21"/>
-      <c r="E25" s="10"/>
+        <v>50</v>
+      </c>
+      <c r="B25" s="8">
+        <v>45639</v>
+      </c>
+      <c r="C25" s="24">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="D25" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="E25" s="20" t="s">
+        <v>39</v>
+      </c>
       <c r="F25" s="10"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="13" t="str">
+    <row r="26" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A26" s="13">
         <f>IF(ISBLANK(B26),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
-        <v/>
-      </c>
-      <c r="B26" s="8"/>
-      <c r="C26" s="24"/>
-      <c r="D26" s="21"/>
-      <c r="E26" s="10"/>
+        <v>50</v>
+      </c>
+      <c r="B26" s="8">
+        <v>45639</v>
+      </c>
+      <c r="C26" s="24">
+        <v>2.4305555555555556E-2</v>
+      </c>
+      <c r="D26" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="E26" s="20" t="s">
+        <v>40</v>
+      </c>
       <c r="F26" s="10"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="13" t="str">
+      <c r="A27" s="13">
         <f>IF(ISBLANK(B27),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
-        <v/>
-      </c>
-      <c r="B27" s="8"/>
-      <c r="C27" s="24"/>
-      <c r="D27" s="21"/>
-      <c r="E27" s="20"/>
-      <c r="F27" s="10"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="13" t="str">
+        <v>50</v>
+      </c>
+      <c r="B27" s="8">
+        <v>45639</v>
+      </c>
+      <c r="C27" s="24">
+        <v>6.9444444444444441E-3</v>
+      </c>
+      <c r="D27" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="E27" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="F27" s="10" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A28" s="13">
         <f>IF(ISBLANK(B28),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
-        <v/>
-      </c>
-      <c r="B28" s="8"/>
-      <c r="C28" s="24"/>
-      <c r="D28" s="21"/>
-      <c r="E28" s="20"/>
+        <v>50</v>
+      </c>
+      <c r="B28" s="8">
+        <v>45639</v>
+      </c>
+      <c r="C28" s="24">
+        <v>2.7777777777777776E-2</v>
+      </c>
+      <c r="D28" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="E28" s="20" t="s">
+        <v>43</v>
+      </c>
       <c r="F28" s="22"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="13" t="str">
+      <c r="A29" s="13">
         <f>IF(ISBLANK(B29),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
-        <v/>
-      </c>
-      <c r="B29" s="8"/>
-      <c r="C29" s="24"/>
-      <c r="D29" s="21"/>
-      <c r="E29" s="20"/>
+        <v>50</v>
+      </c>
+      <c r="B29" s="8">
+        <v>45639</v>
+      </c>
+      <c r="C29" s="24">
+        <v>1.3888888888888888E-2</v>
+      </c>
+      <c r="D29" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="E29" s="20" t="s">
+        <v>44</v>
+      </c>
       <c r="F29" s="10"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -6740,8 +6855,9 @@
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>

--- a/docs/Journal-de-Travail_Berchel-Joachim.xlsx
+++ b/docs/Journal-de-Travail_Berchel-Joachim.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\px59nyu\Documents\GitHub\joachim-MonProjetGenial\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFB8093E-DF93-4A28-822F-446B7AB12C47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B97288EC-5151-4A68-9888-96D139874FA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6CC57B32-2488-5244-B7A6-FB7E808234AC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6CC57B32-2488-5244-B7A6-FB7E808234AC}"/>
   </bookViews>
   <sheets>
     <sheet name="Journal de travail" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="46">
   <si>
     <t>Journal de travail</t>
   </si>
@@ -174,6 +174,9 @@
   </si>
   <si>
     <t>Je crée la base du rapport</t>
+  </si>
+  <si>
+    <t>J'essaie de donner mon catalogue quand on me le demande. J'arrive à répondre un message il faut juste que le message soit mon catalogue. J'ai réussi à l'envoyer et à le recevoir. J'ai trouvé quand faire appel à la fonction.</t>
   </si>
 </sst>
 </file>
@@ -478,15 +481,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>3143250</xdr:colOff>
+      <xdr:colOff>3154456</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:rowOff>234763</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>6051843</xdr:colOff>
+      <xdr:colOff>6063049</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>38224</xdr:rowOff>
+      <xdr:rowOff>253937</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -515,8 +518,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13487400" y="6553200"/>
-          <a:ext cx="2908593" cy="619249"/>
+          <a:off x="13497485" y="6750984"/>
+          <a:ext cx="2908593" cy="618688"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -739,8 +742,8 @@
   <dimension ref="A1:N531"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E30" sqref="E30"/>
+      <pane ySplit="5" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -808,7 +811,7 @@
       </c>
       <c r="C3" s="25">
         <f>SUM(C6:C521)</f>
-        <v>0.47569444444444436</v>
+        <v>0.52083333333333326</v>
       </c>
       <c r="D3" s="29" t="s">
         <v>13</v>
@@ -1298,15 +1301,23 @@
       </c>
       <c r="F29" s="10"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="13" t="str">
+    <row r="30" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A30" s="13">
         <f>IF(ISBLANK(B30),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
-        <v/>
-      </c>
-      <c r="B30" s="8"/>
-      <c r="C30" s="24"/>
-      <c r="D30" s="21"/>
-      <c r="E30" s="10"/>
+        <v>51</v>
+      </c>
+      <c r="B30" s="8">
+        <v>45646</v>
+      </c>
+      <c r="C30" s="24">
+        <v>4.5138888888888888E-2</v>
+      </c>
+      <c r="D30" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="E30" s="20" t="s">
+        <v>45</v>
+      </c>
       <c r="F30" s="10"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -6863,26 +6874,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="be0d3259-a7ce-4623-88ec-81594dfcbc1c" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="99ffe1f3-7857-457f-add0-5bdef636f38d">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D4F20F00DBE2EE49BE9523363A2DF18B" ma:contentTypeVersion="13" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="83ae57d85107fc73e8c281aedb059e49">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="99ffe1f3-7857-457f-add0-5bdef636f38d" xmlns:ns3="be0d3259-a7ce-4623-88ec-81594dfcbc1c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b000e6a26fbebedf4c24f086a5622afe" ns2:_="" ns3:_="">
     <xsd:import namespace="99ffe1f3-7857-457f-add0-5bdef636f38d"/>
@@ -7105,26 +7096,27 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8EB0028C-89CE-4553-AB94-94DC6E832369}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="be0d3259-a7ce-4623-88ec-81594dfcbc1c"/>
-    <ds:schemaRef ds:uri="99ffe1f3-7857-457f-add0-5bdef636f38d"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BDECA689-F55E-43C8-8CEF-25DE741768EA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="be0d3259-a7ce-4623-88ec-81594dfcbc1c" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="99ffe1f3-7857-457f-add0-5bdef636f38d">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{146BE2DA-6117-4657-9EA0-437EBB1E64B8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7141,4 +7133,23 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BDECA689-F55E-43C8-8CEF-25DE741768EA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8EB0028C-89CE-4553-AB94-94DC6E832369}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="be0d3259-a7ce-4623-88ec-81594dfcbc1c"/>
+    <ds:schemaRef ds:uri="99ffe1f3-7857-457f-add0-5bdef636f38d"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/docs/Journal-de-Travail_Berchel-Joachim.xlsx
+++ b/docs/Journal-de-Travail_Berchel-Joachim.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\px59nyu\Documents\GitHub\joachim-MonProjetGenial\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B97288EC-5151-4A68-9888-96D139874FA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28582EDB-063F-4DBC-B0FF-D829D1E3AC55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6CC57B32-2488-5244-B7A6-FB7E808234AC}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="49">
   <si>
     <t>Journal de travail</t>
   </si>
@@ -105,9 +105,6 @@
   </si>
   <si>
     <t>Mise en place du rapport/journal de travail</t>
-  </si>
-  <si>
-    <t>Création de la planification</t>
   </si>
   <si>
     <t>Réunion pour définir le programme de la journée. Et analyser le code Rust de génération automatique du journal de travail.</t>
@@ -177,6 +174,18 @@
   </si>
   <si>
     <t>J'essaie de donner mon catalogue quand on me le demande. J'arrive à répondre un message il faut juste que le message soit mon catalogue. J'ai réussi à l'envoyer et à le recevoir. J'ai trouvé quand faire appel à la fonction.</t>
+  </si>
+  <si>
+    <t>Répondre à une entreprise</t>
+  </si>
+  <si>
+    <t>Création de la planification et des maquettes</t>
+  </si>
+  <si>
+    <t>Selon l'évaluation des 80% je rajoute des détails techniques sur mes maquettes</t>
+  </si>
+  <si>
+    <t>J'avance sur le rapport, reporter les maquettes, faire l'introduction.</t>
   </si>
 </sst>
 </file>
@@ -743,7 +752,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D32" sqref="D32"/>
+      <selection pane="bottomLeft" activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -811,7 +820,7 @@
       </c>
       <c r="C3" s="25">
         <f>SUM(C6:C521)</f>
-        <v>0.52083333333333326</v>
+        <v>0.54513888888888873</v>
       </c>
       <c r="D3" s="29" t="s">
         <v>13</v>
@@ -896,7 +905,7 @@
         <v>7</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="F8" s="23"/>
     </row>
@@ -915,7 +924,7 @@
         <v>11</v>
       </c>
       <c r="E9" s="20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F9" s="10"/>
     </row>
@@ -934,7 +943,7 @@
         <v>8</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F10" s="22"/>
     </row>
@@ -953,7 +962,7 @@
         <v>7</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F11" s="10"/>
     </row>
@@ -972,7 +981,7 @@
         <v>8</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F12" s="10"/>
     </row>
@@ -991,7 +1000,7 @@
         <v>17</v>
       </c>
       <c r="E13" s="20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F13" s="10"/>
     </row>
@@ -1010,7 +1019,7 @@
         <v>8</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F14" s="10"/>
     </row>
@@ -1029,7 +1038,7 @@
         <v>8</v>
       </c>
       <c r="E15" s="20" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F15" s="10"/>
     </row>
@@ -1048,7 +1057,7 @@
         <v>7</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F16" s="10"/>
     </row>
@@ -1067,7 +1076,7 @@
         <v>8</v>
       </c>
       <c r="E17" s="20" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F17" s="22"/>
     </row>
@@ -1086,7 +1095,7 @@
         <v>8</v>
       </c>
       <c r="E18" s="20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F18" s="10"/>
     </row>
@@ -1105,7 +1114,7 @@
         <v>8</v>
       </c>
       <c r="E19" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F19" s="10"/>
     </row>
@@ -1124,7 +1133,7 @@
         <v>8</v>
       </c>
       <c r="E20" s="20" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F20" s="22"/>
     </row>
@@ -1143,7 +1152,7 @@
         <v>8</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F21" s="10"/>
     </row>
@@ -1162,7 +1171,7 @@
         <v>8</v>
       </c>
       <c r="E22" s="20" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F22" s="22"/>
     </row>
@@ -1181,7 +1190,7 @@
         <v>8</v>
       </c>
       <c r="E23" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F23" s="10"/>
     </row>
@@ -1200,7 +1209,7 @@
         <v>8</v>
       </c>
       <c r="E24" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F24" s="10"/>
     </row>
@@ -1219,7 +1228,7 @@
         <v>8</v>
       </c>
       <c r="E25" s="20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F25" s="10"/>
     </row>
@@ -1238,7 +1247,7 @@
         <v>8</v>
       </c>
       <c r="E26" s="20" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F26" s="10"/>
     </row>
@@ -1257,10 +1266,10 @@
         <v>11</v>
       </c>
       <c r="E27" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="F27" s="10" t="s">
         <v>41</v>
-      </c>
-      <c r="F27" s="10" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
@@ -1278,7 +1287,7 @@
         <v>8</v>
       </c>
       <c r="E28" s="20" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F28" s="22"/>
     </row>
@@ -1297,7 +1306,7 @@
         <v>10</v>
       </c>
       <c r="E29" s="20" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F29" s="10"/>
     </row>
@@ -1316,41 +1325,65 @@
         <v>8</v>
       </c>
       <c r="E30" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" s="10"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="13">
+        <f>IF(ISBLANK(B31),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
+        <v>51</v>
+      </c>
+      <c r="B31" s="8">
+        <v>45646</v>
+      </c>
+      <c r="C31" s="24">
+        <v>1.0416666666666666E-2</v>
+      </c>
+      <c r="D31" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="E31" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="F30" s="10"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="13" t="str">
-        <f>IF(ISBLANK(B31),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
-        <v/>
-      </c>
-      <c r="B31" s="8"/>
-      <c r="C31" s="24"/>
-      <c r="D31" s="21"/>
-      <c r="E31" s="10"/>
       <c r="F31" s="10"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="13" t="str">
+      <c r="A32" s="13">
         <f>IF(ISBLANK(B32),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
-        <v/>
-      </c>
-      <c r="B32" s="8"/>
-      <c r="C32" s="24"/>
-      <c r="D32" s="27"/>
-      <c r="E32" s="10"/>
+        <v>51</v>
+      </c>
+      <c r="B32" s="8">
+        <v>45646</v>
+      </c>
+      <c r="C32" s="24">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="D32" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="E32" s="10" t="s">
+        <v>47</v>
+      </c>
       <c r="F32" s="10"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="13" t="str">
+      <c r="A33" s="13">
         <f>IF(ISBLANK(B33),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
-        <v/>
-      </c>
-      <c r="B33" s="8"/>
-      <c r="C33" s="24"/>
-      <c r="D33" s="21"/>
-      <c r="E33" s="10"/>
+        <v>51</v>
+      </c>
+      <c r="B33" s="8">
+        <v>45646</v>
+      </c>
+      <c r="C33" s="24">
+        <v>1.0416666666666666E-2</v>
+      </c>
+      <c r="D33" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="E33" s="10" t="s">
+        <v>48</v>
+      </c>
       <c r="F33" s="10"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">

--- a/docs/Journal-de-Travail_Berchel-Joachim.xlsx
+++ b/docs/Journal-de-Travail_Berchel-Joachim.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\px59nyu\Documents\GitHub\joachim-MonProjetGenial\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28582EDB-063F-4DBC-B0FF-D829D1E3AC55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1576AA72-5F8F-4C3B-9648-C633A017DBE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6CC57B32-2488-5244-B7A6-FB7E808234AC}"/>
   </bookViews>
@@ -752,7 +752,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E33" sqref="E33"/>
+      <selection pane="bottomLeft" activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -820,7 +820,7 @@
       </c>
       <c r="C3" s="25">
         <f>SUM(C6:C521)</f>
-        <v>0.54513888888888873</v>
+        <v>0.54166666666666652</v>
       </c>
       <c r="D3" s="29" t="s">
         <v>13</v>
@@ -1376,7 +1376,7 @@
         <v>45646</v>
       </c>
       <c r="C33" s="24">
-        <v>1.0416666666666666E-2</v>
+        <v>6.9444444444444441E-3</v>
       </c>
       <c r="D33" s="21" t="s">
         <v>10</v>

--- a/docs/Journal-de-Travail_Berchel-Joachim.xlsx
+++ b/docs/Journal-de-Travail_Berchel-Joachim.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\px59nyu\Documents\GitHub\joachim-MonProjetGenial\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1576AA72-5F8F-4C3B-9648-C633A017DBE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{112F9AF2-0A1C-424D-80E5-89ABE42F3EC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6CC57B32-2488-5244-B7A6-FB7E808234AC}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6CC57B32-2488-5244-B7A6-FB7E808234AC}"/>
   </bookViews>
   <sheets>
     <sheet name="Journal de travail" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="50">
   <si>
     <t>Journal de travail</t>
   </si>
@@ -186,6 +186,9 @@
   </si>
   <si>
     <t>J'avance sur le rapport, reporter les maquettes, faire l'introduction.</t>
+  </si>
+  <si>
+    <t>Je récupère le code donné par Tiago/Thomas/Philippe sur le GitHub. Je refactorise le code pour qu'il soit utilisable (code en français/Anglais - Fonction qui font 10 actions différentes). Au final j'ai créé une fonction qui écoute, elle fait appelle a une fonction qui désérialise le message pour obtenir le type du message. Ensuite je vérifie le senderId car je reçois mes propres messages. Ensuite je fais appel a une fonction qui process le message selon son type et fait appel a une fonction qui répond au type de message (si on me demande un catalogue je fais appel à la fonction "SendCatalog")</t>
   </si>
 </sst>
 </file>
@@ -752,7 +755,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C30" sqref="C30"/>
+      <selection pane="bottomLeft" activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -820,7 +823,7 @@
       </c>
       <c r="C3" s="25">
         <f>SUM(C6:C521)</f>
-        <v>0.54166666666666652</v>
+        <v>0.59027777777777768</v>
       </c>
       <c r="D3" s="29" t="s">
         <v>13</v>
@@ -1386,15 +1389,23 @@
       </c>
       <c r="F33" s="10"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="13" t="str">
+    <row r="34" spans="1:6" ht="110.25" x14ac:dyDescent="0.25">
+      <c r="A34" s="13">
         <f>IF(ISBLANK(B34),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
-        <v/>
-      </c>
-      <c r="B34" s="8"/>
-      <c r="C34" s="24"/>
-      <c r="D34" s="21"/>
-      <c r="E34" s="20"/>
+        <v>51</v>
+      </c>
+      <c r="B34" s="8">
+        <v>45646</v>
+      </c>
+      <c r="C34" s="24">
+        <v>4.8611111111111112E-2</v>
+      </c>
+      <c r="D34" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="E34" s="20" t="s">
+        <v>49</v>
+      </c>
       <c r="F34" s="10"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">

--- a/docs/Journal-de-Travail_Berchel-Joachim.xlsx
+++ b/docs/Journal-de-Travail_Berchel-Joachim.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\px59nyu\Documents\GitHub\joachim-MonProjetGenial\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{112F9AF2-0A1C-424D-80E5-89ABE42F3EC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E8612DF-F08E-4AB0-B91D-FA0DAF296A58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6CC57B32-2488-5244-B7A6-FB7E808234AC}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="51">
   <si>
     <t>Journal de travail</t>
   </si>
@@ -189,6 +189,9 @@
   </si>
   <si>
     <t>Je récupère le code donné par Tiago/Thomas/Philippe sur le GitHub. Je refactorise le code pour qu'il soit utilisable (code en français/Anglais - Fonction qui font 10 actions différentes). Au final j'ai créé une fonction qui écoute, elle fait appelle a une fonction qui désérialise le message pour obtenir le type du message. Ensuite je vérifie le senderId car je reçois mes propres messages. Ensuite je fais appel a une fonction qui process le message selon son type et fait appel a une fonction qui répond au type de message (si on me demande un catalogue je fais appel à la fonction "SendCatalog")</t>
+  </si>
+  <si>
+    <t>Au clic bouton "Rechercher" une demande de catalogue est envoyé, testé avec Tiago cela fonctionne.</t>
   </si>
 </sst>
 </file>
@@ -755,7 +758,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E35" sqref="E35"/>
+      <selection pane="bottomLeft" activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -823,7 +826,7 @@
       </c>
       <c r="C3" s="25">
         <f>SUM(C6:C521)</f>
-        <v>0.59027777777777768</v>
+        <v>0.61805555555555547</v>
       </c>
       <c r="D3" s="29" t="s">
         <v>13</v>
@@ -1409,14 +1412,22 @@
       <c r="F34" s="10"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="13" t="str">
+      <c r="A35" s="13">
         <f>IF(ISBLANK(B35),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
-        <v/>
-      </c>
-      <c r="B35" s="8"/>
-      <c r="C35" s="24"/>
-      <c r="D35" s="21"/>
-      <c r="E35" s="10"/>
+        <v>51</v>
+      </c>
+      <c r="B35" s="8">
+        <v>45646</v>
+      </c>
+      <c r="C35" s="24">
+        <v>2.7777777777777776E-2</v>
+      </c>
+      <c r="D35" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="E35" s="10" t="s">
+        <v>50</v>
+      </c>
       <c r="F35" s="10"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">

--- a/docs/Journal-de-Travail_Berchel-Joachim.xlsx
+++ b/docs/Journal-de-Travail_Berchel-Joachim.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\px59nyu\Documents\GitHub\joachim-MonProjetGenial\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E8612DF-F08E-4AB0-B91D-FA0DAF296A58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFBC0D6C-83A6-4D8A-9CB0-FDE5B4050810}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6CC57B32-2488-5244-B7A6-FB7E808234AC}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="52">
   <si>
     <t>Journal de travail</t>
   </si>
@@ -192,6 +192,9 @@
   </si>
   <si>
     <t>Au clic bouton "Rechercher" une demande de catalogue est envoyé, testé avec Tiago cela fonctionne.</t>
+  </si>
+  <si>
+    <t>J'avance sur donner mon catalogue</t>
   </si>
 </sst>
 </file>
@@ -758,7 +761,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B36" sqref="B36"/>
+      <selection pane="bottomLeft" activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -826,7 +829,7 @@
       </c>
       <c r="C3" s="25">
         <f>SUM(C6:C521)</f>
-        <v>0.61805555555555547</v>
+        <v>0.64583333333333326</v>
       </c>
       <c r="D3" s="29" t="s">
         <v>13</v>
@@ -1431,14 +1434,22 @@
       <c r="F35" s="10"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="13" t="str">
+      <c r="A36" s="13">
         <f>IF(ISBLANK(B36),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
-        <v/>
-      </c>
-      <c r="B36" s="8"/>
-      <c r="C36" s="24"/>
-      <c r="D36" s="21"/>
-      <c r="E36" s="10"/>
+        <v>51</v>
+      </c>
+      <c r="B36" s="8">
+        <v>45646</v>
+      </c>
+      <c r="C36" s="24">
+        <v>2.7777777777777776E-2</v>
+      </c>
+      <c r="D36" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="E36" s="10" t="s">
+        <v>51</v>
+      </c>
       <c r="F36" s="10"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">

--- a/docs/Journal-de-Travail_Berchel-Joachim.xlsx
+++ b/docs/Journal-de-Travail_Berchel-Joachim.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\px59nyu\Documents\GitHub\joachim-MonProjetGenial\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cyco\Documents\GitHub\joachim-MonProjetGenial\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFBC0D6C-83A6-4D8A-9CB0-FDE5B4050810}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7CCD5E7-C0A6-44D1-91FD-7BEC02991F2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6CC57B32-2488-5244-B7A6-FB7E808234AC}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{6CC57B32-2488-5244-B7A6-FB7E808234AC}"/>
   </bookViews>
   <sheets>
     <sheet name="Journal de travail" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="53">
   <si>
     <t>Journal de travail</t>
   </si>
@@ -195,6 +195,9 @@
   </si>
   <si>
     <t>J'avance sur donner mon catalogue</t>
+  </si>
+  <si>
+    <t>J'avance sur l'envoi de catalogue, cela devrait fonctionner, l'envoi du catalogue se fait après une demande de catalogue mais je ne sais pas si les autres peuvent traités le format de mon catalogue.</t>
   </si>
 </sst>
 </file>
@@ -381,56 +384,6 @@
   </cellStyles>
   <dxfs count="14">
     <dxf>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="25" formatCode="hh:mm"/>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="21" formatCode="dd/mmm"/>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="2" tint="-9.9978637043366805E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FFFF0000"/>
@@ -478,6 +431,56 @@
       <fill>
         <patternFill>
           <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="25" formatCode="hh:mm"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="21" formatCode="dd/mmm"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="2" tint="-9.9978637043366805E-2"/>
         </patternFill>
       </fill>
     </dxf>
@@ -550,7 +553,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{45CB4986-052B-374B-A8D0-88D41B362A09}" name="Table2" displayName="Table2" ref="A5:F531" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{45CB4986-052B-374B-A8D0-88D41B362A09}" name="Table2" displayName="Table2" ref="A5:F531" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
   <autoFilter ref="A5:F531" xr:uid="{45CB4986-052B-374B-A8D0-88D41B362A09}">
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -558,14 +561,14 @@
     <filterColumn colId="5" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{F92771A6-FBDD-734E-AD68-EEBCABBE5406}" name="Semaine" dataDxfId="5">
+    <tableColumn id="1" xr3:uid="{F92771A6-FBDD-734E-AD68-EEBCABBE5406}" name="Semaine" dataDxfId="11">
       <calculatedColumnFormula>IF(ISBLANK(B6),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{8A6A2217-ACA1-B64A-AACC-E62161ECEC47}" name="Jour" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{7CF180A9-4021-614A-ABFA-FD02FA7EE89D}" name="Temps [h]" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{DA59D006-464D-084D-8523-AF3DB167EDE2}" name="Type" dataDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{5207D366-301C-BA4D-A840-0D62AE8890E1}" name="Description" dataDxfId="1"/>
-    <tableColumn id="6" xr3:uid="{F7678D64-0216-D64A-A954-D1A966D4BF65}" name="Remarques/problèmes" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{8A6A2217-ACA1-B64A-AACC-E62161ECEC47}" name="Jour" dataDxfId="10"/>
+    <tableColumn id="3" xr3:uid="{7CF180A9-4021-614A-ABFA-FD02FA7EE89D}" name="Temps [h]" dataDxfId="9"/>
+    <tableColumn id="4" xr3:uid="{DA59D006-464D-084D-8523-AF3DB167EDE2}" name="Type" dataDxfId="8"/>
+    <tableColumn id="5" xr3:uid="{5207D366-301C-BA4D-A840-0D62AE8890E1}" name="Description" dataDxfId="7"/>
+    <tableColumn id="6" xr3:uid="{F7678D64-0216-D64A-A954-D1A966D4BF65}" name="Remarques/problèmes" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -760,27 +763,27 @@
   <dimension ref="A1:N531"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B37" sqref="B37"/>
+      <pane ySplit="5" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.625" style="13" customWidth="1"/>
-    <col min="2" max="2" width="9.875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="13.875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="13.875" style="28" customWidth="1"/>
+    <col min="1" max="1" width="14.58203125" style="13" customWidth="1"/>
+    <col min="2" max="2" width="9.83203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13.83203125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="13.83203125" style="28" customWidth="1"/>
     <col min="5" max="5" width="83.5" customWidth="1"/>
-    <col min="6" max="6" width="91.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="91.83203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11" customWidth="1"/>
     <col min="10" max="10" width="7.25" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="4.375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.58203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4.33203125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="5.5" customWidth="1"/>
-    <col min="14" max="14" width="2.875" customWidth="1"/>
+    <col min="14" max="14" width="2.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="15"/>
       <c r="B1" s="16"/>
       <c r="C1" s="17"/>
@@ -790,7 +793,7 @@
       </c>
       <c r="F1" s="18"/>
     </row>
-    <row r="2" spans="1:14" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="4" t="s">
         <v>16</v>
       </c>
@@ -823,13 +826,13 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C3" s="25">
         <f>SUM(C6:C521)</f>
-        <v>0.64583333333333326</v>
+        <v>0.65624999999999989</v>
       </c>
       <c r="D3" s="29" t="s">
         <v>13</v>
@@ -841,7 +844,7 @@
         <v>45604</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="14" t="s">
         <v>2</v>
       </c>
@@ -861,7 +864,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A6" s="13">
         <f>IF(ISBLANK(B6),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v>45</v>
@@ -880,7 +883,7 @@
       </c>
       <c r="F6" s="22"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7" s="13">
         <f>IF(ISBLANK(B7),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v>45</v>
@@ -899,7 +902,7 @@
       </c>
       <c r="F7" s="10"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A8" s="13">
         <f>IF(ISBLANK(B8),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v>45</v>
@@ -918,7 +921,7 @@
       </c>
       <c r="F8" s="23"/>
     </row>
-    <row r="9" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" ht="31" x14ac:dyDescent="0.35">
       <c r="A9" s="13">
         <f>IF(ISBLANK(B9),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v>47</v>
@@ -937,7 +940,7 @@
       </c>
       <c r="F9" s="10"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A10" s="13">
         <f>IF(ISBLANK(B10),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v>47</v>
@@ -956,7 +959,7 @@
       </c>
       <c r="F10" s="22"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A11" s="13">
         <f>IF(ISBLANK(B11),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v>47</v>
@@ -975,7 +978,7 @@
       </c>
       <c r="F11" s="10"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A12" s="13">
         <f>IF(ISBLANK(B12),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v>47</v>
@@ -994,7 +997,7 @@
       </c>
       <c r="F12" s="10"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A13" s="13">
         <f>IF(ISBLANK(B13),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v>47</v>
@@ -1013,7 +1016,7 @@
       </c>
       <c r="F13" s="10"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A14" s="13">
         <f>IF(ISBLANK(B14),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v>47</v>
@@ -1032,7 +1035,7 @@
       </c>
       <c r="F14" s="10"/>
     </row>
-    <row r="15" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" ht="31" x14ac:dyDescent="0.35">
       <c r="A15" s="13">
         <f>IF(ISBLANK(B15),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v>47</v>
@@ -1051,7 +1054,7 @@
       </c>
       <c r="F15" s="10"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A16" s="13">
         <f>IF(ISBLANK(B16),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v>48</v>
@@ -1070,7 +1073,7 @@
       </c>
       <c r="F16" s="10"/>
     </row>
-    <row r="17" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="31" x14ac:dyDescent="0.35">
       <c r="A17" s="13">
         <f>IF(ISBLANK(B17),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v>48</v>
@@ -1089,7 +1092,7 @@
       </c>
       <c r="F17" s="22"/>
     </row>
-    <row r="18" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="31" x14ac:dyDescent="0.35">
       <c r="A18" s="13">
         <f>IF(ISBLANK(B18),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v>48</v>
@@ -1108,7 +1111,7 @@
       </c>
       <c r="F18" s="10"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" s="13">
         <f>IF(ISBLANK(B19),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v>48</v>
@@ -1127,7 +1130,7 @@
       </c>
       <c r="F19" s="10"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" s="13">
         <f>IF(ISBLANK(B20),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v>48</v>
@@ -1146,7 +1149,7 @@
       </c>
       <c r="F20" s="22"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" s="13">
         <f>IF(ISBLANK(B21),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v>48</v>
@@ -1165,7 +1168,7 @@
       </c>
       <c r="F21" s="10"/>
     </row>
-    <row r="22" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" ht="31" x14ac:dyDescent="0.35">
       <c r="A22" s="13">
         <f>IF(ISBLANK(B22),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v>48</v>
@@ -1184,7 +1187,7 @@
       </c>
       <c r="F22" s="22"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" s="13">
         <f>IF(ISBLANK(B23),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v>48</v>
@@ -1203,7 +1206,7 @@
       </c>
       <c r="F23" s="10"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" s="13">
         <f>IF(ISBLANK(B24),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v>50</v>
@@ -1222,7 +1225,7 @@
       </c>
       <c r="F24" s="10"/>
     </row>
-    <row r="25" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" ht="31" x14ac:dyDescent="0.35">
       <c r="A25" s="13">
         <f>IF(ISBLANK(B25),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v>50</v>
@@ -1241,7 +1244,7 @@
       </c>
       <c r="F25" s="10"/>
     </row>
-    <row r="26" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" ht="31" x14ac:dyDescent="0.35">
       <c r="A26" s="13">
         <f>IF(ISBLANK(B26),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v>50</v>
@@ -1260,7 +1263,7 @@
       </c>
       <c r="F26" s="10"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" s="13">
         <f>IF(ISBLANK(B27),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v>50</v>
@@ -1281,7 +1284,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" ht="31" x14ac:dyDescent="0.35">
       <c r="A28" s="13">
         <f>IF(ISBLANK(B28),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v>50</v>
@@ -1300,7 +1303,7 @@
       </c>
       <c r="F28" s="22"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" s="13">
         <f>IF(ISBLANK(B29),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v>50</v>
@@ -1319,7 +1322,7 @@
       </c>
       <c r="F29" s="10"/>
     </row>
-    <row r="30" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A30" s="13">
         <f>IF(ISBLANK(B30),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v>51</v>
@@ -1338,7 +1341,7 @@
       </c>
       <c r="F30" s="10"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" s="13">
         <f>IF(ISBLANK(B31),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v>51</v>
@@ -1357,7 +1360,7 @@
       </c>
       <c r="F31" s="10"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32" s="13">
         <f>IF(ISBLANK(B32),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v>51</v>
@@ -1376,7 +1379,7 @@
       </c>
       <c r="F32" s="10"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33" s="13">
         <f>IF(ISBLANK(B33),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v>51</v>
@@ -1395,7 +1398,7 @@
       </c>
       <c r="F33" s="10"/>
     </row>
-    <row r="34" spans="1:6" ht="110.25" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" ht="108.5" x14ac:dyDescent="0.35">
       <c r="A34" s="13">
         <f>IF(ISBLANK(B34),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v>51</v>
@@ -1414,7 +1417,7 @@
       </c>
       <c r="F34" s="10"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35" s="13">
         <f>IF(ISBLANK(B35),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v>51</v>
@@ -1433,7 +1436,7 @@
       </c>
       <c r="F35" s="10"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36" s="13">
         <f>IF(ISBLANK(B36),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v>51</v>
@@ -1452,18 +1455,26 @@
       </c>
       <c r="F36" s="10"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="13" t="str">
+    <row r="37" spans="1:6" ht="31" x14ac:dyDescent="0.35">
+      <c r="A37" s="13">
         <f>IF(ISBLANK(B37),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
-        <v/>
-      </c>
-      <c r="B37" s="8"/>
-      <c r="C37" s="24"/>
-      <c r="D37" s="21"/>
-      <c r="E37" s="20"/>
+        <v>2</v>
+      </c>
+      <c r="B37" s="8">
+        <v>45663</v>
+      </c>
+      <c r="C37" s="24">
+        <v>1.0416666666666666E-2</v>
+      </c>
+      <c r="D37" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="E37" s="20" t="s">
+        <v>52</v>
+      </c>
       <c r="F37" s="10"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38" s="13" t="str">
         <f>IF(ISBLANK(B38),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1474,7 +1485,7 @@
       <c r="E38" s="10"/>
       <c r="F38" s="10"/>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A39" s="13" t="str">
         <f>IF(ISBLANK(B39),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1485,7 +1496,7 @@
       <c r="E39" s="10"/>
       <c r="F39" s="10"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A40" s="13" t="str">
         <f>IF(ISBLANK(B40),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1496,7 +1507,7 @@
       <c r="E40" s="10"/>
       <c r="F40" s="10"/>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A41" s="13" t="str">
         <f>IF(ISBLANK(B41),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1507,7 +1518,7 @@
       <c r="E41" s="10"/>
       <c r="F41" s="10"/>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A42" s="13" t="str">
         <f>IF(ISBLANK(B42),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1518,7 +1529,7 @@
       <c r="E42" s="10"/>
       <c r="F42" s="10"/>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A43" s="13" t="str">
         <f>IF(ISBLANK(B43),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1529,7 +1540,7 @@
       <c r="E43" s="20"/>
       <c r="F43" s="10"/>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A44" s="13" t="str">
         <f>IF(ISBLANK(B44),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1540,7 +1551,7 @@
       <c r="E44" s="10"/>
       <c r="F44" s="10"/>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A45" s="13" t="str">
         <f>IF(ISBLANK(B45),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1551,7 +1562,7 @@
       <c r="E45" s="10"/>
       <c r="F45" s="10"/>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A46" s="13" t="str">
         <f>IF(ISBLANK(B46),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1562,7 +1573,7 @@
       <c r="E46" s="10"/>
       <c r="F46" s="20"/>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A47" s="13" t="str">
         <f>IF(ISBLANK(B47),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1573,7 +1584,7 @@
       <c r="E47" s="10"/>
       <c r="F47" s="10"/>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A48" s="13" t="str">
         <f>IF(ISBLANK(B48),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1584,7 +1595,7 @@
       <c r="E48" s="20"/>
       <c r="F48" s="10"/>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A49" s="13" t="str">
         <f>IF(ISBLANK(B49),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1595,7 +1606,7 @@
       <c r="E49" s="10"/>
       <c r="F49" s="10"/>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A50" s="13" t="str">
         <f>IF(ISBLANK(B50),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1606,7 +1617,7 @@
       <c r="E50" s="10"/>
       <c r="F50" s="10"/>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A51" s="13" t="str">
         <f>IF(ISBLANK(B51),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1617,7 +1628,7 @@
       <c r="E51" s="10"/>
       <c r="F51" s="10"/>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A52" s="13" t="str">
         <f>IF(ISBLANK(B52),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1628,7 +1639,7 @@
       <c r="E52" s="10"/>
       <c r="F52" s="10"/>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A53" s="13" t="str">
         <f>IF(ISBLANK(B53),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1639,7 +1650,7 @@
       <c r="E53" s="10"/>
       <c r="F53" s="10"/>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A54" s="13" t="str">
         <f>IF(ISBLANK(B54),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1650,7 +1661,7 @@
       <c r="E54" s="10"/>
       <c r="F54" s="10"/>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A55" s="13" t="str">
         <f>IF(ISBLANK(B55),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1661,7 +1672,7 @@
       <c r="E55" s="10"/>
       <c r="F55" s="10"/>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A56" s="13" t="str">
         <f>IF(ISBLANK(B56),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1672,7 +1683,7 @@
       <c r="E56" s="10"/>
       <c r="F56" s="10"/>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A57" s="13" t="str">
         <f>IF(ISBLANK(B57),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1683,7 +1694,7 @@
       <c r="E57" s="10"/>
       <c r="F57" s="10"/>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A58" s="13" t="str">
         <f>IF(ISBLANK(B58),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1694,7 +1705,7 @@
       <c r="E58" s="10"/>
       <c r="F58" s="10"/>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A59" s="13" t="str">
         <f>IF(ISBLANK(B59),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1705,7 +1716,7 @@
       <c r="E59" s="10"/>
       <c r="F59" s="10"/>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A60" s="13" t="str">
         <f>IF(ISBLANK(B60),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1716,7 +1727,7 @@
       <c r="E60" s="10"/>
       <c r="F60" s="10"/>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A61" s="13" t="str">
         <f>IF(ISBLANK(B61),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1727,7 +1738,7 @@
       <c r="E61" s="10"/>
       <c r="F61" s="10"/>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A62" s="13" t="str">
         <f>IF(ISBLANK(B62),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1738,7 +1749,7 @@
       <c r="E62" s="10"/>
       <c r="F62" s="10"/>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A63" s="13" t="str">
         <f>IF(ISBLANK(B63),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1749,7 +1760,7 @@
       <c r="E63" s="10"/>
       <c r="F63" s="10"/>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A64" s="13" t="str">
         <f>IF(ISBLANK(B64),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1760,7 +1771,7 @@
       <c r="E64" s="10"/>
       <c r="F64" s="10"/>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A65" s="13" t="str">
         <f>IF(ISBLANK(B65),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1771,7 +1782,7 @@
       <c r="E65" s="10"/>
       <c r="F65" s="10"/>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A66" s="13" t="str">
         <f>IF(ISBLANK(B66),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1782,7 +1793,7 @@
       <c r="E66" s="10"/>
       <c r="F66" s="10"/>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A67" s="13" t="str">
         <f>IF(ISBLANK(B67),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1793,7 +1804,7 @@
       <c r="E67" s="10"/>
       <c r="F67" s="10"/>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A68" s="13" t="str">
         <f>IF(ISBLANK(B68),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1804,7 +1815,7 @@
       <c r="E68" s="10"/>
       <c r="F68" s="10"/>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A69" s="13" t="str">
         <f>IF(ISBLANK(B69),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1815,7 +1826,7 @@
       <c r="E69" s="10"/>
       <c r="F69" s="10"/>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A70" s="13" t="str">
         <f>IF(ISBLANK(B70),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1826,7 +1837,7 @@
       <c r="E70" s="10"/>
       <c r="F70" s="10"/>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A71" s="13" t="str">
         <f>IF(ISBLANK(B71),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1837,7 +1848,7 @@
       <c r="E71" s="10"/>
       <c r="F71" s="10"/>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A72" s="13" t="str">
         <f>IF(ISBLANK(B72),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1848,7 +1859,7 @@
       <c r="E72" s="10"/>
       <c r="F72" s="10"/>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A73" s="13" t="str">
         <f>IF(ISBLANK(B73),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1859,7 +1870,7 @@
       <c r="E73" s="10"/>
       <c r="F73" s="10"/>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A74" s="13" t="str">
         <f>IF(ISBLANK(B74),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1870,7 +1881,7 @@
       <c r="E74" s="10"/>
       <c r="F74" s="10"/>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A75" s="13" t="str">
         <f>IF(ISBLANK(B75),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1881,7 +1892,7 @@
       <c r="E75" s="10"/>
       <c r="F75" s="10"/>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A76" s="13" t="str">
         <f>IF(ISBLANK(B76),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1892,7 +1903,7 @@
       <c r="E76" s="10"/>
       <c r="F76" s="10"/>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A77" s="13" t="str">
         <f>IF(ISBLANK(B77),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1903,7 +1914,7 @@
       <c r="E77" s="10"/>
       <c r="F77" s="10"/>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A78" s="13" t="str">
         <f>IF(ISBLANK(B78),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1914,7 +1925,7 @@
       <c r="E78" s="10"/>
       <c r="F78" s="10"/>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A79" s="13" t="str">
         <f>IF(ISBLANK(B79),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1925,7 +1936,7 @@
       <c r="E79" s="10"/>
       <c r="F79" s="10"/>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A80" s="13" t="str">
         <f>IF(ISBLANK(B80),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1936,7 +1947,7 @@
       <c r="E80" s="10"/>
       <c r="F80" s="10"/>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A81" s="13" t="str">
         <f>IF(ISBLANK(B81),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1947,7 +1958,7 @@
       <c r="E81" s="10"/>
       <c r="F81" s="10"/>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A82" s="13" t="str">
         <f>IF(ISBLANK(B82),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1958,7 +1969,7 @@
       <c r="E82" s="10"/>
       <c r="F82" s="10"/>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A83" s="13" t="str">
         <f>IF(ISBLANK(B83),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1969,7 +1980,7 @@
       <c r="E83" s="10"/>
       <c r="F83" s="10"/>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A84" s="13" t="str">
         <f>IF(ISBLANK(B84),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1980,7 +1991,7 @@
       <c r="E84" s="10"/>
       <c r="F84" s="10"/>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A85" s="13" t="str">
         <f>IF(ISBLANK(B85),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1991,7 +2002,7 @@
       <c r="E85" s="10"/>
       <c r="F85" s="10"/>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A86" s="13" t="str">
         <f>IF(ISBLANK(B86),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2002,7 +2013,7 @@
       <c r="E86" s="10"/>
       <c r="F86" s="10"/>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A87" s="13" t="str">
         <f>IF(ISBLANK(B87),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2013,7 +2024,7 @@
       <c r="E87" s="10"/>
       <c r="F87" s="10"/>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A88" s="13" t="str">
         <f>IF(ISBLANK(B88),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2024,7 +2035,7 @@
       <c r="E88" s="10"/>
       <c r="F88" s="10"/>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A89" s="13" t="str">
         <f>IF(ISBLANK(B89),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2035,7 +2046,7 @@
       <c r="E89" s="10"/>
       <c r="F89" s="10"/>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A90" s="13" t="str">
         <f>IF(ISBLANK(B90),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2046,7 +2057,7 @@
       <c r="E90" s="10"/>
       <c r="F90" s="10"/>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A91" s="13" t="str">
         <f>IF(ISBLANK(B91),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2057,7 +2068,7 @@
       <c r="E91" s="10"/>
       <c r="F91" s="10"/>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A92" s="13" t="str">
         <f>IF(ISBLANK(B92),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2068,7 +2079,7 @@
       <c r="E92" s="10"/>
       <c r="F92" s="10"/>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A93" s="13" t="str">
         <f>IF(ISBLANK(B93),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2079,7 +2090,7 @@
       <c r="E93" s="10"/>
       <c r="F93" s="10"/>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A94" s="13" t="str">
         <f>IF(ISBLANK(B94),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2090,7 +2101,7 @@
       <c r="E94" s="10"/>
       <c r="F94" s="10"/>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A95" s="13" t="str">
         <f>IF(ISBLANK(B95),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2101,7 +2112,7 @@
       <c r="E95" s="10"/>
       <c r="F95" s="10"/>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A96" s="13" t="str">
         <f>IF(ISBLANK(B96),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2112,7 +2123,7 @@
       <c r="E96" s="10"/>
       <c r="F96" s="10"/>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A97" s="13" t="str">
         <f>IF(ISBLANK(B97),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2123,7 +2134,7 @@
       <c r="E97" s="10"/>
       <c r="F97" s="10"/>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A98" s="13" t="str">
         <f>IF(ISBLANK(B98),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2134,7 +2145,7 @@
       <c r="E98" s="10"/>
       <c r="F98" s="10"/>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A99" s="13" t="str">
         <f>IF(ISBLANK(B99),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2145,7 +2156,7 @@
       <c r="E99" s="10"/>
       <c r="F99" s="10"/>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A100" s="13" t="str">
         <f>IF(ISBLANK(B100),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2156,7 +2167,7 @@
       <c r="E100" s="10"/>
       <c r="F100" s="10"/>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A101" s="13" t="str">
         <f>IF(ISBLANK(B101),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2167,7 +2178,7 @@
       <c r="E101" s="10"/>
       <c r="F101" s="10"/>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A102" s="13" t="str">
         <f>IF(ISBLANK(B102),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2178,7 +2189,7 @@
       <c r="E102" s="10"/>
       <c r="F102" s="10"/>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A103" s="13" t="str">
         <f>IF(ISBLANK(B103),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2189,7 +2200,7 @@
       <c r="E103" s="10"/>
       <c r="F103" s="10"/>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A104" s="13" t="str">
         <f>IF(ISBLANK(B104),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2200,7 +2211,7 @@
       <c r="E104" s="10"/>
       <c r="F104" s="10"/>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A105" s="13" t="str">
         <f>IF(ISBLANK(B105),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2211,7 +2222,7 @@
       <c r="E105" s="10"/>
       <c r="F105" s="10"/>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A106" s="13" t="str">
         <f>IF(ISBLANK(B106),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2222,7 +2233,7 @@
       <c r="E106" s="10"/>
       <c r="F106" s="10"/>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A107" s="13" t="str">
         <f>IF(ISBLANK(B107),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2233,7 +2244,7 @@
       <c r="E107" s="10"/>
       <c r="F107" s="10"/>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A108" s="13" t="str">
         <f>IF(ISBLANK(B108),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2244,7 +2255,7 @@
       <c r="E108" s="10"/>
       <c r="F108" s="10"/>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A109" s="13" t="str">
         <f>IF(ISBLANK(B109),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2255,7 +2266,7 @@
       <c r="E109" s="10"/>
       <c r="F109" s="10"/>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A110" s="13" t="str">
         <f>IF(ISBLANK(B110),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2266,7 +2277,7 @@
       <c r="E110" s="10"/>
       <c r="F110" s="10"/>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A111" s="13" t="str">
         <f>IF(ISBLANK(B111),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2277,7 +2288,7 @@
       <c r="E111" s="10"/>
       <c r="F111" s="10"/>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A112" s="13" t="str">
         <f>IF(ISBLANK(B112),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2288,7 +2299,7 @@
       <c r="E112" s="10"/>
       <c r="F112" s="10"/>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A113" s="13" t="str">
         <f>IF(ISBLANK(B113),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2299,7 +2310,7 @@
       <c r="E113" s="10"/>
       <c r="F113" s="10"/>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A114" s="13" t="str">
         <f>IF(ISBLANK(B114),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2310,7 +2321,7 @@
       <c r="E114" s="10"/>
       <c r="F114" s="10"/>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A115" s="13" t="str">
         <f>IF(ISBLANK(B115),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2321,7 +2332,7 @@
       <c r="E115" s="10"/>
       <c r="F115" s="10"/>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A116" s="13" t="str">
         <f>IF(ISBLANK(B116),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2332,7 +2343,7 @@
       <c r="E116" s="10"/>
       <c r="F116" s="10"/>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A117" s="13" t="str">
         <f>IF(ISBLANK(B117),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2343,7 +2354,7 @@
       <c r="E117" s="10"/>
       <c r="F117" s="10"/>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A118" s="13" t="str">
         <f>IF(ISBLANK(B118),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2354,7 +2365,7 @@
       <c r="E118" s="10"/>
       <c r="F118" s="10"/>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A119" s="13" t="str">
         <f>IF(ISBLANK(B119),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2365,7 +2376,7 @@
       <c r="E119" s="10"/>
       <c r="F119" s="10"/>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A120" s="13" t="str">
         <f>IF(ISBLANK(B120),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2376,7 +2387,7 @@
       <c r="E120" s="10"/>
       <c r="F120" s="10"/>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A121" s="13" t="str">
         <f>IF(ISBLANK(B121),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2387,7 +2398,7 @@
       <c r="E121" s="10"/>
       <c r="F121" s="10"/>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A122" s="13" t="str">
         <f>IF(ISBLANK(B122),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2398,7 +2409,7 @@
       <c r="E122" s="10"/>
       <c r="F122" s="10"/>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A123" s="13" t="str">
         <f>IF(ISBLANK(B123),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2409,7 +2420,7 @@
       <c r="E123" s="10"/>
       <c r="F123" s="10"/>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A124" s="13" t="str">
         <f>IF(ISBLANK(B124),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2420,7 +2431,7 @@
       <c r="E124" s="10"/>
       <c r="F124" s="10"/>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A125" s="13" t="str">
         <f>IF(ISBLANK(B125),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2431,7 +2442,7 @@
       <c r="E125" s="10"/>
       <c r="F125" s="10"/>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A126" s="13" t="str">
         <f>IF(ISBLANK(B126),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2442,7 +2453,7 @@
       <c r="E126" s="10"/>
       <c r="F126" s="10"/>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A127" s="13" t="str">
         <f>IF(ISBLANK(B127),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2453,7 +2464,7 @@
       <c r="E127" s="10"/>
       <c r="F127" s="10"/>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A128" s="13" t="str">
         <f>IF(ISBLANK(B128),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2464,7 +2475,7 @@
       <c r="E128" s="10"/>
       <c r="F128" s="10"/>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A129" s="13" t="str">
         <f>IF(ISBLANK(B129),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2475,7 +2486,7 @@
       <c r="E129" s="10"/>
       <c r="F129" s="10"/>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A130" s="13" t="str">
         <f>IF(ISBLANK(B130),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2486,7 +2497,7 @@
       <c r="E130" s="10"/>
       <c r="F130" s="10"/>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A131" s="13" t="str">
         <f>IF(ISBLANK(B131),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2497,7 +2508,7 @@
       <c r="E131" s="10"/>
       <c r="F131" s="10"/>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A132" s="13" t="str">
         <f>IF(ISBLANK(B132),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2508,7 +2519,7 @@
       <c r="E132" s="10"/>
       <c r="F132" s="10"/>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A133" s="13" t="str">
         <f>IF(ISBLANK(B133),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2519,7 +2530,7 @@
       <c r="E133" s="10"/>
       <c r="F133" s="10"/>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A134" s="13" t="str">
         <f>IF(ISBLANK(B134),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2530,7 +2541,7 @@
       <c r="E134" s="10"/>
       <c r="F134" s="10"/>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A135" s="13" t="str">
         <f>IF(ISBLANK(B135),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2541,7 +2552,7 @@
       <c r="E135" s="10"/>
       <c r="F135" s="10"/>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A136" s="13" t="str">
         <f>IF(ISBLANK(B136),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2552,7 +2563,7 @@
       <c r="E136" s="10"/>
       <c r="F136" s="10"/>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A137" s="13" t="str">
         <f>IF(ISBLANK(B137),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2563,7 +2574,7 @@
       <c r="E137" s="10"/>
       <c r="F137" s="10"/>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A138" s="13" t="str">
         <f>IF(ISBLANK(B138),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2574,7 +2585,7 @@
       <c r="E138" s="10"/>
       <c r="F138" s="10"/>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A139" s="13" t="str">
         <f>IF(ISBLANK(B139),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2585,7 +2596,7 @@
       <c r="E139" s="10"/>
       <c r="F139" s="10"/>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A140" s="13" t="str">
         <f>IF(ISBLANK(B140),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2596,7 +2607,7 @@
       <c r="E140" s="10"/>
       <c r="F140" s="10"/>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A141" s="13" t="str">
         <f>IF(ISBLANK(B141),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2607,7 +2618,7 @@
       <c r="E141" s="10"/>
       <c r="F141" s="10"/>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A142" s="13" t="str">
         <f>IF(ISBLANK(B142),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2618,7 +2629,7 @@
       <c r="E142" s="10"/>
       <c r="F142" s="10"/>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A143" s="13" t="str">
         <f>IF(ISBLANK(B143),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2629,7 +2640,7 @@
       <c r="E143" s="10"/>
       <c r="F143" s="10"/>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A144" s="13" t="str">
         <f>IF(ISBLANK(B144),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2640,7 +2651,7 @@
       <c r="E144" s="10"/>
       <c r="F144" s="10"/>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A145" s="13" t="str">
         <f>IF(ISBLANK(B145),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2651,7 +2662,7 @@
       <c r="E145" s="10"/>
       <c r="F145" s="10"/>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A146" s="13" t="str">
         <f>IF(ISBLANK(B146),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2662,7 +2673,7 @@
       <c r="E146" s="10"/>
       <c r="F146" s="10"/>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A147" s="13" t="str">
         <f>IF(ISBLANK(B147),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2673,7 +2684,7 @@
       <c r="E147" s="10"/>
       <c r="F147" s="10"/>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A148" s="13" t="str">
         <f>IF(ISBLANK(B148),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2684,7 +2695,7 @@
       <c r="E148" s="10"/>
       <c r="F148" s="10"/>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A149" s="13" t="str">
         <f>IF(ISBLANK(B149),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2695,7 +2706,7 @@
       <c r="E149" s="10"/>
       <c r="F149" s="10"/>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A150" s="13" t="str">
         <f>IF(ISBLANK(B150),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2706,7 +2717,7 @@
       <c r="E150" s="10"/>
       <c r="F150" s="10"/>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A151" s="13" t="str">
         <f>IF(ISBLANK(B151),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2717,7 +2728,7 @@
       <c r="E151" s="10"/>
       <c r="F151" s="10"/>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A152" s="13" t="str">
         <f>IF(ISBLANK(B152),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2728,7 +2739,7 @@
       <c r="E152" s="10"/>
       <c r="F152" s="10"/>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A153" s="13" t="str">
         <f>IF(ISBLANK(B153),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2739,7 +2750,7 @@
       <c r="E153" s="10"/>
       <c r="F153" s="10"/>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A154" s="13" t="str">
         <f>IF(ISBLANK(B154),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2750,7 +2761,7 @@
       <c r="E154" s="10"/>
       <c r="F154" s="10"/>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A155" s="13" t="str">
         <f>IF(ISBLANK(B155),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2761,7 +2772,7 @@
       <c r="E155" s="10"/>
       <c r="F155" s="10"/>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A156" s="13" t="str">
         <f>IF(ISBLANK(B156),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2772,7 +2783,7 @@
       <c r="E156" s="10"/>
       <c r="F156" s="10"/>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A157" s="13" t="str">
         <f>IF(ISBLANK(B157),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2783,7 +2794,7 @@
       <c r="E157" s="10"/>
       <c r="F157" s="10"/>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A158" s="13" t="str">
         <f>IF(ISBLANK(B158),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2794,7 +2805,7 @@
       <c r="E158" s="10"/>
       <c r="F158" s="10"/>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A159" s="13" t="str">
         <f>IF(ISBLANK(B159),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2805,7 +2816,7 @@
       <c r="E159" s="10"/>
       <c r="F159" s="10"/>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A160" s="13" t="str">
         <f>IF(ISBLANK(B160),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2816,7 +2827,7 @@
       <c r="E160" s="10"/>
       <c r="F160" s="10"/>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A161" s="13" t="str">
         <f>IF(ISBLANK(B161),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2827,7 +2838,7 @@
       <c r="E161" s="10"/>
       <c r="F161" s="10"/>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A162" s="13" t="str">
         <f>IF(ISBLANK(B162),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2838,7 +2849,7 @@
       <c r="E162" s="10"/>
       <c r="F162" s="10"/>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A163" s="13" t="str">
         <f>IF(ISBLANK(B163),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2849,7 +2860,7 @@
       <c r="E163" s="10"/>
       <c r="F163" s="10"/>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A164" s="13" t="str">
         <f>IF(ISBLANK(B164),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2860,7 +2871,7 @@
       <c r="E164" s="10"/>
       <c r="F164" s="10"/>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A165" s="13" t="str">
         <f>IF(ISBLANK(B165),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2871,7 +2882,7 @@
       <c r="E165" s="10"/>
       <c r="F165" s="10"/>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A166" s="13" t="str">
         <f>IF(ISBLANK(B166),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2882,7 +2893,7 @@
       <c r="E166" s="10"/>
       <c r="F166" s="10"/>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A167" s="13" t="str">
         <f>IF(ISBLANK(B167),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2893,7 +2904,7 @@
       <c r="E167" s="10"/>
       <c r="F167" s="10"/>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A168" s="13" t="str">
         <f>IF(ISBLANK(B168),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2904,7 +2915,7 @@
       <c r="E168" s="10"/>
       <c r="F168" s="10"/>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A169" s="13" t="str">
         <f>IF(ISBLANK(B169),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2915,7 +2926,7 @@
       <c r="E169" s="10"/>
       <c r="F169" s="10"/>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A170" s="13" t="str">
         <f>IF(ISBLANK(B170),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2926,7 +2937,7 @@
       <c r="E170" s="10"/>
       <c r="F170" s="10"/>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A171" s="13" t="str">
         <f>IF(ISBLANK(B171),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2937,7 +2948,7 @@
       <c r="E171" s="10"/>
       <c r="F171" s="10"/>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A172" s="13" t="str">
         <f>IF(ISBLANK(B172),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2948,7 +2959,7 @@
       <c r="E172" s="10"/>
       <c r="F172" s="10"/>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A173" s="13" t="str">
         <f>IF(ISBLANK(B173),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2959,7 +2970,7 @@
       <c r="E173" s="10"/>
       <c r="F173" s="10"/>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A174" s="13" t="str">
         <f>IF(ISBLANK(B174),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2970,7 +2981,7 @@
       <c r="E174" s="10"/>
       <c r="F174" s="10"/>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A175" s="13" t="str">
         <f>IF(ISBLANK(B175),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2981,7 +2992,7 @@
       <c r="E175" s="10"/>
       <c r="F175" s="10"/>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A176" s="13" t="str">
         <f>IF(ISBLANK(B176),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2992,7 +3003,7 @@
       <c r="E176" s="10"/>
       <c r="F176" s="10"/>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A177" s="13" t="str">
         <f>IF(ISBLANK(B177),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3003,7 +3014,7 @@
       <c r="E177" s="10"/>
       <c r="F177" s="10"/>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A178" s="13" t="str">
         <f>IF(ISBLANK(B178),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3014,7 +3025,7 @@
       <c r="E178" s="10"/>
       <c r="F178" s="10"/>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A179" s="13" t="str">
         <f>IF(ISBLANK(B179),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3025,7 +3036,7 @@
       <c r="E179" s="10"/>
       <c r="F179" s="10"/>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A180" s="13" t="str">
         <f>IF(ISBLANK(B180),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3036,7 +3047,7 @@
       <c r="E180" s="10"/>
       <c r="F180" s="10"/>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A181" s="13" t="str">
         <f>IF(ISBLANK(B181),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3047,7 +3058,7 @@
       <c r="E181" s="10"/>
       <c r="F181" s="10"/>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A182" s="13" t="str">
         <f>IF(ISBLANK(B182),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3058,7 +3069,7 @@
       <c r="E182" s="10"/>
       <c r="F182" s="10"/>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A183" s="13" t="str">
         <f>IF(ISBLANK(B183),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3069,7 +3080,7 @@
       <c r="E183" s="10"/>
       <c r="F183" s="10"/>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A184" s="13" t="str">
         <f>IF(ISBLANK(B184),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3080,7 +3091,7 @@
       <c r="E184" s="10"/>
       <c r="F184" s="10"/>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A185" s="13" t="str">
         <f>IF(ISBLANK(B185),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3091,7 +3102,7 @@
       <c r="E185" s="10"/>
       <c r="F185" s="10"/>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A186" s="13" t="str">
         <f>IF(ISBLANK(B186),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3102,7 +3113,7 @@
       <c r="E186" s="10"/>
       <c r="F186" s="10"/>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A187" s="13" t="str">
         <f>IF(ISBLANK(B187),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3113,7 +3124,7 @@
       <c r="E187" s="10"/>
       <c r="F187" s="10"/>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A188" s="13" t="str">
         <f>IF(ISBLANK(B188),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3124,7 +3135,7 @@
       <c r="E188" s="10"/>
       <c r="F188" s="10"/>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A189" s="13" t="str">
         <f>IF(ISBLANK(B189),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3135,7 +3146,7 @@
       <c r="E189" s="10"/>
       <c r="F189" s="10"/>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A190" s="13" t="str">
         <f>IF(ISBLANK(B190),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3146,7 +3157,7 @@
       <c r="E190" s="10"/>
       <c r="F190" s="10"/>
     </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A191" s="13" t="str">
         <f>IF(ISBLANK(B191),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3157,7 +3168,7 @@
       <c r="E191" s="10"/>
       <c r="F191" s="10"/>
     </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A192" s="13" t="str">
         <f>IF(ISBLANK(B192),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3168,7 +3179,7 @@
       <c r="E192" s="10"/>
       <c r="F192" s="10"/>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A193" s="13" t="str">
         <f>IF(ISBLANK(B193),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3179,7 +3190,7 @@
       <c r="E193" s="10"/>
       <c r="F193" s="10"/>
     </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A194" s="13" t="str">
         <f>IF(ISBLANK(B194),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3190,7 +3201,7 @@
       <c r="E194" s="10"/>
       <c r="F194" s="10"/>
     </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A195" s="13" t="str">
         <f>IF(ISBLANK(B195),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3201,7 +3212,7 @@
       <c r="E195" s="10"/>
       <c r="F195" s="10"/>
     </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A196" s="13" t="str">
         <f>IF(ISBLANK(B196),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3212,7 +3223,7 @@
       <c r="E196" s="10"/>
       <c r="F196" s="10"/>
     </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A197" s="13" t="str">
         <f>IF(ISBLANK(B197),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3223,7 +3234,7 @@
       <c r="E197" s="10"/>
       <c r="F197" s="10"/>
     </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A198" s="13" t="str">
         <f>IF(ISBLANK(B198),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3234,7 +3245,7 @@
       <c r="E198" s="10"/>
       <c r="F198" s="10"/>
     </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A199" s="13" t="str">
         <f>IF(ISBLANK(B199),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3245,7 +3256,7 @@
       <c r="E199" s="10"/>
       <c r="F199" s="10"/>
     </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A200" s="13" t="str">
         <f>IF(ISBLANK(B200),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3256,7 +3267,7 @@
       <c r="E200" s="10"/>
       <c r="F200" s="10"/>
     </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A201" s="13" t="str">
         <f>IF(ISBLANK(B201),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3267,7 +3278,7 @@
       <c r="E201" s="10"/>
       <c r="F201" s="10"/>
     </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A202" s="13" t="str">
         <f>IF(ISBLANK(B202),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3278,7 +3289,7 @@
       <c r="E202" s="10"/>
       <c r="F202" s="10"/>
     </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A203" s="13" t="str">
         <f>IF(ISBLANK(B203),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3289,7 +3300,7 @@
       <c r="E203" s="10"/>
       <c r="F203" s="10"/>
     </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A204" s="13" t="str">
         <f>IF(ISBLANK(B204),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3300,7 +3311,7 @@
       <c r="E204" s="10"/>
       <c r="F204" s="10"/>
     </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A205" s="13" t="str">
         <f>IF(ISBLANK(B205),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3311,7 +3322,7 @@
       <c r="E205" s="10"/>
       <c r="F205" s="10"/>
     </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A206" s="13" t="str">
         <f>IF(ISBLANK(B206),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3322,7 +3333,7 @@
       <c r="E206" s="10"/>
       <c r="F206" s="10"/>
     </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A207" s="13" t="str">
         <f>IF(ISBLANK(B207),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3333,7 +3344,7 @@
       <c r="E207" s="10"/>
       <c r="F207" s="10"/>
     </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A208" s="13" t="str">
         <f>IF(ISBLANK(B208),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3344,7 +3355,7 @@
       <c r="E208" s="10"/>
       <c r="F208" s="10"/>
     </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A209" s="13" t="str">
         <f>IF(ISBLANK(B209),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3355,7 +3366,7 @@
       <c r="E209" s="10"/>
       <c r="F209" s="10"/>
     </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A210" s="13" t="str">
         <f>IF(ISBLANK(B210),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3366,7 +3377,7 @@
       <c r="E210" s="10"/>
       <c r="F210" s="10"/>
     </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A211" s="13" t="str">
         <f>IF(ISBLANK(B211),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3377,7 +3388,7 @@
       <c r="E211" s="10"/>
       <c r="F211" s="10"/>
     </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A212" s="13" t="str">
         <f>IF(ISBLANK(B212),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3388,7 +3399,7 @@
       <c r="E212" s="10"/>
       <c r="F212" s="10"/>
     </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A213" s="13" t="str">
         <f>IF(ISBLANK(B213),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3399,7 +3410,7 @@
       <c r="E213" s="10"/>
       <c r="F213" s="10"/>
     </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A214" s="13" t="str">
         <f>IF(ISBLANK(B214),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3410,7 +3421,7 @@
       <c r="E214" s="10"/>
       <c r="F214" s="10"/>
     </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A215" s="13" t="str">
         <f>IF(ISBLANK(B215),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3421,7 +3432,7 @@
       <c r="E215" s="10"/>
       <c r="F215" s="10"/>
     </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A216" s="13" t="str">
         <f>IF(ISBLANK(B216),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3432,7 +3443,7 @@
       <c r="E216" s="10"/>
       <c r="F216" s="10"/>
     </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A217" s="13" t="str">
         <f>IF(ISBLANK(B217),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3443,7 +3454,7 @@
       <c r="E217" s="10"/>
       <c r="F217" s="10"/>
     </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A218" s="13" t="str">
         <f>IF(ISBLANK(B218),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3454,7 +3465,7 @@
       <c r="E218" s="10"/>
       <c r="F218" s="10"/>
     </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A219" s="13" t="str">
         <f>IF(ISBLANK(B219),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3465,7 +3476,7 @@
       <c r="E219" s="10"/>
       <c r="F219" s="10"/>
     </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A220" s="13" t="str">
         <f>IF(ISBLANK(B220),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3476,7 +3487,7 @@
       <c r="E220" s="10"/>
       <c r="F220" s="10"/>
     </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A221" s="13" t="str">
         <f>IF(ISBLANK(B221),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3487,7 +3498,7 @@
       <c r="E221" s="10"/>
       <c r="F221" s="10"/>
     </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A222" s="13" t="str">
         <f>IF(ISBLANK(B222),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3498,7 +3509,7 @@
       <c r="E222" s="10"/>
       <c r="F222" s="10"/>
     </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A223" s="13" t="str">
         <f>IF(ISBLANK(B223),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3509,7 +3520,7 @@
       <c r="E223" s="10"/>
       <c r="F223" s="10"/>
     </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A224" s="13" t="str">
         <f>IF(ISBLANK(B224),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3520,7 +3531,7 @@
       <c r="E224" s="10"/>
       <c r="F224" s="10"/>
     </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A225" s="13" t="str">
         <f>IF(ISBLANK(B225),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3531,7 +3542,7 @@
       <c r="E225" s="10"/>
       <c r="F225" s="10"/>
     </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A226" s="13" t="str">
         <f>IF(ISBLANK(B226),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3542,7 +3553,7 @@
       <c r="E226" s="10"/>
       <c r="F226" s="10"/>
     </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A227" s="13" t="str">
         <f>IF(ISBLANK(B227),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3553,7 +3564,7 @@
       <c r="E227" s="10"/>
       <c r="F227" s="10"/>
     </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A228" s="13" t="str">
         <f>IF(ISBLANK(B228),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3564,7 +3575,7 @@
       <c r="E228" s="10"/>
       <c r="F228" s="10"/>
     </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A229" s="13" t="str">
         <f>IF(ISBLANK(B229),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3575,7 +3586,7 @@
       <c r="E229" s="10"/>
       <c r="F229" s="10"/>
     </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A230" s="13" t="str">
         <f>IF(ISBLANK(B230),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3586,7 +3597,7 @@
       <c r="E230" s="10"/>
       <c r="F230" s="10"/>
     </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A231" s="13" t="str">
         <f>IF(ISBLANK(B231),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3597,7 +3608,7 @@
       <c r="E231" s="10"/>
       <c r="F231" s="10"/>
     </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A232" s="13" t="str">
         <f>IF(ISBLANK(B232),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3608,7 +3619,7 @@
       <c r="E232" s="10"/>
       <c r="F232" s="10"/>
     </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A233" s="13" t="str">
         <f>IF(ISBLANK(B233),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3619,7 +3630,7 @@
       <c r="E233" s="10"/>
       <c r="F233" s="10"/>
     </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A234" s="13" t="str">
         <f>IF(ISBLANK(B234),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3630,7 +3641,7 @@
       <c r="E234" s="10"/>
       <c r="F234" s="10"/>
     </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A235" s="13" t="str">
         <f>IF(ISBLANK(B235),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3641,7 +3652,7 @@
       <c r="E235" s="10"/>
       <c r="F235" s="10"/>
     </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A236" s="13" t="str">
         <f>IF(ISBLANK(B236),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3652,7 +3663,7 @@
       <c r="E236" s="10"/>
       <c r="F236" s="10"/>
     </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A237" s="13" t="str">
         <f>IF(ISBLANK(B237),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3663,7 +3674,7 @@
       <c r="E237" s="10"/>
       <c r="F237" s="10"/>
     </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A238" s="13" t="str">
         <f>IF(ISBLANK(B238),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3674,7 +3685,7 @@
       <c r="E238" s="10"/>
       <c r="F238" s="10"/>
     </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A239" s="13" t="str">
         <f>IF(ISBLANK(B239),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3685,7 +3696,7 @@
       <c r="E239" s="10"/>
       <c r="F239" s="10"/>
     </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A240" s="13" t="str">
         <f>IF(ISBLANK(B240),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3696,7 +3707,7 @@
       <c r="E240" s="10"/>
       <c r="F240" s="10"/>
     </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A241" s="13" t="str">
         <f>IF(ISBLANK(B241),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3707,7 +3718,7 @@
       <c r="E241" s="10"/>
       <c r="F241" s="10"/>
     </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A242" s="13" t="str">
         <f>IF(ISBLANK(B242),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3718,7 +3729,7 @@
       <c r="E242" s="10"/>
       <c r="F242" s="10"/>
     </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A243" s="13" t="str">
         <f>IF(ISBLANK(B243),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3729,7 +3740,7 @@
       <c r="E243" s="10"/>
       <c r="F243" s="10"/>
     </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A244" s="13" t="str">
         <f>IF(ISBLANK(B244),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3740,7 +3751,7 @@
       <c r="E244" s="10"/>
       <c r="F244" s="10"/>
     </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A245" s="13" t="str">
         <f>IF(ISBLANK(B245),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3751,7 +3762,7 @@
       <c r="E245" s="10"/>
       <c r="F245" s="10"/>
     </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A246" s="13" t="str">
         <f>IF(ISBLANK(B246),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3762,7 +3773,7 @@
       <c r="E246" s="10"/>
       <c r="F246" s="10"/>
     </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A247" s="13" t="str">
         <f>IF(ISBLANK(B247),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3773,7 +3784,7 @@
       <c r="E247" s="10"/>
       <c r="F247" s="10"/>
     </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A248" s="13" t="str">
         <f>IF(ISBLANK(B248),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3784,7 +3795,7 @@
       <c r="E248" s="10"/>
       <c r="F248" s="10"/>
     </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A249" s="13" t="str">
         <f>IF(ISBLANK(B249),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3795,7 +3806,7 @@
       <c r="E249" s="10"/>
       <c r="F249" s="10"/>
     </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A250" s="13" t="str">
         <f>IF(ISBLANK(B250),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3806,7 +3817,7 @@
       <c r="E250" s="10"/>
       <c r="F250" s="10"/>
     </row>
-    <row r="251" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A251" s="13" t="str">
         <f>IF(ISBLANK(B251),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3817,7 +3828,7 @@
       <c r="E251" s="10"/>
       <c r="F251" s="10"/>
     </row>
-    <row r="252" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A252" s="13" t="str">
         <f>IF(ISBLANK(B252),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3828,7 +3839,7 @@
       <c r="E252" s="10"/>
       <c r="F252" s="10"/>
     </row>
-    <row r="253" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A253" s="13" t="str">
         <f>IF(ISBLANK(B253),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3839,7 +3850,7 @@
       <c r="E253" s="10"/>
       <c r="F253" s="10"/>
     </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A254" s="13" t="str">
         <f>IF(ISBLANK(B254),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3850,7 +3861,7 @@
       <c r="E254" s="10"/>
       <c r="F254" s="10"/>
     </row>
-    <row r="255" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A255" s="13" t="str">
         <f>IF(ISBLANK(B255),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3861,7 +3872,7 @@
       <c r="E255" s="10"/>
       <c r="F255" s="10"/>
     </row>
-    <row r="256" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A256" s="13" t="str">
         <f>IF(ISBLANK(B256),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3872,7 +3883,7 @@
       <c r="E256" s="10"/>
       <c r="F256" s="10"/>
     </row>
-    <row r="257" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A257" s="13" t="str">
         <f>IF(ISBLANK(B257),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3883,7 +3894,7 @@
       <c r="E257" s="10"/>
       <c r="F257" s="10"/>
     </row>
-    <row r="258" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A258" s="13" t="str">
         <f>IF(ISBLANK(B258),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3894,7 +3905,7 @@
       <c r="E258" s="10"/>
       <c r="F258" s="10"/>
     </row>
-    <row r="259" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A259" s="13" t="str">
         <f>IF(ISBLANK(B259),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3905,7 +3916,7 @@
       <c r="E259" s="10"/>
       <c r="F259" s="10"/>
     </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A260" s="13" t="str">
         <f>IF(ISBLANK(B260),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3916,7 +3927,7 @@
       <c r="E260" s="10"/>
       <c r="F260" s="10"/>
     </row>
-    <row r="261" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A261" s="13" t="str">
         <f>IF(ISBLANK(B261),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3927,7 +3938,7 @@
       <c r="E261" s="10"/>
       <c r="F261" s="10"/>
     </row>
-    <row r="262" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A262" s="13" t="str">
         <f>IF(ISBLANK(B262),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3938,7 +3949,7 @@
       <c r="E262" s="10"/>
       <c r="F262" s="10"/>
     </row>
-    <row r="263" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A263" s="13" t="str">
         <f>IF(ISBLANK(B263),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3949,7 +3960,7 @@
       <c r="E263" s="10"/>
       <c r="F263" s="10"/>
     </row>
-    <row r="264" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A264" s="13" t="str">
         <f>IF(ISBLANK(B264),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3960,7 +3971,7 @@
       <c r="E264" s="10"/>
       <c r="F264" s="10"/>
     </row>
-    <row r="265" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A265" s="13" t="str">
         <f>IF(ISBLANK(B265),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3971,7 +3982,7 @@
       <c r="E265" s="10"/>
       <c r="F265" s="10"/>
     </row>
-    <row r="266" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A266" s="13" t="str">
         <f>IF(ISBLANK(B266),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3982,7 +3993,7 @@
       <c r="E266" s="10"/>
       <c r="F266" s="10"/>
     </row>
-    <row r="267" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A267" s="13" t="str">
         <f>IF(ISBLANK(B267),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3993,7 +4004,7 @@
       <c r="E267" s="10"/>
       <c r="F267" s="10"/>
     </row>
-    <row r="268" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A268" s="13" t="str">
         <f>IF(ISBLANK(B268),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4004,7 +4015,7 @@
       <c r="E268" s="10"/>
       <c r="F268" s="10"/>
     </row>
-    <row r="269" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A269" s="13" t="str">
         <f>IF(ISBLANK(B269),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4015,7 +4026,7 @@
       <c r="E269" s="10"/>
       <c r="F269" s="10"/>
     </row>
-    <row r="270" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A270" s="13" t="str">
         <f>IF(ISBLANK(B270),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4026,7 +4037,7 @@
       <c r="E270" s="10"/>
       <c r="F270" s="10"/>
     </row>
-    <row r="271" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A271" s="13" t="str">
         <f>IF(ISBLANK(B271),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4037,7 +4048,7 @@
       <c r="E271" s="10"/>
       <c r="F271" s="10"/>
     </row>
-    <row r="272" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A272" s="13" t="str">
         <f>IF(ISBLANK(B272),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4048,7 +4059,7 @@
       <c r="E272" s="10"/>
       <c r="F272" s="10"/>
     </row>
-    <row r="273" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A273" s="13" t="str">
         <f>IF(ISBLANK(B273),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4059,7 +4070,7 @@
       <c r="E273" s="10"/>
       <c r="F273" s="10"/>
     </row>
-    <row r="274" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A274" s="13" t="str">
         <f>IF(ISBLANK(B274),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4070,7 +4081,7 @@
       <c r="E274" s="10"/>
       <c r="F274" s="10"/>
     </row>
-    <row r="275" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A275" s="13" t="str">
         <f>IF(ISBLANK(B275),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4081,7 +4092,7 @@
       <c r="E275" s="10"/>
       <c r="F275" s="10"/>
     </row>
-    <row r="276" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A276" s="13" t="str">
         <f>IF(ISBLANK(B276),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4092,7 +4103,7 @@
       <c r="E276" s="10"/>
       <c r="F276" s="10"/>
     </row>
-    <row r="277" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A277" s="13" t="str">
         <f>IF(ISBLANK(B277),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4103,7 +4114,7 @@
       <c r="E277" s="10"/>
       <c r="F277" s="10"/>
     </row>
-    <row r="278" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A278" s="13" t="str">
         <f>IF(ISBLANK(B278),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4114,7 +4125,7 @@
       <c r="E278" s="10"/>
       <c r="F278" s="10"/>
     </row>
-    <row r="279" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A279" s="13" t="str">
         <f>IF(ISBLANK(B279),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4125,7 +4136,7 @@
       <c r="E279" s="10"/>
       <c r="F279" s="10"/>
     </row>
-    <row r="280" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A280" s="13" t="str">
         <f>IF(ISBLANK(B280),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4136,7 +4147,7 @@
       <c r="E280" s="10"/>
       <c r="F280" s="10"/>
     </row>
-    <row r="281" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A281" s="13" t="str">
         <f>IF(ISBLANK(B281),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4147,7 +4158,7 @@
       <c r="E281" s="10"/>
       <c r="F281" s="10"/>
     </row>
-    <row r="282" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A282" s="13" t="str">
         <f>IF(ISBLANK(B282),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4158,7 +4169,7 @@
       <c r="E282" s="10"/>
       <c r="F282" s="10"/>
     </row>
-    <row r="283" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A283" s="13" t="str">
         <f>IF(ISBLANK(B283),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4169,7 +4180,7 @@
       <c r="E283" s="10"/>
       <c r="F283" s="10"/>
     </row>
-    <row r="284" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A284" s="13" t="str">
         <f>IF(ISBLANK(B284),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4180,7 +4191,7 @@
       <c r="E284" s="10"/>
       <c r="F284" s="10"/>
     </row>
-    <row r="285" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A285" s="13" t="str">
         <f>IF(ISBLANK(B285),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4191,7 +4202,7 @@
       <c r="E285" s="10"/>
       <c r="F285" s="10"/>
     </row>
-    <row r="286" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A286" s="13" t="str">
         <f>IF(ISBLANK(B286),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4202,7 +4213,7 @@
       <c r="E286" s="10"/>
       <c r="F286" s="10"/>
     </row>
-    <row r="287" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A287" s="13" t="str">
         <f>IF(ISBLANK(B287),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4213,7 +4224,7 @@
       <c r="E287" s="10"/>
       <c r="F287" s="10"/>
     </row>
-    <row r="288" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A288" s="13" t="str">
         <f>IF(ISBLANK(B288),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4224,7 +4235,7 @@
       <c r="E288" s="10"/>
       <c r="F288" s="10"/>
     </row>
-    <row r="289" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A289" s="13" t="str">
         <f>IF(ISBLANK(B289),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4235,7 +4246,7 @@
       <c r="E289" s="10"/>
       <c r="F289" s="10"/>
     </row>
-    <row r="290" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A290" s="13" t="str">
         <f>IF(ISBLANK(B290),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4246,7 +4257,7 @@
       <c r="E290" s="10"/>
       <c r="F290" s="10"/>
     </row>
-    <row r="291" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A291" s="13" t="str">
         <f>IF(ISBLANK(B291),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4257,7 +4268,7 @@
       <c r="E291" s="10"/>
       <c r="F291" s="10"/>
     </row>
-    <row r="292" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A292" s="13" t="str">
         <f>IF(ISBLANK(B292),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4268,7 +4279,7 @@
       <c r="E292" s="10"/>
       <c r="F292" s="10"/>
     </row>
-    <row r="293" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A293" s="13" t="str">
         <f>IF(ISBLANK(B293),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4279,7 +4290,7 @@
       <c r="E293" s="10"/>
       <c r="F293" s="10"/>
     </row>
-    <row r="294" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A294" s="13" t="str">
         <f>IF(ISBLANK(B294),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4290,7 +4301,7 @@
       <c r="E294" s="10"/>
       <c r="F294" s="10"/>
     </row>
-    <row r="295" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A295" s="13" t="str">
         <f>IF(ISBLANK(B295),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4301,7 +4312,7 @@
       <c r="E295" s="10"/>
       <c r="F295" s="10"/>
     </row>
-    <row r="296" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A296" s="13" t="str">
         <f>IF(ISBLANK(B296),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4312,7 +4323,7 @@
       <c r="E296" s="10"/>
       <c r="F296" s="10"/>
     </row>
-    <row r="297" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A297" s="13" t="str">
         <f>IF(ISBLANK(B297),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4323,7 +4334,7 @@
       <c r="E297" s="10"/>
       <c r="F297" s="10"/>
     </row>
-    <row r="298" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A298" s="13" t="str">
         <f>IF(ISBLANK(B298),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4334,7 +4345,7 @@
       <c r="E298" s="10"/>
       <c r="F298" s="10"/>
     </row>
-    <row r="299" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A299" s="13" t="str">
         <f>IF(ISBLANK(B299),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4345,7 +4356,7 @@
       <c r="E299" s="10"/>
       <c r="F299" s="10"/>
     </row>
-    <row r="300" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A300" s="13" t="str">
         <f>IF(ISBLANK(B300),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4356,7 +4367,7 @@
       <c r="E300" s="10"/>
       <c r="F300" s="10"/>
     </row>
-    <row r="301" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A301" s="13" t="str">
         <f>IF(ISBLANK(B301),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4367,7 +4378,7 @@
       <c r="E301" s="10"/>
       <c r="F301" s="10"/>
     </row>
-    <row r="302" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A302" s="13" t="str">
         <f>IF(ISBLANK(B302),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4378,7 +4389,7 @@
       <c r="E302" s="10"/>
       <c r="F302" s="10"/>
     </row>
-    <row r="303" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A303" s="13" t="str">
         <f>IF(ISBLANK(B303),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4389,7 +4400,7 @@
       <c r="E303" s="10"/>
       <c r="F303" s="10"/>
     </row>
-    <row r="304" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A304" s="13" t="str">
         <f>IF(ISBLANK(B304),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4400,7 +4411,7 @@
       <c r="E304" s="10"/>
       <c r="F304" s="10"/>
     </row>
-    <row r="305" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A305" s="13" t="str">
         <f>IF(ISBLANK(B305),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4411,7 +4422,7 @@
       <c r="E305" s="10"/>
       <c r="F305" s="10"/>
     </row>
-    <row r="306" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A306" s="13" t="str">
         <f>IF(ISBLANK(B306),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4422,7 +4433,7 @@
       <c r="E306" s="10"/>
       <c r="F306" s="10"/>
     </row>
-    <row r="307" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A307" s="13" t="str">
         <f>IF(ISBLANK(B307),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4433,7 +4444,7 @@
       <c r="E307" s="10"/>
       <c r="F307" s="10"/>
     </row>
-    <row r="308" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A308" s="13" t="str">
         <f>IF(ISBLANK(B308),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4444,7 +4455,7 @@
       <c r="E308" s="10"/>
       <c r="F308" s="10"/>
     </row>
-    <row r="309" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A309" s="13" t="str">
         <f>IF(ISBLANK(B309),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4455,7 +4466,7 @@
       <c r="E309" s="10"/>
       <c r="F309" s="10"/>
     </row>
-    <row r="310" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A310" s="13" t="str">
         <f>IF(ISBLANK(B310),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4466,7 +4477,7 @@
       <c r="E310" s="10"/>
       <c r="F310" s="10"/>
     </row>
-    <row r="311" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A311" s="13" t="str">
         <f>IF(ISBLANK(B311),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4477,7 +4488,7 @@
       <c r="E311" s="10"/>
       <c r="F311" s="10"/>
     </row>
-    <row r="312" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A312" s="13" t="str">
         <f>IF(ISBLANK(B312),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4488,7 +4499,7 @@
       <c r="E312" s="10"/>
       <c r="F312" s="10"/>
     </row>
-    <row r="313" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A313" s="13" t="str">
         <f>IF(ISBLANK(B313),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4499,7 +4510,7 @@
       <c r="E313" s="10"/>
       <c r="F313" s="10"/>
     </row>
-    <row r="314" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A314" s="13" t="str">
         <f>IF(ISBLANK(B314),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4510,7 +4521,7 @@
       <c r="E314" s="10"/>
       <c r="F314" s="10"/>
     </row>
-    <row r="315" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A315" s="13" t="str">
         <f>IF(ISBLANK(B315),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4521,7 +4532,7 @@
       <c r="E315" s="10"/>
       <c r="F315" s="10"/>
     </row>
-    <row r="316" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A316" s="13" t="str">
         <f>IF(ISBLANK(B316),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4532,7 +4543,7 @@
       <c r="E316" s="10"/>
       <c r="F316" s="10"/>
     </row>
-    <row r="317" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A317" s="13" t="str">
         <f>IF(ISBLANK(B317),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4543,7 +4554,7 @@
       <c r="E317" s="10"/>
       <c r="F317" s="10"/>
     </row>
-    <row r="318" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A318" s="13" t="str">
         <f>IF(ISBLANK(B318),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4554,7 +4565,7 @@
       <c r="E318" s="10"/>
       <c r="F318" s="10"/>
     </row>
-    <row r="319" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A319" s="13" t="str">
         <f>IF(ISBLANK(B319),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4565,7 +4576,7 @@
       <c r="E319" s="10"/>
       <c r="F319" s="10"/>
     </row>
-    <row r="320" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A320" s="13" t="str">
         <f>IF(ISBLANK(B320),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4576,7 +4587,7 @@
       <c r="E320" s="10"/>
       <c r="F320" s="10"/>
     </row>
-    <row r="321" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A321" s="13" t="str">
         <f>IF(ISBLANK(B321),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4587,7 +4598,7 @@
       <c r="E321" s="10"/>
       <c r="F321" s="10"/>
     </row>
-    <row r="322" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A322" s="13" t="str">
         <f>IF(ISBLANK(B322),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4598,7 +4609,7 @@
       <c r="E322" s="10"/>
       <c r="F322" s="10"/>
     </row>
-    <row r="323" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A323" s="13" t="str">
         <f>IF(ISBLANK(B323),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4609,7 +4620,7 @@
       <c r="E323" s="10"/>
       <c r="F323" s="10"/>
     </row>
-    <row r="324" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A324" s="13" t="str">
         <f>IF(ISBLANK(B324),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4620,7 +4631,7 @@
       <c r="E324" s="10"/>
       <c r="F324" s="10"/>
     </row>
-    <row r="325" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A325" s="13" t="str">
         <f>IF(ISBLANK(B325),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4631,7 +4642,7 @@
       <c r="E325" s="10"/>
       <c r="F325" s="10"/>
     </row>
-    <row r="326" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A326" s="13" t="str">
         <f>IF(ISBLANK(B326),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4642,7 +4653,7 @@
       <c r="E326" s="10"/>
       <c r="F326" s="10"/>
     </row>
-    <row r="327" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A327" s="13" t="str">
         <f>IF(ISBLANK(B327),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4653,7 +4664,7 @@
       <c r="E327" s="10"/>
       <c r="F327" s="10"/>
     </row>
-    <row r="328" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A328" s="13" t="str">
         <f>IF(ISBLANK(B328),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4664,7 +4675,7 @@
       <c r="E328" s="10"/>
       <c r="F328" s="10"/>
     </row>
-    <row r="329" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A329" s="13" t="str">
         <f>IF(ISBLANK(B329),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4675,7 +4686,7 @@
       <c r="E329" s="10"/>
       <c r="F329" s="10"/>
     </row>
-    <row r="330" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A330" s="13" t="str">
         <f>IF(ISBLANK(B330),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4686,7 +4697,7 @@
       <c r="E330" s="10"/>
       <c r="F330" s="10"/>
     </row>
-    <row r="331" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A331" s="13" t="str">
         <f>IF(ISBLANK(B331),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4697,7 +4708,7 @@
       <c r="E331" s="10"/>
       <c r="F331" s="10"/>
     </row>
-    <row r="332" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A332" s="13" t="str">
         <f>IF(ISBLANK(B332),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4708,7 +4719,7 @@
       <c r="E332" s="10"/>
       <c r="F332" s="10"/>
     </row>
-    <row r="333" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A333" s="13" t="str">
         <f>IF(ISBLANK(B333),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4719,7 +4730,7 @@
       <c r="E333" s="10"/>
       <c r="F333" s="10"/>
     </row>
-    <row r="334" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A334" s="13" t="str">
         <f>IF(ISBLANK(B334),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4730,7 +4741,7 @@
       <c r="E334" s="10"/>
       <c r="F334" s="10"/>
     </row>
-    <row r="335" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A335" s="13" t="str">
         <f>IF(ISBLANK(B335),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4741,7 +4752,7 @@
       <c r="E335" s="10"/>
       <c r="F335" s="10"/>
     </row>
-    <row r="336" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A336" s="13" t="str">
         <f>IF(ISBLANK(B336),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4752,7 +4763,7 @@
       <c r="E336" s="10"/>
       <c r="F336" s="10"/>
     </row>
-    <row r="337" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A337" s="13" t="str">
         <f>IF(ISBLANK(B337),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4763,7 +4774,7 @@
       <c r="E337" s="10"/>
       <c r="F337" s="10"/>
     </row>
-    <row r="338" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A338" s="13" t="str">
         <f>IF(ISBLANK(B338),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4774,7 +4785,7 @@
       <c r="E338" s="10"/>
       <c r="F338" s="10"/>
     </row>
-    <row r="339" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A339" s="13" t="str">
         <f>IF(ISBLANK(B339),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4785,7 +4796,7 @@
       <c r="E339" s="10"/>
       <c r="F339" s="10"/>
     </row>
-    <row r="340" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A340" s="13" t="str">
         <f>IF(ISBLANK(B340),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4796,7 +4807,7 @@
       <c r="E340" s="10"/>
       <c r="F340" s="10"/>
     </row>
-    <row r="341" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A341" s="13" t="str">
         <f>IF(ISBLANK(B341),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4807,7 +4818,7 @@
       <c r="E341" s="10"/>
       <c r="F341" s="10"/>
     </row>
-    <row r="342" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A342" s="13" t="str">
         <f>IF(ISBLANK(B342),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4818,7 +4829,7 @@
       <c r="E342" s="10"/>
       <c r="F342" s="10"/>
     </row>
-    <row r="343" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A343" s="13" t="str">
         <f>IF(ISBLANK(B343),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4829,7 +4840,7 @@
       <c r="E343" s="10"/>
       <c r="F343" s="10"/>
     </row>
-    <row r="344" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A344" s="13" t="str">
         <f>IF(ISBLANK(B344),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4840,7 +4851,7 @@
       <c r="E344" s="10"/>
       <c r="F344" s="10"/>
     </row>
-    <row r="345" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A345" s="13" t="str">
         <f>IF(ISBLANK(B345),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4851,7 +4862,7 @@
       <c r="E345" s="10"/>
       <c r="F345" s="10"/>
     </row>
-    <row r="346" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A346" s="13" t="str">
         <f>IF(ISBLANK(B346),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4862,7 +4873,7 @@
       <c r="E346" s="10"/>
       <c r="F346" s="10"/>
     </row>
-    <row r="347" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A347" s="13" t="str">
         <f>IF(ISBLANK(B347),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4873,7 +4884,7 @@
       <c r="E347" s="10"/>
       <c r="F347" s="10"/>
     </row>
-    <row r="348" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A348" s="13" t="str">
         <f>IF(ISBLANK(B348),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4884,7 +4895,7 @@
       <c r="E348" s="10"/>
       <c r="F348" s="10"/>
     </row>
-    <row r="349" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A349" s="13" t="str">
         <f>IF(ISBLANK(B349),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4895,7 +4906,7 @@
       <c r="E349" s="10"/>
       <c r="F349" s="10"/>
     </row>
-    <row r="350" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A350" s="13" t="str">
         <f>IF(ISBLANK(B350),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4906,7 +4917,7 @@
       <c r="E350" s="10"/>
       <c r="F350" s="10"/>
     </row>
-    <row r="351" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A351" s="13" t="str">
         <f>IF(ISBLANK(B351),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4917,7 +4928,7 @@
       <c r="E351" s="10"/>
       <c r="F351" s="10"/>
     </row>
-    <row r="352" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A352" s="13" t="str">
         <f>IF(ISBLANK(B352),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4928,7 +4939,7 @@
       <c r="E352" s="10"/>
       <c r="F352" s="10"/>
     </row>
-    <row r="353" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A353" s="13" t="str">
         <f>IF(ISBLANK(B353),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4939,7 +4950,7 @@
       <c r="E353" s="10"/>
       <c r="F353" s="10"/>
     </row>
-    <row r="354" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A354" s="13" t="str">
         <f>IF(ISBLANK(B354),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4950,7 +4961,7 @@
       <c r="E354" s="10"/>
       <c r="F354" s="10"/>
     </row>
-    <row r="355" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A355" s="13" t="str">
         <f>IF(ISBLANK(B355),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4961,7 +4972,7 @@
       <c r="E355" s="10"/>
       <c r="F355" s="10"/>
     </row>
-    <row r="356" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A356" s="13" t="str">
         <f>IF(ISBLANK(B356),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4972,7 +4983,7 @@
       <c r="E356" s="10"/>
       <c r="F356" s="10"/>
     </row>
-    <row r="357" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A357" s="13" t="str">
         <f>IF(ISBLANK(B357),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4983,7 +4994,7 @@
       <c r="E357" s="10"/>
       <c r="F357" s="10"/>
     </row>
-    <row r="358" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A358" s="13" t="str">
         <f>IF(ISBLANK(B358),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4994,7 +5005,7 @@
       <c r="E358" s="10"/>
       <c r="F358" s="10"/>
     </row>
-    <row r="359" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A359" s="13" t="str">
         <f>IF(ISBLANK(B359),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5005,7 +5016,7 @@
       <c r="E359" s="10"/>
       <c r="F359" s="10"/>
     </row>
-    <row r="360" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A360" s="13" t="str">
         <f>IF(ISBLANK(B360),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5016,7 +5027,7 @@
       <c r="E360" s="10"/>
       <c r="F360" s="10"/>
     </row>
-    <row r="361" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A361" s="13" t="str">
         <f>IF(ISBLANK(B361),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5027,7 +5038,7 @@
       <c r="E361" s="10"/>
       <c r="F361" s="10"/>
     </row>
-    <row r="362" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A362" s="13" t="str">
         <f>IF(ISBLANK(B362),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5038,7 +5049,7 @@
       <c r="E362" s="10"/>
       <c r="F362" s="10"/>
     </row>
-    <row r="363" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A363" s="13" t="str">
         <f>IF(ISBLANK(B363),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5049,7 +5060,7 @@
       <c r="E363" s="10"/>
       <c r="F363" s="10"/>
     </row>
-    <row r="364" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A364" s="13" t="str">
         <f>IF(ISBLANK(B364),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5060,7 +5071,7 @@
       <c r="E364" s="10"/>
       <c r="F364" s="10"/>
     </row>
-    <row r="365" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A365" s="13" t="str">
         <f>IF(ISBLANK(B365),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5071,7 +5082,7 @@
       <c r="E365" s="10"/>
       <c r="F365" s="10"/>
     </row>
-    <row r="366" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A366" s="13" t="str">
         <f>IF(ISBLANK(B366),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5082,7 +5093,7 @@
       <c r="E366" s="10"/>
       <c r="F366" s="10"/>
     </row>
-    <row r="367" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A367" s="13" t="str">
         <f>IF(ISBLANK(B367),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5093,7 +5104,7 @@
       <c r="E367" s="10"/>
       <c r="F367" s="10"/>
     </row>
-    <row r="368" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A368" s="13" t="str">
         <f>IF(ISBLANK(B368),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5104,7 +5115,7 @@
       <c r="E368" s="10"/>
       <c r="F368" s="10"/>
     </row>
-    <row r="369" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A369" s="13" t="str">
         <f>IF(ISBLANK(B369),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5115,7 +5126,7 @@
       <c r="E369" s="10"/>
       <c r="F369" s="10"/>
     </row>
-    <row r="370" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A370" s="13" t="str">
         <f>IF(ISBLANK(B370),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5126,7 +5137,7 @@
       <c r="E370" s="10"/>
       <c r="F370" s="10"/>
     </row>
-    <row r="371" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A371" s="13" t="str">
         <f>IF(ISBLANK(B371),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5137,7 +5148,7 @@
       <c r="E371" s="10"/>
       <c r="F371" s="10"/>
     </row>
-    <row r="372" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A372" s="13" t="str">
         <f>IF(ISBLANK(B372),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5148,7 +5159,7 @@
       <c r="E372" s="10"/>
       <c r="F372" s="10"/>
     </row>
-    <row r="373" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A373" s="13" t="str">
         <f>IF(ISBLANK(B373),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5159,7 +5170,7 @@
       <c r="E373" s="10"/>
       <c r="F373" s="10"/>
     </row>
-    <row r="374" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A374" s="13" t="str">
         <f>IF(ISBLANK(B374),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5170,7 +5181,7 @@
       <c r="E374" s="10"/>
       <c r="F374" s="10"/>
     </row>
-    <row r="375" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A375" s="13" t="str">
         <f>IF(ISBLANK(B375),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5181,7 +5192,7 @@
       <c r="E375" s="10"/>
       <c r="F375" s="10"/>
     </row>
-    <row r="376" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A376" s="13" t="str">
         <f>IF(ISBLANK(B376),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5192,7 +5203,7 @@
       <c r="E376" s="10"/>
       <c r="F376" s="10"/>
     </row>
-    <row r="377" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A377" s="13" t="str">
         <f>IF(ISBLANK(B377),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5203,7 +5214,7 @@
       <c r="E377" s="10"/>
       <c r="F377" s="10"/>
     </row>
-    <row r="378" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A378" s="13" t="str">
         <f>IF(ISBLANK(B378),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5214,7 +5225,7 @@
       <c r="E378" s="10"/>
       <c r="F378" s="10"/>
     </row>
-    <row r="379" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A379" s="13" t="str">
         <f>IF(ISBLANK(B379),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5225,7 +5236,7 @@
       <c r="E379" s="10"/>
       <c r="F379" s="10"/>
     </row>
-    <row r="380" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A380" s="13" t="str">
         <f>IF(ISBLANK(B380),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5236,7 +5247,7 @@
       <c r="E380" s="10"/>
       <c r="F380" s="10"/>
     </row>
-    <row r="381" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A381" s="13" t="str">
         <f>IF(ISBLANK(B381),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5247,7 +5258,7 @@
       <c r="E381" s="10"/>
       <c r="F381" s="10"/>
     </row>
-    <row r="382" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A382" s="13" t="str">
         <f>IF(ISBLANK(B382),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5258,7 +5269,7 @@
       <c r="E382" s="10"/>
       <c r="F382" s="10"/>
     </row>
-    <row r="383" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A383" s="13" t="str">
         <f>IF(ISBLANK(B383),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5269,7 +5280,7 @@
       <c r="E383" s="10"/>
       <c r="F383" s="10"/>
     </row>
-    <row r="384" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A384" s="13" t="str">
         <f>IF(ISBLANK(B384),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5280,7 +5291,7 @@
       <c r="E384" s="10"/>
       <c r="F384" s="10"/>
     </row>
-    <row r="385" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A385" s="13" t="str">
         <f>IF(ISBLANK(B385),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5291,7 +5302,7 @@
       <c r="E385" s="10"/>
       <c r="F385" s="10"/>
     </row>
-    <row r="386" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A386" s="13" t="str">
         <f>IF(ISBLANK(B386),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5302,7 +5313,7 @@
       <c r="E386" s="10"/>
       <c r="F386" s="10"/>
     </row>
-    <row r="387" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A387" s="13" t="str">
         <f>IF(ISBLANK(B387),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5313,7 +5324,7 @@
       <c r="E387" s="10"/>
       <c r="F387" s="10"/>
     </row>
-    <row r="388" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A388" s="13" t="str">
         <f>IF(ISBLANK(B388),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5324,7 +5335,7 @@
       <c r="E388" s="10"/>
       <c r="F388" s="10"/>
     </row>
-    <row r="389" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A389" s="13" t="str">
         <f>IF(ISBLANK(B389),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5335,7 +5346,7 @@
       <c r="E389" s="10"/>
       <c r="F389" s="10"/>
     </row>
-    <row r="390" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A390" s="13" t="str">
         <f>IF(ISBLANK(B390),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5346,7 +5357,7 @@
       <c r="E390" s="10"/>
       <c r="F390" s="10"/>
     </row>
-    <row r="391" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A391" s="13" t="str">
         <f>IF(ISBLANK(B391),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5357,7 +5368,7 @@
       <c r="E391" s="10"/>
       <c r="F391" s="10"/>
     </row>
-    <row r="392" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A392" s="13" t="str">
         <f>IF(ISBLANK(B392),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5368,7 +5379,7 @@
       <c r="E392" s="10"/>
       <c r="F392" s="10"/>
     </row>
-    <row r="393" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A393" s="13" t="str">
         <f>IF(ISBLANK(B393),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5379,7 +5390,7 @@
       <c r="E393" s="10"/>
       <c r="F393" s="10"/>
     </row>
-    <row r="394" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A394" s="13" t="str">
         <f>IF(ISBLANK(B394),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5390,7 +5401,7 @@
       <c r="E394" s="10"/>
       <c r="F394" s="10"/>
     </row>
-    <row r="395" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A395" s="13" t="str">
         <f>IF(ISBLANK(B395),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5401,7 +5412,7 @@
       <c r="E395" s="10"/>
       <c r="F395" s="10"/>
     </row>
-    <row r="396" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A396" s="13" t="str">
         <f>IF(ISBLANK(B396),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5412,7 +5423,7 @@
       <c r="E396" s="10"/>
       <c r="F396" s="10"/>
     </row>
-    <row r="397" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A397" s="13" t="str">
         <f>IF(ISBLANK(B397),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5423,7 +5434,7 @@
       <c r="E397" s="10"/>
       <c r="F397" s="10"/>
     </row>
-    <row r="398" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A398" s="13" t="str">
         <f>IF(ISBLANK(B398),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5434,7 +5445,7 @@
       <c r="E398" s="10"/>
       <c r="F398" s="10"/>
     </row>
-    <row r="399" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A399" s="13" t="str">
         <f>IF(ISBLANK(B399),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5445,7 +5456,7 @@
       <c r="E399" s="10"/>
       <c r="F399" s="10"/>
     </row>
-    <row r="400" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A400" s="13" t="str">
         <f>IF(ISBLANK(B400),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5456,7 +5467,7 @@
       <c r="E400" s="10"/>
       <c r="F400" s="10"/>
     </row>
-    <row r="401" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A401" s="13" t="str">
         <f>IF(ISBLANK(B401),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5467,7 +5478,7 @@
       <c r="E401" s="10"/>
       <c r="F401" s="10"/>
     </row>
-    <row r="402" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A402" s="13" t="str">
         <f>IF(ISBLANK(B402),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5478,7 +5489,7 @@
       <c r="E402" s="10"/>
       <c r="F402" s="10"/>
     </row>
-    <row r="403" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A403" s="13" t="str">
         <f>IF(ISBLANK(B403),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5489,7 +5500,7 @@
       <c r="E403" s="10"/>
       <c r="F403" s="10"/>
     </row>
-    <row r="404" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A404" s="13" t="str">
         <f>IF(ISBLANK(B404),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5500,7 +5511,7 @@
       <c r="E404" s="10"/>
       <c r="F404" s="10"/>
     </row>
-    <row r="405" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A405" s="13" t="str">
         <f>IF(ISBLANK(B405),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5511,7 +5522,7 @@
       <c r="E405" s="10"/>
       <c r="F405" s="10"/>
     </row>
-    <row r="406" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A406" s="13" t="str">
         <f>IF(ISBLANK(B406),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5522,7 +5533,7 @@
       <c r="E406" s="10"/>
       <c r="F406" s="10"/>
     </row>
-    <row r="407" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A407" s="13" t="str">
         <f>IF(ISBLANK(B407),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5533,7 +5544,7 @@
       <c r="E407" s="10"/>
       <c r="F407" s="10"/>
     </row>
-    <row r="408" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A408" s="13" t="str">
         <f>IF(ISBLANK(B408),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5544,7 +5555,7 @@
       <c r="E408" s="10"/>
       <c r="F408" s="10"/>
     </row>
-    <row r="409" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A409" s="13" t="str">
         <f>IF(ISBLANK(B409),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5555,7 +5566,7 @@
       <c r="E409" s="10"/>
       <c r="F409" s="10"/>
     </row>
-    <row r="410" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A410" s="13" t="str">
         <f>IF(ISBLANK(B410),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5566,7 +5577,7 @@
       <c r="E410" s="10"/>
       <c r="F410" s="10"/>
     </row>
-    <row r="411" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A411" s="13" t="str">
         <f>IF(ISBLANK(B411),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5577,7 +5588,7 @@
       <c r="E411" s="10"/>
       <c r="F411" s="10"/>
     </row>
-    <row r="412" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A412" s="13" t="str">
         <f>IF(ISBLANK(B412),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5588,7 +5599,7 @@
       <c r="E412" s="10"/>
       <c r="F412" s="10"/>
     </row>
-    <row r="413" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A413" s="13" t="str">
         <f>IF(ISBLANK(B413),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5599,7 +5610,7 @@
       <c r="E413" s="10"/>
       <c r="F413" s="10"/>
     </row>
-    <row r="414" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A414" s="13" t="str">
         <f>IF(ISBLANK(B414),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5610,7 +5621,7 @@
       <c r="E414" s="10"/>
       <c r="F414" s="10"/>
     </row>
-    <row r="415" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A415" s="13" t="str">
         <f>IF(ISBLANK(B415),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5621,7 +5632,7 @@
       <c r="E415" s="10"/>
       <c r="F415" s="10"/>
     </row>
-    <row r="416" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A416" s="13" t="str">
         <f>IF(ISBLANK(B416),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5632,7 +5643,7 @@
       <c r="E416" s="10"/>
       <c r="F416" s="10"/>
     </row>
-    <row r="417" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A417" s="13" t="str">
         <f>IF(ISBLANK(B417),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5643,7 +5654,7 @@
       <c r="E417" s="10"/>
       <c r="F417" s="10"/>
     </row>
-    <row r="418" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A418" s="13" t="str">
         <f>IF(ISBLANK(B418),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5654,7 +5665,7 @@
       <c r="E418" s="10"/>
       <c r="F418" s="10"/>
     </row>
-    <row r="419" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A419" s="13" t="str">
         <f>IF(ISBLANK(B419),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5665,7 +5676,7 @@
       <c r="E419" s="10"/>
       <c r="F419" s="10"/>
     </row>
-    <row r="420" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A420" s="13" t="str">
         <f>IF(ISBLANK(B420),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5676,7 +5687,7 @@
       <c r="E420" s="10"/>
       <c r="F420" s="10"/>
     </row>
-    <row r="421" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A421" s="13" t="str">
         <f>IF(ISBLANK(B421),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5687,7 +5698,7 @@
       <c r="E421" s="10"/>
       <c r="F421" s="10"/>
     </row>
-    <row r="422" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A422" s="13" t="str">
         <f>IF(ISBLANK(B422),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5698,7 +5709,7 @@
       <c r="E422" s="10"/>
       <c r="F422" s="10"/>
     </row>
-    <row r="423" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A423" s="13" t="str">
         <f>IF(ISBLANK(B423),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5709,7 +5720,7 @@
       <c r="E423" s="10"/>
       <c r="F423" s="10"/>
     </row>
-    <row r="424" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A424" s="13" t="str">
         <f>IF(ISBLANK(B424),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5720,7 +5731,7 @@
       <c r="E424" s="10"/>
       <c r="F424" s="10"/>
     </row>
-    <row r="425" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A425" s="13" t="str">
         <f>IF(ISBLANK(B425),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5731,7 +5742,7 @@
       <c r="E425" s="10"/>
       <c r="F425" s="10"/>
     </row>
-    <row r="426" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A426" s="13" t="str">
         <f>IF(ISBLANK(B426),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5742,7 +5753,7 @@
       <c r="E426" s="10"/>
       <c r="F426" s="10"/>
     </row>
-    <row r="427" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A427" s="13" t="str">
         <f>IF(ISBLANK(B427),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5753,7 +5764,7 @@
       <c r="E427" s="10"/>
       <c r="F427" s="10"/>
     </row>
-    <row r="428" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A428" s="13" t="str">
         <f>IF(ISBLANK(B428),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5764,7 +5775,7 @@
       <c r="E428" s="10"/>
       <c r="F428" s="10"/>
     </row>
-    <row r="429" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A429" s="13" t="str">
         <f>IF(ISBLANK(B429),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5775,7 +5786,7 @@
       <c r="E429" s="10"/>
       <c r="F429" s="10"/>
     </row>
-    <row r="430" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A430" s="13" t="str">
         <f>IF(ISBLANK(B430),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5786,7 +5797,7 @@
       <c r="E430" s="10"/>
       <c r="F430" s="10"/>
     </row>
-    <row r="431" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A431" s="13" t="str">
         <f>IF(ISBLANK(B431),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5797,7 +5808,7 @@
       <c r="E431" s="10"/>
       <c r="F431" s="10"/>
     </row>
-    <row r="432" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A432" s="13" t="str">
         <f>IF(ISBLANK(B432),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5808,7 +5819,7 @@
       <c r="E432" s="10"/>
       <c r="F432" s="10"/>
     </row>
-    <row r="433" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A433" s="13" t="str">
         <f>IF(ISBLANK(B433),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5819,7 +5830,7 @@
       <c r="E433" s="10"/>
       <c r="F433" s="10"/>
     </row>
-    <row r="434" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A434" s="13" t="str">
         <f>IF(ISBLANK(B434),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5830,7 +5841,7 @@
       <c r="E434" s="10"/>
       <c r="F434" s="10"/>
     </row>
-    <row r="435" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A435" s="13" t="str">
         <f>IF(ISBLANK(B435),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5841,7 +5852,7 @@
       <c r="E435" s="10"/>
       <c r="F435" s="10"/>
     </row>
-    <row r="436" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A436" s="13" t="str">
         <f>IF(ISBLANK(B436),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5852,7 +5863,7 @@
       <c r="E436" s="10"/>
       <c r="F436" s="10"/>
     </row>
-    <row r="437" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A437" s="13" t="str">
         <f>IF(ISBLANK(B437),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5863,7 +5874,7 @@
       <c r="E437" s="10"/>
       <c r="F437" s="10"/>
     </row>
-    <row r="438" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A438" s="13" t="str">
         <f>IF(ISBLANK(B438),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5874,7 +5885,7 @@
       <c r="E438" s="10"/>
       <c r="F438" s="10"/>
     </row>
-    <row r="439" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A439" s="13" t="str">
         <f>IF(ISBLANK(B439),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5885,7 +5896,7 @@
       <c r="E439" s="10"/>
       <c r="F439" s="10"/>
     </row>
-    <row r="440" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A440" s="13" t="str">
         <f>IF(ISBLANK(B440),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5896,7 +5907,7 @@
       <c r="E440" s="10"/>
       <c r="F440" s="10"/>
     </row>
-    <row r="441" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A441" s="13" t="str">
         <f>IF(ISBLANK(B441),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5907,7 +5918,7 @@
       <c r="E441" s="10"/>
       <c r="F441" s="10"/>
     </row>
-    <row r="442" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A442" s="13" t="str">
         <f>IF(ISBLANK(B442),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5918,7 +5929,7 @@
       <c r="E442" s="10"/>
       <c r="F442" s="10"/>
     </row>
-    <row r="443" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A443" s="13" t="str">
         <f>IF(ISBLANK(B443),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5929,7 +5940,7 @@
       <c r="E443" s="10"/>
       <c r="F443" s="10"/>
     </row>
-    <row r="444" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A444" s="13" t="str">
         <f>IF(ISBLANK(B444),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5940,7 +5951,7 @@
       <c r="E444" s="10"/>
       <c r="F444" s="10"/>
     </row>
-    <row r="445" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A445" s="13" t="str">
         <f>IF(ISBLANK(B445),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5951,7 +5962,7 @@
       <c r="E445" s="10"/>
       <c r="F445" s="10"/>
     </row>
-    <row r="446" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A446" s="13" t="str">
         <f>IF(ISBLANK(B446),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5962,7 +5973,7 @@
       <c r="E446" s="10"/>
       <c r="F446" s="10"/>
     </row>
-    <row r="447" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A447" s="13" t="str">
         <f>IF(ISBLANK(B447),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5973,7 +5984,7 @@
       <c r="E447" s="10"/>
       <c r="F447" s="10"/>
     </row>
-    <row r="448" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A448" s="13" t="str">
         <f>IF(ISBLANK(B448),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5984,7 +5995,7 @@
       <c r="E448" s="10"/>
       <c r="F448" s="10"/>
     </row>
-    <row r="449" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A449" s="13" t="str">
         <f>IF(ISBLANK(B449),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5995,7 +6006,7 @@
       <c r="E449" s="10"/>
       <c r="F449" s="10"/>
     </row>
-    <row r="450" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A450" s="13" t="str">
         <f>IF(ISBLANK(B450),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6006,7 +6017,7 @@
       <c r="E450" s="10"/>
       <c r="F450" s="10"/>
     </row>
-    <row r="451" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A451" s="13" t="str">
         <f>IF(ISBLANK(B451),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6017,7 +6028,7 @@
       <c r="E451" s="10"/>
       <c r="F451" s="10"/>
     </row>
-    <row r="452" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A452" s="13" t="str">
         <f>IF(ISBLANK(B452),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6028,7 +6039,7 @@
       <c r="E452" s="10"/>
       <c r="F452" s="10"/>
     </row>
-    <row r="453" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A453" s="13" t="str">
         <f>IF(ISBLANK(B453),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6039,7 +6050,7 @@
       <c r="E453" s="10"/>
       <c r="F453" s="10"/>
     </row>
-    <row r="454" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A454" s="13" t="str">
         <f>IF(ISBLANK(B454),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6050,7 +6061,7 @@
       <c r="E454" s="10"/>
       <c r="F454" s="10"/>
     </row>
-    <row r="455" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A455" s="13" t="str">
         <f>IF(ISBLANK(B455),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6061,7 +6072,7 @@
       <c r="E455" s="10"/>
       <c r="F455" s="10"/>
     </row>
-    <row r="456" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A456" s="13" t="str">
         <f>IF(ISBLANK(B456),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6072,7 +6083,7 @@
       <c r="E456" s="10"/>
       <c r="F456" s="10"/>
     </row>
-    <row r="457" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A457" s="13" t="str">
         <f>IF(ISBLANK(B457),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6083,7 +6094,7 @@
       <c r="E457" s="10"/>
       <c r="F457" s="10"/>
     </row>
-    <row r="458" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A458" s="13" t="str">
         <f>IF(ISBLANK(B458),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6094,7 +6105,7 @@
       <c r="E458" s="10"/>
       <c r="F458" s="10"/>
     </row>
-    <row r="459" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A459" s="13" t="str">
         <f>IF(ISBLANK(B459),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6105,7 +6116,7 @@
       <c r="E459" s="10"/>
       <c r="F459" s="10"/>
     </row>
-    <row r="460" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A460" s="13" t="str">
         <f>IF(ISBLANK(B460),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6116,7 +6127,7 @@
       <c r="E460" s="10"/>
       <c r="F460" s="10"/>
     </row>
-    <row r="461" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A461" s="13" t="str">
         <f>IF(ISBLANK(B461),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6127,7 +6138,7 @@
       <c r="E461" s="10"/>
       <c r="F461" s="10"/>
     </row>
-    <row r="462" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A462" s="13" t="str">
         <f>IF(ISBLANK(B462),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6138,7 +6149,7 @@
       <c r="E462" s="10"/>
       <c r="F462" s="10"/>
     </row>
-    <row r="463" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A463" s="13" t="str">
         <f>IF(ISBLANK(B463),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6149,7 +6160,7 @@
       <c r="E463" s="10"/>
       <c r="F463" s="10"/>
     </row>
-    <row r="464" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A464" s="13" t="str">
         <f>IF(ISBLANK(B464),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6160,7 +6171,7 @@
       <c r="E464" s="10"/>
       <c r="F464" s="10"/>
     </row>
-    <row r="465" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A465" s="13" t="str">
         <f>IF(ISBLANK(B465),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6171,7 +6182,7 @@
       <c r="E465" s="10"/>
       <c r="F465" s="10"/>
     </row>
-    <row r="466" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A466" s="13" t="str">
         <f>IF(ISBLANK(B466),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6182,7 +6193,7 @@
       <c r="E466" s="10"/>
       <c r="F466" s="10"/>
     </row>
-    <row r="467" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A467" s="13" t="str">
         <f>IF(ISBLANK(B467),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6193,7 +6204,7 @@
       <c r="E467" s="10"/>
       <c r="F467" s="10"/>
     </row>
-    <row r="468" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A468" s="13" t="str">
         <f>IF(ISBLANK(B468),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6204,7 +6215,7 @@
       <c r="E468" s="10"/>
       <c r="F468" s="10"/>
     </row>
-    <row r="469" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A469" s="13" t="str">
         <f>IF(ISBLANK(B469),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6215,7 +6226,7 @@
       <c r="E469" s="10"/>
       <c r="F469" s="10"/>
     </row>
-    <row r="470" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A470" s="13" t="str">
         <f>IF(ISBLANK(B470),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6226,7 +6237,7 @@
       <c r="E470" s="10"/>
       <c r="F470" s="10"/>
     </row>
-    <row r="471" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A471" s="13" t="str">
         <f>IF(ISBLANK(B471),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6237,7 +6248,7 @@
       <c r="E471" s="10"/>
       <c r="F471" s="10"/>
     </row>
-    <row r="472" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A472" s="13" t="str">
         <f>IF(ISBLANK(B472),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6248,7 +6259,7 @@
       <c r="E472" s="10"/>
       <c r="F472" s="10"/>
     </row>
-    <row r="473" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A473" s="13" t="str">
         <f>IF(ISBLANK(B473),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6259,7 +6270,7 @@
       <c r="E473" s="10"/>
       <c r="F473" s="10"/>
     </row>
-    <row r="474" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A474" s="13" t="str">
         <f>IF(ISBLANK(B474),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6270,7 +6281,7 @@
       <c r="E474" s="10"/>
       <c r="F474" s="10"/>
     </row>
-    <row r="475" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A475" s="13" t="str">
         <f>IF(ISBLANK(B475),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6281,7 +6292,7 @@
       <c r="E475" s="10"/>
       <c r="F475" s="10"/>
     </row>
-    <row r="476" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A476" s="13" t="str">
         <f>IF(ISBLANK(B476),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6292,7 +6303,7 @@
       <c r="E476" s="10"/>
       <c r="F476" s="10"/>
     </row>
-    <row r="477" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A477" s="13" t="str">
         <f>IF(ISBLANK(B477),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6303,7 +6314,7 @@
       <c r="E477" s="10"/>
       <c r="F477" s="10"/>
     </row>
-    <row r="478" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A478" s="13" t="str">
         <f>IF(ISBLANK(B478),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6314,7 +6325,7 @@
       <c r="E478" s="10"/>
       <c r="F478" s="10"/>
     </row>
-    <row r="479" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A479" s="13" t="str">
         <f>IF(ISBLANK(B479),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6325,7 +6336,7 @@
       <c r="E479" s="10"/>
       <c r="F479" s="10"/>
     </row>
-    <row r="480" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A480" s="13" t="str">
         <f>IF(ISBLANK(B480),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6336,7 +6347,7 @@
       <c r="E480" s="10"/>
       <c r="F480" s="10"/>
     </row>
-    <row r="481" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A481" s="13" t="str">
         <f>IF(ISBLANK(B481),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6347,7 +6358,7 @@
       <c r="E481" s="10"/>
       <c r="F481" s="10"/>
     </row>
-    <row r="482" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A482" s="13" t="str">
         <f>IF(ISBLANK(B482),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6358,7 +6369,7 @@
       <c r="E482" s="10"/>
       <c r="F482" s="10"/>
     </row>
-    <row r="483" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A483" s="13" t="str">
         <f>IF(ISBLANK(B483),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6369,7 +6380,7 @@
       <c r="E483" s="10"/>
       <c r="F483" s="10"/>
     </row>
-    <row r="484" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A484" s="13" t="str">
         <f>IF(ISBLANK(B484),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6380,7 +6391,7 @@
       <c r="E484" s="10"/>
       <c r="F484" s="10"/>
     </row>
-    <row r="485" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A485" s="13" t="str">
         <f>IF(ISBLANK(B485),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6391,7 +6402,7 @@
       <c r="E485" s="10"/>
       <c r="F485" s="10"/>
     </row>
-    <row r="486" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A486" s="13" t="str">
         <f>IF(ISBLANK(B486),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6402,7 +6413,7 @@
       <c r="E486" s="10"/>
       <c r="F486" s="10"/>
     </row>
-    <row r="487" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A487" s="13" t="str">
         <f>IF(ISBLANK(B487),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6413,7 +6424,7 @@
       <c r="E487" s="10"/>
       <c r="F487" s="10"/>
     </row>
-    <row r="488" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A488" s="13" t="str">
         <f>IF(ISBLANK(B488),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6424,7 +6435,7 @@
       <c r="E488" s="10"/>
       <c r="F488" s="10"/>
     </row>
-    <row r="489" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A489" s="13" t="str">
         <f>IF(ISBLANK(B489),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6435,7 +6446,7 @@
       <c r="E489" s="10"/>
       <c r="F489" s="10"/>
     </row>
-    <row r="490" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A490" s="13" t="str">
         <f>IF(ISBLANK(B490),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6446,7 +6457,7 @@
       <c r="E490" s="10"/>
       <c r="F490" s="10"/>
     </row>
-    <row r="491" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A491" s="13" t="str">
         <f>IF(ISBLANK(B491),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6457,7 +6468,7 @@
       <c r="E491" s="10"/>
       <c r="F491" s="10"/>
     </row>
-    <row r="492" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A492" s="13" t="str">
         <f>IF(ISBLANK(B492),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6468,7 +6479,7 @@
       <c r="E492" s="10"/>
       <c r="F492" s="10"/>
     </row>
-    <row r="493" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A493" s="13" t="str">
         <f>IF(ISBLANK(B493),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6479,7 +6490,7 @@
       <c r="E493" s="10"/>
       <c r="F493" s="10"/>
     </row>
-    <row r="494" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A494" s="13" t="str">
         <f>IF(ISBLANK(B494),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6490,7 +6501,7 @@
       <c r="E494" s="10"/>
       <c r="F494" s="10"/>
     </row>
-    <row r="495" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A495" s="13" t="str">
         <f>IF(ISBLANK(B495),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6501,7 +6512,7 @@
       <c r="E495" s="10"/>
       <c r="F495" s="10"/>
     </row>
-    <row r="496" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A496" s="13" t="str">
         <f>IF(ISBLANK(B496),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6512,7 +6523,7 @@
       <c r="E496" s="10"/>
       <c r="F496" s="10"/>
     </row>
-    <row r="497" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A497" s="13" t="str">
         <f>IF(ISBLANK(B497),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6523,7 +6534,7 @@
       <c r="E497" s="10"/>
       <c r="F497" s="10"/>
     </row>
-    <row r="498" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A498" s="13" t="str">
         <f>IF(ISBLANK(B498),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6534,7 +6545,7 @@
       <c r="E498" s="10"/>
       <c r="F498" s="10"/>
     </row>
-    <row r="499" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A499" s="13" t="str">
         <f>IF(ISBLANK(B499),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6545,7 +6556,7 @@
       <c r="E499" s="10"/>
       <c r="F499" s="10"/>
     </row>
-    <row r="500" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A500" s="13" t="str">
         <f>IF(ISBLANK(B500),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6556,7 +6567,7 @@
       <c r="E500" s="10"/>
       <c r="F500" s="10"/>
     </row>
-    <row r="501" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A501" s="13" t="str">
         <f>IF(ISBLANK(B501),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6567,7 +6578,7 @@
       <c r="E501" s="10"/>
       <c r="F501" s="10"/>
     </row>
-    <row r="502" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A502" s="13" t="str">
         <f>IF(ISBLANK(B502),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6578,7 +6589,7 @@
       <c r="E502" s="10"/>
       <c r="F502" s="10"/>
     </row>
-    <row r="503" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A503" s="13" t="str">
         <f>IF(ISBLANK(B503),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6589,7 +6600,7 @@
       <c r="E503" s="10"/>
       <c r="F503" s="10"/>
     </row>
-    <row r="504" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A504" s="13" t="str">
         <f>IF(ISBLANK(B504),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6600,7 +6611,7 @@
       <c r="E504" s="10"/>
       <c r="F504" s="10"/>
     </row>
-    <row r="505" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A505" s="13" t="str">
         <f>IF(ISBLANK(B505),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6611,7 +6622,7 @@
       <c r="E505" s="10"/>
       <c r="F505" s="10"/>
     </row>
-    <row r="506" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A506" s="13" t="str">
         <f>IF(ISBLANK(B506),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6622,7 +6633,7 @@
       <c r="E506" s="10"/>
       <c r="F506" s="10"/>
     </row>
-    <row r="507" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A507" s="13" t="str">
         <f>IF(ISBLANK(B507),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6633,7 +6644,7 @@
       <c r="E507" s="10"/>
       <c r="F507" s="10"/>
     </row>
-    <row r="508" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A508" s="13" t="str">
         <f>IF(ISBLANK(B508),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6644,7 +6655,7 @@
       <c r="E508" s="10"/>
       <c r="F508" s="10"/>
     </row>
-    <row r="509" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A509" s="13" t="str">
         <f>IF(ISBLANK(B509),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6655,7 +6666,7 @@
       <c r="E509" s="10"/>
       <c r="F509" s="10"/>
     </row>
-    <row r="510" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A510" s="13" t="str">
         <f>IF(ISBLANK(B510),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6666,7 +6677,7 @@
       <c r="E510" s="10"/>
       <c r="F510" s="10"/>
     </row>
-    <row r="511" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A511" s="13" t="str">
         <f>IF(ISBLANK(B511),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6677,7 +6688,7 @@
       <c r="E511" s="10"/>
       <c r="F511" s="10"/>
     </row>
-    <row r="512" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A512" s="13" t="str">
         <f>IF(ISBLANK(B512),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6688,7 +6699,7 @@
       <c r="E512" s="10"/>
       <c r="F512" s="10"/>
     </row>
-    <row r="513" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A513" s="13" t="str">
         <f>IF(ISBLANK(B513),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6699,7 +6710,7 @@
       <c r="E513" s="10"/>
       <c r="F513" s="10"/>
     </row>
-    <row r="514" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A514" s="13" t="str">
         <f>IF(ISBLANK(B514),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6710,7 +6721,7 @@
       <c r="E514" s="10"/>
       <c r="F514" s="10"/>
     </row>
-    <row r="515" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A515" s="13" t="str">
         <f>IF(ISBLANK(B515),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6721,7 +6732,7 @@
       <c r="E515" s="10"/>
       <c r="F515" s="10"/>
     </row>
-    <row r="516" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A516" s="13" t="str">
         <f>IF(ISBLANK(B516),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6732,7 +6743,7 @@
       <c r="E516" s="10"/>
       <c r="F516" s="10"/>
     </row>
-    <row r="517" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A517" s="13" t="str">
         <f>IF(ISBLANK(B517),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6743,7 +6754,7 @@
       <c r="E517" s="10"/>
       <c r="F517" s="10"/>
     </row>
-    <row r="518" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A518" s="13" t="str">
         <f>IF(ISBLANK(B518),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6754,7 +6765,7 @@
       <c r="E518" s="10"/>
       <c r="F518" s="10"/>
     </row>
-    <row r="519" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A519" s="13" t="str">
         <f>IF(ISBLANK(B519),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6765,7 +6776,7 @@
       <c r="E519" s="10"/>
       <c r="F519" s="10"/>
     </row>
-    <row r="520" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A520" s="13" t="str">
         <f>IF(ISBLANK(B520),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6776,7 +6787,7 @@
       <c r="E520" s="10"/>
       <c r="F520" s="10"/>
     </row>
-    <row r="521" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A521" s="13" t="str">
         <f>IF(ISBLANK(B521),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6787,7 +6798,7 @@
       <c r="E521" s="10"/>
       <c r="F521" s="10"/>
     </row>
-    <row r="522" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A522" s="13" t="str">
         <f>IF(ISBLANK(B522),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6798,7 +6809,7 @@
       <c r="E522" s="10"/>
       <c r="F522" s="10"/>
     </row>
-    <row r="523" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A523" s="13" t="str">
         <f>IF(ISBLANK(B523),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6809,7 +6820,7 @@
       <c r="E523" s="10"/>
       <c r="F523" s="10"/>
     </row>
-    <row r="524" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A524" s="13" t="str">
         <f>IF(ISBLANK(B524),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6820,7 +6831,7 @@
       <c r="E524" s="10"/>
       <c r="F524" s="10"/>
     </row>
-    <row r="525" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A525" s="13" t="str">
         <f>IF(ISBLANK(B525),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6831,7 +6842,7 @@
       <c r="E525" s="10"/>
       <c r="F525" s="10"/>
     </row>
-    <row r="526" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A526" s="13" t="str">
         <f>IF(ISBLANK(B526),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6842,7 +6853,7 @@
       <c r="E526" s="10"/>
       <c r="F526" s="10"/>
     </row>
-    <row r="527" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A527" s="13" t="str">
         <f>IF(ISBLANK(B527),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6853,7 +6864,7 @@
       <c r="E527" s="10"/>
       <c r="F527" s="10"/>
     </row>
-    <row r="528" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A528" s="13" t="str">
         <f>IF(ISBLANK(B528),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6864,7 +6875,7 @@
       <c r="E528" s="10"/>
       <c r="F528" s="10"/>
     </row>
-    <row r="529" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A529" s="13" t="str">
         <f>IF(ISBLANK(B529),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6875,7 +6886,7 @@
       <c r="E529" s="10"/>
       <c r="F529" s="10"/>
     </row>
-    <row r="530" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A530" s="13" t="str">
         <f>IF(ISBLANK(B530),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6886,7 +6897,7 @@
       <c r="E530" s="10"/>
       <c r="F530" s="10"/>
     </row>
-    <row r="531" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A531" s="13" t="str">
         <f>IF(ISBLANK(B531),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6903,24 +6914,24 @@
     <mergeCell ref="C2:D2"/>
   </mergeCells>
   <conditionalFormatting sqref="D6:D531">
-    <cfRule type="expression" dxfId="13" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="5" priority="2" stopIfTrue="1">
       <formula>$D6="Meeting"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="3">
+    <cfRule type="expression" dxfId="4" priority="3">
       <formula>$D6="Documentation"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="11" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="3" priority="4" stopIfTrue="1">
       <formula>$D6="Test"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="2" priority="5" stopIfTrue="1">
       <formula>$D6="Analyse"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="7" stopIfTrue="1">
       <formula>$D6="Dévelopement"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D21">
-    <cfRule type="expression" dxfId="8" priority="1">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>$D$21="Imprévu"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7163,15 +7174,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TaxCatchAll xmlns="be0d3259-a7ce-4623-88ec-81594dfcbc1c" xsi:nil="true"/>
@@ -7180,6 +7182,15 @@
     </lcf76f155ced4ddcb4097134ff3c332f>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7202,14 +7213,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BDECA689-F55E-43C8-8CEF-25DE741768EA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8EB0028C-89CE-4553-AB94-94DC6E832369}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -7218,4 +7221,12 @@
     <ds:schemaRef ds:uri="99ffe1f3-7857-457f-add0-5bdef636f38d"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BDECA689-F55E-43C8-8CEF-25DE741768EA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/docs/Journal-de-Travail_Berchel-Joachim.xlsx
+++ b/docs/Journal-de-Travail_Berchel-Joachim.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cyco\Documents\GitHub\joachim-MonProjetGenial\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\px59nyu\Documents\GitHub\joachim-MonProjetGenial\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7CCD5E7-C0A6-44D1-91FD-7BEC02991F2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{324DD3F4-9D44-419E-BECE-3C34C0445C51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{6CC57B32-2488-5244-B7A6-FB7E808234AC}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6CC57B32-2488-5244-B7A6-FB7E808234AC}"/>
   </bookViews>
   <sheets>
     <sheet name="Journal de travail" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="57">
   <si>
     <t>Journal de travail</t>
   </si>
@@ -198,6 +198,19 @@
   </si>
   <si>
     <t>J'avance sur l'envoi de catalogue, cela devrait fonctionner, l'envoi du catalogue se fait après une demande de catalogue mais je ne sais pas si les autres peuvent traités le format de mon catalogue.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Retour sur les modules (~20/30m) puis je règle un problème de sérialisation, le MediaData qui est donné ne correspondait pas avec mon idée du programme, j'avais une solution moins couteuse en ressource mais cela ne fonctionnait pas de la façon dont les autres l'avaient conçu.
+Je préfère sauvegarder l'emplacement des musiques plutôt que faire une copie de toutes les musiques, le constructeur du MediaData empêchait la désérialisation. </t>
+  </si>
+  <si>
+    <t>je change ma classe MyCatalog, j'ai 2 list de MediaData dedans, une pour mes musique sur ma machine et une autre pour les musiques récupéré des catalogues, cela fonctionne.</t>
+  </si>
+  <si>
+    <t>Je récupère les catalogues et les affiche, j'ajoute un bouton pour demander le fichier.</t>
+  </si>
+  <si>
+    <t>Je commence à envoyer mes fichiers après demande</t>
   </si>
 </sst>
 </file>
@@ -384,6 +397,56 @@
   </cellStyles>
   <dxfs count="14">
     <dxf>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="25" formatCode="hh:mm"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="21" formatCode="dd/mmm"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="2" tint="-9.9978637043366805E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FFFF0000"/>
@@ -431,56 +494,6 @@
       <fill>
         <patternFill>
           <bgColor theme="1" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="25" formatCode="hh:mm"/>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="21" formatCode="dd/mmm"/>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="2" tint="-9.9978637043366805E-2"/>
         </patternFill>
       </fill>
     </dxf>
@@ -553,7 +566,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{45CB4986-052B-374B-A8D0-88D41B362A09}" name="Table2" displayName="Table2" ref="A5:F531" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{45CB4986-052B-374B-A8D0-88D41B362A09}" name="Table2" displayName="Table2" ref="A5:F531" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
   <autoFilter ref="A5:F531" xr:uid="{45CB4986-052B-374B-A8D0-88D41B362A09}">
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -561,14 +574,14 @@
     <filterColumn colId="5" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{F92771A6-FBDD-734E-AD68-EEBCABBE5406}" name="Semaine" dataDxfId="11">
+    <tableColumn id="1" xr3:uid="{F92771A6-FBDD-734E-AD68-EEBCABBE5406}" name="Semaine" dataDxfId="5">
       <calculatedColumnFormula>IF(ISBLANK(B6),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{8A6A2217-ACA1-B64A-AACC-E62161ECEC47}" name="Jour" dataDxfId="10"/>
-    <tableColumn id="3" xr3:uid="{7CF180A9-4021-614A-ABFA-FD02FA7EE89D}" name="Temps [h]" dataDxfId="9"/>
-    <tableColumn id="4" xr3:uid="{DA59D006-464D-084D-8523-AF3DB167EDE2}" name="Type" dataDxfId="8"/>
-    <tableColumn id="5" xr3:uid="{5207D366-301C-BA4D-A840-0D62AE8890E1}" name="Description" dataDxfId="7"/>
-    <tableColumn id="6" xr3:uid="{F7678D64-0216-D64A-A954-D1A966D4BF65}" name="Remarques/problèmes" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{8A6A2217-ACA1-B64A-AACC-E62161ECEC47}" name="Jour" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{7CF180A9-4021-614A-ABFA-FD02FA7EE89D}" name="Temps [h]" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{DA59D006-464D-084D-8523-AF3DB167EDE2}" name="Type" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{5207D366-301C-BA4D-A840-0D62AE8890E1}" name="Description" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{F7678D64-0216-D64A-A954-D1A966D4BF65}" name="Remarques/problèmes" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -764,26 +777,26 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E38" sqref="E38"/>
+      <selection pane="bottomLeft" activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.58203125" style="13" customWidth="1"/>
-    <col min="2" max="2" width="9.83203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="13.83203125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="13.83203125" style="28" customWidth="1"/>
+    <col min="1" max="1" width="14.625" style="13" customWidth="1"/>
+    <col min="2" max="2" width="9.875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13.875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="13.875" style="28" customWidth="1"/>
     <col min="5" max="5" width="83.5" customWidth="1"/>
-    <col min="6" max="6" width="91.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="91.875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11" customWidth="1"/>
     <col min="10" max="10" width="7.25" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.58203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="4.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4.375" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="5.5" customWidth="1"/>
-    <col min="14" max="14" width="2.83203125" customWidth="1"/>
+    <col min="14" max="14" width="2.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:14" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A1" s="15"/>
       <c r="B1" s="16"/>
       <c r="C1" s="17"/>
@@ -793,7 +806,7 @@
       </c>
       <c r="F1" s="18"/>
     </row>
-    <row r="2" spans="1:14" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:14" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B2" s="4" t="s">
         <v>16</v>
       </c>
@@ -826,13 +839,13 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:14" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B3" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C3" s="25">
         <f>SUM(C6:C521)</f>
-        <v>0.65624999999999989</v>
+        <v>0.80555555555555547</v>
       </c>
       <c r="D3" s="29" t="s">
         <v>13</v>
@@ -844,7 +857,7 @@
         <v>45604</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="14" t="s">
         <v>2</v>
       </c>
@@ -864,7 +877,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="13">
         <f>IF(ISBLANK(B6),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v>45</v>
@@ -883,7 +896,7 @@
       </c>
       <c r="F6" s="22"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="13">
         <f>IF(ISBLANK(B7),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v>45</v>
@@ -902,7 +915,7 @@
       </c>
       <c r="F7" s="10"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="13">
         <f>IF(ISBLANK(B8),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v>45</v>
@@ -921,7 +934,7 @@
       </c>
       <c r="F8" s="23"/>
     </row>
-    <row r="9" spans="1:14" ht="31" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A9" s="13">
         <f>IF(ISBLANK(B9),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v>47</v>
@@ -940,7 +953,7 @@
       </c>
       <c r="F9" s="10"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="13">
         <f>IF(ISBLANK(B10),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v>47</v>
@@ -959,7 +972,7 @@
       </c>
       <c r="F10" s="22"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="13">
         <f>IF(ISBLANK(B11),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v>47</v>
@@ -978,7 +991,7 @@
       </c>
       <c r="F11" s="10"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="13">
         <f>IF(ISBLANK(B12),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v>47</v>
@@ -997,7 +1010,7 @@
       </c>
       <c r="F12" s="10"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="13">
         <f>IF(ISBLANK(B13),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v>47</v>
@@ -1016,7 +1029,7 @@
       </c>
       <c r="F13" s="10"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="13">
         <f>IF(ISBLANK(B14),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v>47</v>
@@ -1035,7 +1048,7 @@
       </c>
       <c r="F14" s="10"/>
     </row>
-    <row r="15" spans="1:14" ht="31" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A15" s="13">
         <f>IF(ISBLANK(B15),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v>47</v>
@@ -1054,7 +1067,7 @@
       </c>
       <c r="F15" s="10"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="13">
         <f>IF(ISBLANK(B16),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v>48</v>
@@ -1073,7 +1086,7 @@
       </c>
       <c r="F16" s="10"/>
     </row>
-    <row r="17" spans="1:6" ht="31" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A17" s="13">
         <f>IF(ISBLANK(B17),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v>48</v>
@@ -1092,7 +1105,7 @@
       </c>
       <c r="F17" s="22"/>
     </row>
-    <row r="18" spans="1:6" ht="31" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A18" s="13">
         <f>IF(ISBLANK(B18),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v>48</v>
@@ -1111,7 +1124,7 @@
       </c>
       <c r="F18" s="10"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="13">
         <f>IF(ISBLANK(B19),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v>48</v>
@@ -1130,7 +1143,7 @@
       </c>
       <c r="F19" s="10"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="13">
         <f>IF(ISBLANK(B20),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v>48</v>
@@ -1149,7 +1162,7 @@
       </c>
       <c r="F20" s="22"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="13">
         <f>IF(ISBLANK(B21),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v>48</v>
@@ -1168,7 +1181,7 @@
       </c>
       <c r="F21" s="10"/>
     </row>
-    <row r="22" spans="1:6" ht="31" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A22" s="13">
         <f>IF(ISBLANK(B22),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v>48</v>
@@ -1187,7 +1200,7 @@
       </c>
       <c r="F22" s="22"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="13">
         <f>IF(ISBLANK(B23),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v>48</v>
@@ -1206,7 +1219,7 @@
       </c>
       <c r="F23" s="10"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="13">
         <f>IF(ISBLANK(B24),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v>50</v>
@@ -1225,7 +1238,7 @@
       </c>
       <c r="F24" s="10"/>
     </row>
-    <row r="25" spans="1:6" ht="31" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A25" s="13">
         <f>IF(ISBLANK(B25),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v>50</v>
@@ -1244,7 +1257,7 @@
       </c>
       <c r="F25" s="10"/>
     </row>
-    <row r="26" spans="1:6" ht="31" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A26" s="13">
         <f>IF(ISBLANK(B26),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v>50</v>
@@ -1263,7 +1276,7 @@
       </c>
       <c r="F26" s="10"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="13">
         <f>IF(ISBLANK(B27),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v>50</v>
@@ -1284,7 +1297,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="31" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A28" s="13">
         <f>IF(ISBLANK(B28),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v>50</v>
@@ -1303,7 +1316,7 @@
       </c>
       <c r="F28" s="22"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="13">
         <f>IF(ISBLANK(B29),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v>50</v>
@@ -1322,7 +1335,7 @@
       </c>
       <c r="F29" s="10"/>
     </row>
-    <row r="30" spans="1:6" ht="46.5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A30" s="13">
         <f>IF(ISBLANK(B30),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v>51</v>
@@ -1341,7 +1354,7 @@
       </c>
       <c r="F30" s="10"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="13">
         <f>IF(ISBLANK(B31),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v>51</v>
@@ -1360,7 +1373,7 @@
       </c>
       <c r="F31" s="10"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="13">
         <f>IF(ISBLANK(B32),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v>51</v>
@@ -1379,7 +1392,7 @@
       </c>
       <c r="F32" s="10"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="13">
         <f>IF(ISBLANK(B33),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v>51</v>
@@ -1398,7 +1411,7 @@
       </c>
       <c r="F33" s="10"/>
     </row>
-    <row r="34" spans="1:6" ht="108.5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:6" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A34" s="13">
         <f>IF(ISBLANK(B34),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v>51</v>
@@ -1417,7 +1430,7 @@
       </c>
       <c r="F34" s="10"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="13">
         <f>IF(ISBLANK(B35),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v>51</v>
@@ -1436,7 +1449,7 @@
       </c>
       <c r="F35" s="10"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="13">
         <f>IF(ISBLANK(B36),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v>51</v>
@@ -1455,7 +1468,7 @@
       </c>
       <c r="F36" s="10"/>
     </row>
-    <row r="37" spans="1:6" ht="31" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A37" s="13">
         <f>IF(ISBLANK(B37),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v>2</v>
@@ -1474,51 +1487,83 @@
       </c>
       <c r="F37" s="10"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A38" s="13" t="str">
+    <row r="38" spans="1:6" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A38" s="13">
         <f>IF(ISBLANK(B38),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
-        <v/>
-      </c>
-      <c r="B38" s="8"/>
-      <c r="C38" s="24"/>
-      <c r="D38" s="21"/>
-      <c r="E38" s="10"/>
+        <v>2</v>
+      </c>
+      <c r="B38" s="8">
+        <v>45667</v>
+      </c>
+      <c r="C38" s="24">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="D38" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="E38" s="20" t="s">
+        <v>53</v>
+      </c>
       <c r="F38" s="10"/>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A39" s="13" t="str">
+    <row r="39" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A39" s="13">
         <f>IF(ISBLANK(B39),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
-        <v/>
-      </c>
-      <c r="B39" s="8"/>
-      <c r="C39" s="24"/>
-      <c r="D39" s="21"/>
-      <c r="E39" s="10"/>
+        <v>2</v>
+      </c>
+      <c r="B39" s="8">
+        <v>45667</v>
+      </c>
+      <c r="C39" s="24">
+        <v>2.4305555555555556E-2</v>
+      </c>
+      <c r="D39" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="E39" s="20" t="s">
+        <v>54</v>
+      </c>
       <c r="F39" s="10"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A40" s="13" t="str">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="13">
         <f>IF(ISBLANK(B40),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
-        <v/>
-      </c>
-      <c r="B40" s="8"/>
-      <c r="C40" s="24"/>
-      <c r="D40" s="21"/>
-      <c r="E40" s="10"/>
+        <v>2</v>
+      </c>
+      <c r="B40" s="8">
+        <v>45667</v>
+      </c>
+      <c r="C40" s="24">
+        <v>3.125E-2</v>
+      </c>
+      <c r="D40" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="E40" s="10" t="s">
+        <v>55</v>
+      </c>
       <c r="F40" s="10"/>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A41" s="13" t="str">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="13">
         <f>IF(ISBLANK(B41),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
-        <v/>
-      </c>
-      <c r="B41" s="8"/>
-      <c r="C41" s="24"/>
-      <c r="D41" s="21"/>
-      <c r="E41" s="10"/>
+        <v>2</v>
+      </c>
+      <c r="B41" s="8">
+        <v>45667</v>
+      </c>
+      <c r="C41" s="24">
+        <v>1.0416666666666666E-2</v>
+      </c>
+      <c r="D41" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="E41" s="10" t="s">
+        <v>56</v>
+      </c>
       <c r="F41" s="10"/>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="13" t="str">
         <f>IF(ISBLANK(B42),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1529,7 +1574,7 @@
       <c r="E42" s="10"/>
       <c r="F42" s="10"/>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="13" t="str">
         <f>IF(ISBLANK(B43),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1540,7 +1585,7 @@
       <c r="E43" s="20"/>
       <c r="F43" s="10"/>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="13" t="str">
         <f>IF(ISBLANK(B44),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1551,7 +1596,7 @@
       <c r="E44" s="10"/>
       <c r="F44" s="10"/>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="13" t="str">
         <f>IF(ISBLANK(B45),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1562,7 +1607,7 @@
       <c r="E45" s="10"/>
       <c r="F45" s="10"/>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="13" t="str">
         <f>IF(ISBLANK(B46),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1573,7 +1618,7 @@
       <c r="E46" s="10"/>
       <c r="F46" s="20"/>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="13" t="str">
         <f>IF(ISBLANK(B47),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1584,7 +1629,7 @@
       <c r="E47" s="10"/>
       <c r="F47" s="10"/>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="13" t="str">
         <f>IF(ISBLANK(B48),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1595,7 +1640,7 @@
       <c r="E48" s="20"/>
       <c r="F48" s="10"/>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="13" t="str">
         <f>IF(ISBLANK(B49),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1606,7 +1651,7 @@
       <c r="E49" s="10"/>
       <c r="F49" s="10"/>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="13" t="str">
         <f>IF(ISBLANK(B50),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1617,7 +1662,7 @@
       <c r="E50" s="10"/>
       <c r="F50" s="10"/>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="13" t="str">
         <f>IF(ISBLANK(B51),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1628,7 +1673,7 @@
       <c r="E51" s="10"/>
       <c r="F51" s="10"/>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="13" t="str">
         <f>IF(ISBLANK(B52),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1639,7 +1684,7 @@
       <c r="E52" s="10"/>
       <c r="F52" s="10"/>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="13" t="str">
         <f>IF(ISBLANK(B53),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1650,7 +1695,7 @@
       <c r="E53" s="10"/>
       <c r="F53" s="10"/>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="13" t="str">
         <f>IF(ISBLANK(B54),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1661,7 +1706,7 @@
       <c r="E54" s="10"/>
       <c r="F54" s="10"/>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="13" t="str">
         <f>IF(ISBLANK(B55),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1672,7 +1717,7 @@
       <c r="E55" s="10"/>
       <c r="F55" s="10"/>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="13" t="str">
         <f>IF(ISBLANK(B56),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1683,7 +1728,7 @@
       <c r="E56" s="10"/>
       <c r="F56" s="10"/>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="13" t="str">
         <f>IF(ISBLANK(B57),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1694,7 +1739,7 @@
       <c r="E57" s="10"/>
       <c r="F57" s="10"/>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="13" t="str">
         <f>IF(ISBLANK(B58),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1705,7 +1750,7 @@
       <c r="E58" s="10"/>
       <c r="F58" s="10"/>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="13" t="str">
         <f>IF(ISBLANK(B59),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1716,7 +1761,7 @@
       <c r="E59" s="10"/>
       <c r="F59" s="10"/>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="13" t="str">
         <f>IF(ISBLANK(B60),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1727,7 +1772,7 @@
       <c r="E60" s="10"/>
       <c r="F60" s="10"/>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="13" t="str">
         <f>IF(ISBLANK(B61),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1738,7 +1783,7 @@
       <c r="E61" s="10"/>
       <c r="F61" s="10"/>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="13" t="str">
         <f>IF(ISBLANK(B62),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1749,7 +1794,7 @@
       <c r="E62" s="10"/>
       <c r="F62" s="10"/>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="13" t="str">
         <f>IF(ISBLANK(B63),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1760,7 +1805,7 @@
       <c r="E63" s="10"/>
       <c r="F63" s="10"/>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="13" t="str">
         <f>IF(ISBLANK(B64),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1771,7 +1816,7 @@
       <c r="E64" s="10"/>
       <c r="F64" s="10"/>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="13" t="str">
         <f>IF(ISBLANK(B65),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1782,7 +1827,7 @@
       <c r="E65" s="10"/>
       <c r="F65" s="10"/>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="13" t="str">
         <f>IF(ISBLANK(B66),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1793,7 +1838,7 @@
       <c r="E66" s="10"/>
       <c r="F66" s="10"/>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="13" t="str">
         <f>IF(ISBLANK(B67),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1804,7 +1849,7 @@
       <c r="E67" s="10"/>
       <c r="F67" s="10"/>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="13" t="str">
         <f>IF(ISBLANK(B68),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1815,7 +1860,7 @@
       <c r="E68" s="10"/>
       <c r="F68" s="10"/>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="13" t="str">
         <f>IF(ISBLANK(B69),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1826,7 +1871,7 @@
       <c r="E69" s="10"/>
       <c r="F69" s="10"/>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="13" t="str">
         <f>IF(ISBLANK(B70),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1837,7 +1882,7 @@
       <c r="E70" s="10"/>
       <c r="F70" s="10"/>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="13" t="str">
         <f>IF(ISBLANK(B71),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1848,7 +1893,7 @@
       <c r="E71" s="10"/>
       <c r="F71" s="10"/>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="13" t="str">
         <f>IF(ISBLANK(B72),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1859,7 +1904,7 @@
       <c r="E72" s="10"/>
       <c r="F72" s="10"/>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="13" t="str">
         <f>IF(ISBLANK(B73),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1870,7 +1915,7 @@
       <c r="E73" s="10"/>
       <c r="F73" s="10"/>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="13" t="str">
         <f>IF(ISBLANK(B74),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1881,7 +1926,7 @@
       <c r="E74" s="10"/>
       <c r="F74" s="10"/>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="13" t="str">
         <f>IF(ISBLANK(B75),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1892,7 +1937,7 @@
       <c r="E75" s="10"/>
       <c r="F75" s="10"/>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="13" t="str">
         <f>IF(ISBLANK(B76),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1903,7 +1948,7 @@
       <c r="E76" s="10"/>
       <c r="F76" s="10"/>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="13" t="str">
         <f>IF(ISBLANK(B77),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1914,7 +1959,7 @@
       <c r="E77" s="10"/>
       <c r="F77" s="10"/>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="13" t="str">
         <f>IF(ISBLANK(B78),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1925,7 +1970,7 @@
       <c r="E78" s="10"/>
       <c r="F78" s="10"/>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="13" t="str">
         <f>IF(ISBLANK(B79),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1936,7 +1981,7 @@
       <c r="E79" s="10"/>
       <c r="F79" s="10"/>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="13" t="str">
         <f>IF(ISBLANK(B80),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1947,7 +1992,7 @@
       <c r="E80" s="10"/>
       <c r="F80" s="10"/>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="13" t="str">
         <f>IF(ISBLANK(B81),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1958,7 +2003,7 @@
       <c r="E81" s="10"/>
       <c r="F81" s="10"/>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="13" t="str">
         <f>IF(ISBLANK(B82),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1969,7 +2014,7 @@
       <c r="E82" s="10"/>
       <c r="F82" s="10"/>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="13" t="str">
         <f>IF(ISBLANK(B83),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1980,7 +2025,7 @@
       <c r="E83" s="10"/>
       <c r="F83" s="10"/>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="13" t="str">
         <f>IF(ISBLANK(B84),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1991,7 +2036,7 @@
       <c r="E84" s="10"/>
       <c r="F84" s="10"/>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="13" t="str">
         <f>IF(ISBLANK(B85),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2002,7 +2047,7 @@
       <c r="E85" s="10"/>
       <c r="F85" s="10"/>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" s="13" t="str">
         <f>IF(ISBLANK(B86),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2013,7 +2058,7 @@
       <c r="E86" s="10"/>
       <c r="F86" s="10"/>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" s="13" t="str">
         <f>IF(ISBLANK(B87),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2024,7 +2069,7 @@
       <c r="E87" s="10"/>
       <c r="F87" s="10"/>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="13" t="str">
         <f>IF(ISBLANK(B88),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2035,7 +2080,7 @@
       <c r="E88" s="10"/>
       <c r="F88" s="10"/>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="13" t="str">
         <f>IF(ISBLANK(B89),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2046,7 +2091,7 @@
       <c r="E89" s="10"/>
       <c r="F89" s="10"/>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="13" t="str">
         <f>IF(ISBLANK(B90),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2057,7 +2102,7 @@
       <c r="E90" s="10"/>
       <c r="F90" s="10"/>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" s="13" t="str">
         <f>IF(ISBLANK(B91),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2068,7 +2113,7 @@
       <c r="E91" s="10"/>
       <c r="F91" s="10"/>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" s="13" t="str">
         <f>IF(ISBLANK(B92),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2079,7 +2124,7 @@
       <c r="E92" s="10"/>
       <c r="F92" s="10"/>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" s="13" t="str">
         <f>IF(ISBLANK(B93),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2090,7 +2135,7 @@
       <c r="E93" s="10"/>
       <c r="F93" s="10"/>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" s="13" t="str">
         <f>IF(ISBLANK(B94),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2101,7 +2146,7 @@
       <c r="E94" s="10"/>
       <c r="F94" s="10"/>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" s="13" t="str">
         <f>IF(ISBLANK(B95),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2112,7 +2157,7 @@
       <c r="E95" s="10"/>
       <c r="F95" s="10"/>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" s="13" t="str">
         <f>IF(ISBLANK(B96),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2123,7 +2168,7 @@
       <c r="E96" s="10"/>
       <c r="F96" s="10"/>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" s="13" t="str">
         <f>IF(ISBLANK(B97),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2134,7 +2179,7 @@
       <c r="E97" s="10"/>
       <c r="F97" s="10"/>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" s="13" t="str">
         <f>IF(ISBLANK(B98),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2145,7 +2190,7 @@
       <c r="E98" s="10"/>
       <c r="F98" s="10"/>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" s="13" t="str">
         <f>IF(ISBLANK(B99),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2156,7 +2201,7 @@
       <c r="E99" s="10"/>
       <c r="F99" s="10"/>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" s="13" t="str">
         <f>IF(ISBLANK(B100),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2167,7 +2212,7 @@
       <c r="E100" s="10"/>
       <c r="F100" s="10"/>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" s="13" t="str">
         <f>IF(ISBLANK(B101),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2178,7 +2223,7 @@
       <c r="E101" s="10"/>
       <c r="F101" s="10"/>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" s="13" t="str">
         <f>IF(ISBLANK(B102),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2189,7 +2234,7 @@
       <c r="E102" s="10"/>
       <c r="F102" s="10"/>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" s="13" t="str">
         <f>IF(ISBLANK(B103),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2200,7 +2245,7 @@
       <c r="E103" s="10"/>
       <c r="F103" s="10"/>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" s="13" t="str">
         <f>IF(ISBLANK(B104),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2211,7 +2256,7 @@
       <c r="E104" s="10"/>
       <c r="F104" s="10"/>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" s="13" t="str">
         <f>IF(ISBLANK(B105),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2222,7 +2267,7 @@
       <c r="E105" s="10"/>
       <c r="F105" s="10"/>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" s="13" t="str">
         <f>IF(ISBLANK(B106),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2233,7 +2278,7 @@
       <c r="E106" s="10"/>
       <c r="F106" s="10"/>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" s="13" t="str">
         <f>IF(ISBLANK(B107),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2244,7 +2289,7 @@
       <c r="E107" s="10"/>
       <c r="F107" s="10"/>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" s="13" t="str">
         <f>IF(ISBLANK(B108),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2255,7 +2300,7 @@
       <c r="E108" s="10"/>
       <c r="F108" s="10"/>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" s="13" t="str">
         <f>IF(ISBLANK(B109),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2266,7 +2311,7 @@
       <c r="E109" s="10"/>
       <c r="F109" s="10"/>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" s="13" t="str">
         <f>IF(ISBLANK(B110),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2277,7 +2322,7 @@
       <c r="E110" s="10"/>
       <c r="F110" s="10"/>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" s="13" t="str">
         <f>IF(ISBLANK(B111),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2288,7 +2333,7 @@
       <c r="E111" s="10"/>
       <c r="F111" s="10"/>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" s="13" t="str">
         <f>IF(ISBLANK(B112),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2299,7 +2344,7 @@
       <c r="E112" s="10"/>
       <c r="F112" s="10"/>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" s="13" t="str">
         <f>IF(ISBLANK(B113),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2310,7 +2355,7 @@
       <c r="E113" s="10"/>
       <c r="F113" s="10"/>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" s="13" t="str">
         <f>IF(ISBLANK(B114),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2321,7 +2366,7 @@
       <c r="E114" s="10"/>
       <c r="F114" s="10"/>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" s="13" t="str">
         <f>IF(ISBLANK(B115),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2332,7 +2377,7 @@
       <c r="E115" s="10"/>
       <c r="F115" s="10"/>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" s="13" t="str">
         <f>IF(ISBLANK(B116),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2343,7 +2388,7 @@
       <c r="E116" s="10"/>
       <c r="F116" s="10"/>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" s="13" t="str">
         <f>IF(ISBLANK(B117),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2354,7 +2399,7 @@
       <c r="E117" s="10"/>
       <c r="F117" s="10"/>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" s="13" t="str">
         <f>IF(ISBLANK(B118),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2365,7 +2410,7 @@
       <c r="E118" s="10"/>
       <c r="F118" s="10"/>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" s="13" t="str">
         <f>IF(ISBLANK(B119),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2376,7 +2421,7 @@
       <c r="E119" s="10"/>
       <c r="F119" s="10"/>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" s="13" t="str">
         <f>IF(ISBLANK(B120),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2387,7 +2432,7 @@
       <c r="E120" s="10"/>
       <c r="F120" s="10"/>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" s="13" t="str">
         <f>IF(ISBLANK(B121),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2398,7 +2443,7 @@
       <c r="E121" s="10"/>
       <c r="F121" s="10"/>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" s="13" t="str">
         <f>IF(ISBLANK(B122),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2409,7 +2454,7 @@
       <c r="E122" s="10"/>
       <c r="F122" s="10"/>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" s="13" t="str">
         <f>IF(ISBLANK(B123),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2420,7 +2465,7 @@
       <c r="E123" s="10"/>
       <c r="F123" s="10"/>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" s="13" t="str">
         <f>IF(ISBLANK(B124),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2431,7 +2476,7 @@
       <c r="E124" s="10"/>
       <c r="F124" s="10"/>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" s="13" t="str">
         <f>IF(ISBLANK(B125),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2442,7 +2487,7 @@
       <c r="E125" s="10"/>
       <c r="F125" s="10"/>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" s="13" t="str">
         <f>IF(ISBLANK(B126),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2453,7 +2498,7 @@
       <c r="E126" s="10"/>
       <c r="F126" s="10"/>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" s="13" t="str">
         <f>IF(ISBLANK(B127),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2464,7 +2509,7 @@
       <c r="E127" s="10"/>
       <c r="F127" s="10"/>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" s="13" t="str">
         <f>IF(ISBLANK(B128),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2475,7 +2520,7 @@
       <c r="E128" s="10"/>
       <c r="F128" s="10"/>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" s="13" t="str">
         <f>IF(ISBLANK(B129),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2486,7 +2531,7 @@
       <c r="E129" s="10"/>
       <c r="F129" s="10"/>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" s="13" t="str">
         <f>IF(ISBLANK(B130),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2497,7 +2542,7 @@
       <c r="E130" s="10"/>
       <c r="F130" s="10"/>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" s="13" t="str">
         <f>IF(ISBLANK(B131),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2508,7 +2553,7 @@
       <c r="E131" s="10"/>
       <c r="F131" s="10"/>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" s="13" t="str">
         <f>IF(ISBLANK(B132),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2519,7 +2564,7 @@
       <c r="E132" s="10"/>
       <c r="F132" s="10"/>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" s="13" t="str">
         <f>IF(ISBLANK(B133),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2530,7 +2575,7 @@
       <c r="E133" s="10"/>
       <c r="F133" s="10"/>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134" s="13" t="str">
         <f>IF(ISBLANK(B134),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2541,7 +2586,7 @@
       <c r="E134" s="10"/>
       <c r="F134" s="10"/>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135" s="13" t="str">
         <f>IF(ISBLANK(B135),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2552,7 +2597,7 @@
       <c r="E135" s="10"/>
       <c r="F135" s="10"/>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136" s="13" t="str">
         <f>IF(ISBLANK(B136),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2563,7 +2608,7 @@
       <c r="E136" s="10"/>
       <c r="F136" s="10"/>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137" s="13" t="str">
         <f>IF(ISBLANK(B137),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2574,7 +2619,7 @@
       <c r="E137" s="10"/>
       <c r="F137" s="10"/>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138" s="13" t="str">
         <f>IF(ISBLANK(B138),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2585,7 +2630,7 @@
       <c r="E138" s="10"/>
       <c r="F138" s="10"/>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139" s="13" t="str">
         <f>IF(ISBLANK(B139),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2596,7 +2641,7 @@
       <c r="E139" s="10"/>
       <c r="F139" s="10"/>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140" s="13" t="str">
         <f>IF(ISBLANK(B140),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2607,7 +2652,7 @@
       <c r="E140" s="10"/>
       <c r="F140" s="10"/>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141" s="13" t="str">
         <f>IF(ISBLANK(B141),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2618,7 +2663,7 @@
       <c r="E141" s="10"/>
       <c r="F141" s="10"/>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142" s="13" t="str">
         <f>IF(ISBLANK(B142),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2629,7 +2674,7 @@
       <c r="E142" s="10"/>
       <c r="F142" s="10"/>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143" s="13" t="str">
         <f>IF(ISBLANK(B143),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2640,7 +2685,7 @@
       <c r="E143" s="10"/>
       <c r="F143" s="10"/>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144" s="13" t="str">
         <f>IF(ISBLANK(B144),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2651,7 +2696,7 @@
       <c r="E144" s="10"/>
       <c r="F144" s="10"/>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145" s="13" t="str">
         <f>IF(ISBLANK(B145),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2662,7 +2707,7 @@
       <c r="E145" s="10"/>
       <c r="F145" s="10"/>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146" s="13" t="str">
         <f>IF(ISBLANK(B146),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2673,7 +2718,7 @@
       <c r="E146" s="10"/>
       <c r="F146" s="10"/>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147" s="13" t="str">
         <f>IF(ISBLANK(B147),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2684,7 +2729,7 @@
       <c r="E147" s="10"/>
       <c r="F147" s="10"/>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148" s="13" t="str">
         <f>IF(ISBLANK(B148),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2695,7 +2740,7 @@
       <c r="E148" s="10"/>
       <c r="F148" s="10"/>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149" s="13" t="str">
         <f>IF(ISBLANK(B149),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2706,7 +2751,7 @@
       <c r="E149" s="10"/>
       <c r="F149" s="10"/>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150" s="13" t="str">
         <f>IF(ISBLANK(B150),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2717,7 +2762,7 @@
       <c r="E150" s="10"/>
       <c r="F150" s="10"/>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151" s="13" t="str">
         <f>IF(ISBLANK(B151),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2728,7 +2773,7 @@
       <c r="E151" s="10"/>
       <c r="F151" s="10"/>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152" s="13" t="str">
         <f>IF(ISBLANK(B152),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2739,7 +2784,7 @@
       <c r="E152" s="10"/>
       <c r="F152" s="10"/>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153" s="13" t="str">
         <f>IF(ISBLANK(B153),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2750,7 +2795,7 @@
       <c r="E153" s="10"/>
       <c r="F153" s="10"/>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154" s="13" t="str">
         <f>IF(ISBLANK(B154),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2761,7 +2806,7 @@
       <c r="E154" s="10"/>
       <c r="F154" s="10"/>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155" s="13" t="str">
         <f>IF(ISBLANK(B155),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2772,7 +2817,7 @@
       <c r="E155" s="10"/>
       <c r="F155" s="10"/>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156" s="13" t="str">
         <f>IF(ISBLANK(B156),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2783,7 +2828,7 @@
       <c r="E156" s="10"/>
       <c r="F156" s="10"/>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A157" s="13" t="str">
         <f>IF(ISBLANK(B157),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2794,7 +2839,7 @@
       <c r="E157" s="10"/>
       <c r="F157" s="10"/>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A158" s="13" t="str">
         <f>IF(ISBLANK(B158),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2805,7 +2850,7 @@
       <c r="E158" s="10"/>
       <c r="F158" s="10"/>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A159" s="13" t="str">
         <f>IF(ISBLANK(B159),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2816,7 +2861,7 @@
       <c r="E159" s="10"/>
       <c r="F159" s="10"/>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A160" s="13" t="str">
         <f>IF(ISBLANK(B160),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2827,7 +2872,7 @@
       <c r="E160" s="10"/>
       <c r="F160" s="10"/>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A161" s="13" t="str">
         <f>IF(ISBLANK(B161),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2838,7 +2883,7 @@
       <c r="E161" s="10"/>
       <c r="F161" s="10"/>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A162" s="13" t="str">
         <f>IF(ISBLANK(B162),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2849,7 +2894,7 @@
       <c r="E162" s="10"/>
       <c r="F162" s="10"/>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A163" s="13" t="str">
         <f>IF(ISBLANK(B163),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2860,7 +2905,7 @@
       <c r="E163" s="10"/>
       <c r="F163" s="10"/>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A164" s="13" t="str">
         <f>IF(ISBLANK(B164),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2871,7 +2916,7 @@
       <c r="E164" s="10"/>
       <c r="F164" s="10"/>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A165" s="13" t="str">
         <f>IF(ISBLANK(B165),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2882,7 +2927,7 @@
       <c r="E165" s="10"/>
       <c r="F165" s="10"/>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A166" s="13" t="str">
         <f>IF(ISBLANK(B166),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2893,7 +2938,7 @@
       <c r="E166" s="10"/>
       <c r="F166" s="10"/>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A167" s="13" t="str">
         <f>IF(ISBLANK(B167),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2904,7 +2949,7 @@
       <c r="E167" s="10"/>
       <c r="F167" s="10"/>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A168" s="13" t="str">
         <f>IF(ISBLANK(B168),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2915,7 +2960,7 @@
       <c r="E168" s="10"/>
       <c r="F168" s="10"/>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A169" s="13" t="str">
         <f>IF(ISBLANK(B169),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2926,7 +2971,7 @@
       <c r="E169" s="10"/>
       <c r="F169" s="10"/>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A170" s="13" t="str">
         <f>IF(ISBLANK(B170),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2937,7 +2982,7 @@
       <c r="E170" s="10"/>
       <c r="F170" s="10"/>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A171" s="13" t="str">
         <f>IF(ISBLANK(B171),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2948,7 +2993,7 @@
       <c r="E171" s="10"/>
       <c r="F171" s="10"/>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A172" s="13" t="str">
         <f>IF(ISBLANK(B172),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2959,7 +3004,7 @@
       <c r="E172" s="10"/>
       <c r="F172" s="10"/>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A173" s="13" t="str">
         <f>IF(ISBLANK(B173),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2970,7 +3015,7 @@
       <c r="E173" s="10"/>
       <c r="F173" s="10"/>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A174" s="13" t="str">
         <f>IF(ISBLANK(B174),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2981,7 +3026,7 @@
       <c r="E174" s="10"/>
       <c r="F174" s="10"/>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A175" s="13" t="str">
         <f>IF(ISBLANK(B175),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2992,7 +3037,7 @@
       <c r="E175" s="10"/>
       <c r="F175" s="10"/>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A176" s="13" t="str">
         <f>IF(ISBLANK(B176),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3003,7 +3048,7 @@
       <c r="E176" s="10"/>
       <c r="F176" s="10"/>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A177" s="13" t="str">
         <f>IF(ISBLANK(B177),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3014,7 +3059,7 @@
       <c r="E177" s="10"/>
       <c r="F177" s="10"/>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A178" s="13" t="str">
         <f>IF(ISBLANK(B178),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3025,7 +3070,7 @@
       <c r="E178" s="10"/>
       <c r="F178" s="10"/>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A179" s="13" t="str">
         <f>IF(ISBLANK(B179),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3036,7 +3081,7 @@
       <c r="E179" s="10"/>
       <c r="F179" s="10"/>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A180" s="13" t="str">
         <f>IF(ISBLANK(B180),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3047,7 +3092,7 @@
       <c r="E180" s="10"/>
       <c r="F180" s="10"/>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A181" s="13" t="str">
         <f>IF(ISBLANK(B181),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3058,7 +3103,7 @@
       <c r="E181" s="10"/>
       <c r="F181" s="10"/>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A182" s="13" t="str">
         <f>IF(ISBLANK(B182),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3069,7 +3114,7 @@
       <c r="E182" s="10"/>
       <c r="F182" s="10"/>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A183" s="13" t="str">
         <f>IF(ISBLANK(B183),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3080,7 +3125,7 @@
       <c r="E183" s="10"/>
       <c r="F183" s="10"/>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A184" s="13" t="str">
         <f>IF(ISBLANK(B184),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3091,7 +3136,7 @@
       <c r="E184" s="10"/>
       <c r="F184" s="10"/>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A185" s="13" t="str">
         <f>IF(ISBLANK(B185),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3102,7 +3147,7 @@
       <c r="E185" s="10"/>
       <c r="F185" s="10"/>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A186" s="13" t="str">
         <f>IF(ISBLANK(B186),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3113,7 +3158,7 @@
       <c r="E186" s="10"/>
       <c r="F186" s="10"/>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A187" s="13" t="str">
         <f>IF(ISBLANK(B187),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3124,7 +3169,7 @@
       <c r="E187" s="10"/>
       <c r="F187" s="10"/>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A188" s="13" t="str">
         <f>IF(ISBLANK(B188),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3135,7 +3180,7 @@
       <c r="E188" s="10"/>
       <c r="F188" s="10"/>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A189" s="13" t="str">
         <f>IF(ISBLANK(B189),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3146,7 +3191,7 @@
       <c r="E189" s="10"/>
       <c r="F189" s="10"/>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A190" s="13" t="str">
         <f>IF(ISBLANK(B190),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3157,7 +3202,7 @@
       <c r="E190" s="10"/>
       <c r="F190" s="10"/>
     </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A191" s="13" t="str">
         <f>IF(ISBLANK(B191),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3168,7 +3213,7 @@
       <c r="E191" s="10"/>
       <c r="F191" s="10"/>
     </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A192" s="13" t="str">
         <f>IF(ISBLANK(B192),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3179,7 +3224,7 @@
       <c r="E192" s="10"/>
       <c r="F192" s="10"/>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A193" s="13" t="str">
         <f>IF(ISBLANK(B193),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3190,7 +3235,7 @@
       <c r="E193" s="10"/>
       <c r="F193" s="10"/>
     </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A194" s="13" t="str">
         <f>IF(ISBLANK(B194),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3201,7 +3246,7 @@
       <c r="E194" s="10"/>
       <c r="F194" s="10"/>
     </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A195" s="13" t="str">
         <f>IF(ISBLANK(B195),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3212,7 +3257,7 @@
       <c r="E195" s="10"/>
       <c r="F195" s="10"/>
     </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A196" s="13" t="str">
         <f>IF(ISBLANK(B196),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3223,7 +3268,7 @@
       <c r="E196" s="10"/>
       <c r="F196" s="10"/>
     </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A197" s="13" t="str">
         <f>IF(ISBLANK(B197),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3234,7 +3279,7 @@
       <c r="E197" s="10"/>
       <c r="F197" s="10"/>
     </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A198" s="13" t="str">
         <f>IF(ISBLANK(B198),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3245,7 +3290,7 @@
       <c r="E198" s="10"/>
       <c r="F198" s="10"/>
     </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A199" s="13" t="str">
         <f>IF(ISBLANK(B199),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3256,7 +3301,7 @@
       <c r="E199" s="10"/>
       <c r="F199" s="10"/>
     </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A200" s="13" t="str">
         <f>IF(ISBLANK(B200),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3267,7 +3312,7 @@
       <c r="E200" s="10"/>
       <c r="F200" s="10"/>
     </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A201" s="13" t="str">
         <f>IF(ISBLANK(B201),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3278,7 +3323,7 @@
       <c r="E201" s="10"/>
       <c r="F201" s="10"/>
     </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A202" s="13" t="str">
         <f>IF(ISBLANK(B202),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3289,7 +3334,7 @@
       <c r="E202" s="10"/>
       <c r="F202" s="10"/>
     </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A203" s="13" t="str">
         <f>IF(ISBLANK(B203),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3300,7 +3345,7 @@
       <c r="E203" s="10"/>
       <c r="F203" s="10"/>
     </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A204" s="13" t="str">
         <f>IF(ISBLANK(B204),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3311,7 +3356,7 @@
       <c r="E204" s="10"/>
       <c r="F204" s="10"/>
     </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A205" s="13" t="str">
         <f>IF(ISBLANK(B205),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3322,7 +3367,7 @@
       <c r="E205" s="10"/>
       <c r="F205" s="10"/>
     </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A206" s="13" t="str">
         <f>IF(ISBLANK(B206),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3333,7 +3378,7 @@
       <c r="E206" s="10"/>
       <c r="F206" s="10"/>
     </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A207" s="13" t="str">
         <f>IF(ISBLANK(B207),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3344,7 +3389,7 @@
       <c r="E207" s="10"/>
       <c r="F207" s="10"/>
     </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A208" s="13" t="str">
         <f>IF(ISBLANK(B208),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3355,7 +3400,7 @@
       <c r="E208" s="10"/>
       <c r="F208" s="10"/>
     </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A209" s="13" t="str">
         <f>IF(ISBLANK(B209),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3366,7 +3411,7 @@
       <c r="E209" s="10"/>
       <c r="F209" s="10"/>
     </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A210" s="13" t="str">
         <f>IF(ISBLANK(B210),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3377,7 +3422,7 @@
       <c r="E210" s="10"/>
       <c r="F210" s="10"/>
     </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A211" s="13" t="str">
         <f>IF(ISBLANK(B211),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3388,7 +3433,7 @@
       <c r="E211" s="10"/>
       <c r="F211" s="10"/>
     </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A212" s="13" t="str">
         <f>IF(ISBLANK(B212),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3399,7 +3444,7 @@
       <c r="E212" s="10"/>
       <c r="F212" s="10"/>
     </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A213" s="13" t="str">
         <f>IF(ISBLANK(B213),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3410,7 +3455,7 @@
       <c r="E213" s="10"/>
       <c r="F213" s="10"/>
     </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A214" s="13" t="str">
         <f>IF(ISBLANK(B214),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3421,7 +3466,7 @@
       <c r="E214" s="10"/>
       <c r="F214" s="10"/>
     </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A215" s="13" t="str">
         <f>IF(ISBLANK(B215),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3432,7 +3477,7 @@
       <c r="E215" s="10"/>
       <c r="F215" s="10"/>
     </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A216" s="13" t="str">
         <f>IF(ISBLANK(B216),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3443,7 +3488,7 @@
       <c r="E216" s="10"/>
       <c r="F216" s="10"/>
     </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A217" s="13" t="str">
         <f>IF(ISBLANK(B217),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3454,7 +3499,7 @@
       <c r="E217" s="10"/>
       <c r="F217" s="10"/>
     </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A218" s="13" t="str">
         <f>IF(ISBLANK(B218),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3465,7 +3510,7 @@
       <c r="E218" s="10"/>
       <c r="F218" s="10"/>
     </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A219" s="13" t="str">
         <f>IF(ISBLANK(B219),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3476,7 +3521,7 @@
       <c r="E219" s="10"/>
       <c r="F219" s="10"/>
     </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A220" s="13" t="str">
         <f>IF(ISBLANK(B220),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3487,7 +3532,7 @@
       <c r="E220" s="10"/>
       <c r="F220" s="10"/>
     </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A221" s="13" t="str">
         <f>IF(ISBLANK(B221),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3498,7 +3543,7 @@
       <c r="E221" s="10"/>
       <c r="F221" s="10"/>
     </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A222" s="13" t="str">
         <f>IF(ISBLANK(B222),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3509,7 +3554,7 @@
       <c r="E222" s="10"/>
       <c r="F222" s="10"/>
     </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A223" s="13" t="str">
         <f>IF(ISBLANK(B223),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3520,7 +3565,7 @@
       <c r="E223" s="10"/>
       <c r="F223" s="10"/>
     </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A224" s="13" t="str">
         <f>IF(ISBLANK(B224),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3531,7 +3576,7 @@
       <c r="E224" s="10"/>
       <c r="F224" s="10"/>
     </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A225" s="13" t="str">
         <f>IF(ISBLANK(B225),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3542,7 +3587,7 @@
       <c r="E225" s="10"/>
       <c r="F225" s="10"/>
     </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A226" s="13" t="str">
         <f>IF(ISBLANK(B226),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3553,7 +3598,7 @@
       <c r="E226" s="10"/>
       <c r="F226" s="10"/>
     </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A227" s="13" t="str">
         <f>IF(ISBLANK(B227),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3564,7 +3609,7 @@
       <c r="E227" s="10"/>
       <c r="F227" s="10"/>
     </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A228" s="13" t="str">
         <f>IF(ISBLANK(B228),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3575,7 +3620,7 @@
       <c r="E228" s="10"/>
       <c r="F228" s="10"/>
     </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A229" s="13" t="str">
         <f>IF(ISBLANK(B229),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3586,7 +3631,7 @@
       <c r="E229" s="10"/>
       <c r="F229" s="10"/>
     </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A230" s="13" t="str">
         <f>IF(ISBLANK(B230),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3597,7 +3642,7 @@
       <c r="E230" s="10"/>
       <c r="F230" s="10"/>
     </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A231" s="13" t="str">
         <f>IF(ISBLANK(B231),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3608,7 +3653,7 @@
       <c r="E231" s="10"/>
       <c r="F231" s="10"/>
     </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A232" s="13" t="str">
         <f>IF(ISBLANK(B232),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3619,7 +3664,7 @@
       <c r="E232" s="10"/>
       <c r="F232" s="10"/>
     </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A233" s="13" t="str">
         <f>IF(ISBLANK(B233),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3630,7 +3675,7 @@
       <c r="E233" s="10"/>
       <c r="F233" s="10"/>
     </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A234" s="13" t="str">
         <f>IF(ISBLANK(B234),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3641,7 +3686,7 @@
       <c r="E234" s="10"/>
       <c r="F234" s="10"/>
     </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A235" s="13" t="str">
         <f>IF(ISBLANK(B235),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3652,7 +3697,7 @@
       <c r="E235" s="10"/>
       <c r="F235" s="10"/>
     </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A236" s="13" t="str">
         <f>IF(ISBLANK(B236),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3663,7 +3708,7 @@
       <c r="E236" s="10"/>
       <c r="F236" s="10"/>
     </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A237" s="13" t="str">
         <f>IF(ISBLANK(B237),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3674,7 +3719,7 @@
       <c r="E237" s="10"/>
       <c r="F237" s="10"/>
     </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A238" s="13" t="str">
         <f>IF(ISBLANK(B238),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3685,7 +3730,7 @@
       <c r="E238" s="10"/>
       <c r="F238" s="10"/>
     </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A239" s="13" t="str">
         <f>IF(ISBLANK(B239),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3696,7 +3741,7 @@
       <c r="E239" s="10"/>
       <c r="F239" s="10"/>
     </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A240" s="13" t="str">
         <f>IF(ISBLANK(B240),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3707,7 +3752,7 @@
       <c r="E240" s="10"/>
       <c r="F240" s="10"/>
     </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A241" s="13" t="str">
         <f>IF(ISBLANK(B241),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3718,7 +3763,7 @@
       <c r="E241" s="10"/>
       <c r="F241" s="10"/>
     </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A242" s="13" t="str">
         <f>IF(ISBLANK(B242),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3729,7 +3774,7 @@
       <c r="E242" s="10"/>
       <c r="F242" s="10"/>
     </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A243" s="13" t="str">
         <f>IF(ISBLANK(B243),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3740,7 +3785,7 @@
       <c r="E243" s="10"/>
       <c r="F243" s="10"/>
     </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A244" s="13" t="str">
         <f>IF(ISBLANK(B244),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3751,7 +3796,7 @@
       <c r="E244" s="10"/>
       <c r="F244" s="10"/>
     </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A245" s="13" t="str">
         <f>IF(ISBLANK(B245),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3762,7 +3807,7 @@
       <c r="E245" s="10"/>
       <c r="F245" s="10"/>
     </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A246" s="13" t="str">
         <f>IF(ISBLANK(B246),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3773,7 +3818,7 @@
       <c r="E246" s="10"/>
       <c r="F246" s="10"/>
     </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A247" s="13" t="str">
         <f>IF(ISBLANK(B247),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3784,7 +3829,7 @@
       <c r="E247" s="10"/>
       <c r="F247" s="10"/>
     </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A248" s="13" t="str">
         <f>IF(ISBLANK(B248),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3795,7 +3840,7 @@
       <c r="E248" s="10"/>
       <c r="F248" s="10"/>
     </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A249" s="13" t="str">
         <f>IF(ISBLANK(B249),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3806,7 +3851,7 @@
       <c r="E249" s="10"/>
       <c r="F249" s="10"/>
     </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A250" s="13" t="str">
         <f>IF(ISBLANK(B250),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3817,7 +3862,7 @@
       <c r="E250" s="10"/>
       <c r="F250" s="10"/>
     </row>
-    <row r="251" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A251" s="13" t="str">
         <f>IF(ISBLANK(B251),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3828,7 +3873,7 @@
       <c r="E251" s="10"/>
       <c r="F251" s="10"/>
     </row>
-    <row r="252" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A252" s="13" t="str">
         <f>IF(ISBLANK(B252),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3839,7 +3884,7 @@
       <c r="E252" s="10"/>
       <c r="F252" s="10"/>
     </row>
-    <row r="253" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A253" s="13" t="str">
         <f>IF(ISBLANK(B253),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3850,7 +3895,7 @@
       <c r="E253" s="10"/>
       <c r="F253" s="10"/>
     </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A254" s="13" t="str">
         <f>IF(ISBLANK(B254),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3861,7 +3906,7 @@
       <c r="E254" s="10"/>
       <c r="F254" s="10"/>
     </row>
-    <row r="255" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A255" s="13" t="str">
         <f>IF(ISBLANK(B255),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3872,7 +3917,7 @@
       <c r="E255" s="10"/>
       <c r="F255" s="10"/>
     </row>
-    <row r="256" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A256" s="13" t="str">
         <f>IF(ISBLANK(B256),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3883,7 +3928,7 @@
       <c r="E256" s="10"/>
       <c r="F256" s="10"/>
     </row>
-    <row r="257" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A257" s="13" t="str">
         <f>IF(ISBLANK(B257),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3894,7 +3939,7 @@
       <c r="E257" s="10"/>
       <c r="F257" s="10"/>
     </row>
-    <row r="258" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A258" s="13" t="str">
         <f>IF(ISBLANK(B258),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3905,7 +3950,7 @@
       <c r="E258" s="10"/>
       <c r="F258" s="10"/>
     </row>
-    <row r="259" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A259" s="13" t="str">
         <f>IF(ISBLANK(B259),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3916,7 +3961,7 @@
       <c r="E259" s="10"/>
       <c r="F259" s="10"/>
     </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A260" s="13" t="str">
         <f>IF(ISBLANK(B260),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3927,7 +3972,7 @@
       <c r="E260" s="10"/>
       <c r="F260" s="10"/>
     </row>
-    <row r="261" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A261" s="13" t="str">
         <f>IF(ISBLANK(B261),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3938,7 +3983,7 @@
       <c r="E261" s="10"/>
       <c r="F261" s="10"/>
     </row>
-    <row r="262" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A262" s="13" t="str">
         <f>IF(ISBLANK(B262),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3949,7 +3994,7 @@
       <c r="E262" s="10"/>
       <c r="F262" s="10"/>
     </row>
-    <row r="263" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A263" s="13" t="str">
         <f>IF(ISBLANK(B263),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3960,7 +4005,7 @@
       <c r="E263" s="10"/>
       <c r="F263" s="10"/>
     </row>
-    <row r="264" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A264" s="13" t="str">
         <f>IF(ISBLANK(B264),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3971,7 +4016,7 @@
       <c r="E264" s="10"/>
       <c r="F264" s="10"/>
     </row>
-    <row r="265" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A265" s="13" t="str">
         <f>IF(ISBLANK(B265),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3982,7 +4027,7 @@
       <c r="E265" s="10"/>
       <c r="F265" s="10"/>
     </row>
-    <row r="266" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A266" s="13" t="str">
         <f>IF(ISBLANK(B266),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3993,7 +4038,7 @@
       <c r="E266" s="10"/>
       <c r="F266" s="10"/>
     </row>
-    <row r="267" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A267" s="13" t="str">
         <f>IF(ISBLANK(B267),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4004,7 +4049,7 @@
       <c r="E267" s="10"/>
       <c r="F267" s="10"/>
     </row>
-    <row r="268" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A268" s="13" t="str">
         <f>IF(ISBLANK(B268),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4015,7 +4060,7 @@
       <c r="E268" s="10"/>
       <c r="F268" s="10"/>
     </row>
-    <row r="269" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A269" s="13" t="str">
         <f>IF(ISBLANK(B269),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4026,7 +4071,7 @@
       <c r="E269" s="10"/>
       <c r="F269" s="10"/>
     </row>
-    <row r="270" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A270" s="13" t="str">
         <f>IF(ISBLANK(B270),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4037,7 +4082,7 @@
       <c r="E270" s="10"/>
       <c r="F270" s="10"/>
     </row>
-    <row r="271" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A271" s="13" t="str">
         <f>IF(ISBLANK(B271),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4048,7 +4093,7 @@
       <c r="E271" s="10"/>
       <c r="F271" s="10"/>
     </row>
-    <row r="272" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A272" s="13" t="str">
         <f>IF(ISBLANK(B272),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4059,7 +4104,7 @@
       <c r="E272" s="10"/>
       <c r="F272" s="10"/>
     </row>
-    <row r="273" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A273" s="13" t="str">
         <f>IF(ISBLANK(B273),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4070,7 +4115,7 @@
       <c r="E273" s="10"/>
       <c r="F273" s="10"/>
     </row>
-    <row r="274" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A274" s="13" t="str">
         <f>IF(ISBLANK(B274),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4081,7 +4126,7 @@
       <c r="E274" s="10"/>
       <c r="F274" s="10"/>
     </row>
-    <row r="275" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A275" s="13" t="str">
         <f>IF(ISBLANK(B275),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4092,7 +4137,7 @@
       <c r="E275" s="10"/>
       <c r="F275" s="10"/>
     </row>
-    <row r="276" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A276" s="13" t="str">
         <f>IF(ISBLANK(B276),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4103,7 +4148,7 @@
       <c r="E276" s="10"/>
       <c r="F276" s="10"/>
     </row>
-    <row r="277" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A277" s="13" t="str">
         <f>IF(ISBLANK(B277),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4114,7 +4159,7 @@
       <c r="E277" s="10"/>
       <c r="F277" s="10"/>
     </row>
-    <row r="278" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A278" s="13" t="str">
         <f>IF(ISBLANK(B278),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4125,7 +4170,7 @@
       <c r="E278" s="10"/>
       <c r="F278" s="10"/>
     </row>
-    <row r="279" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A279" s="13" t="str">
         <f>IF(ISBLANK(B279),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4136,7 +4181,7 @@
       <c r="E279" s="10"/>
       <c r="F279" s="10"/>
     </row>
-    <row r="280" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A280" s="13" t="str">
         <f>IF(ISBLANK(B280),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4147,7 +4192,7 @@
       <c r="E280" s="10"/>
       <c r="F280" s="10"/>
     </row>
-    <row r="281" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A281" s="13" t="str">
         <f>IF(ISBLANK(B281),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4158,7 +4203,7 @@
       <c r="E281" s="10"/>
       <c r="F281" s="10"/>
     </row>
-    <row r="282" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A282" s="13" t="str">
         <f>IF(ISBLANK(B282),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4169,7 +4214,7 @@
       <c r="E282" s="10"/>
       <c r="F282" s="10"/>
     </row>
-    <row r="283" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A283" s="13" t="str">
         <f>IF(ISBLANK(B283),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4180,7 +4225,7 @@
       <c r="E283" s="10"/>
       <c r="F283" s="10"/>
     </row>
-    <row r="284" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A284" s="13" t="str">
         <f>IF(ISBLANK(B284),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4191,7 +4236,7 @@
       <c r="E284" s="10"/>
       <c r="F284" s="10"/>
     </row>
-    <row r="285" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A285" s="13" t="str">
         <f>IF(ISBLANK(B285),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4202,7 +4247,7 @@
       <c r="E285" s="10"/>
       <c r="F285" s="10"/>
     </row>
-    <row r="286" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A286" s="13" t="str">
         <f>IF(ISBLANK(B286),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4213,7 +4258,7 @@
       <c r="E286" s="10"/>
       <c r="F286" s="10"/>
     </row>
-    <row r="287" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A287" s="13" t="str">
         <f>IF(ISBLANK(B287),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4224,7 +4269,7 @@
       <c r="E287" s="10"/>
       <c r="F287" s="10"/>
     </row>
-    <row r="288" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A288" s="13" t="str">
         <f>IF(ISBLANK(B288),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4235,7 +4280,7 @@
       <c r="E288" s="10"/>
       <c r="F288" s="10"/>
     </row>
-    <row r="289" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A289" s="13" t="str">
         <f>IF(ISBLANK(B289),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4246,7 +4291,7 @@
       <c r="E289" s="10"/>
       <c r="F289" s="10"/>
     </row>
-    <row r="290" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A290" s="13" t="str">
         <f>IF(ISBLANK(B290),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4257,7 +4302,7 @@
       <c r="E290" s="10"/>
       <c r="F290" s="10"/>
     </row>
-    <row r="291" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A291" s="13" t="str">
         <f>IF(ISBLANK(B291),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4268,7 +4313,7 @@
       <c r="E291" s="10"/>
       <c r="F291" s="10"/>
     </row>
-    <row r="292" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A292" s="13" t="str">
         <f>IF(ISBLANK(B292),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4279,7 +4324,7 @@
       <c r="E292" s="10"/>
       <c r="F292" s="10"/>
     </row>
-    <row r="293" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A293" s="13" t="str">
         <f>IF(ISBLANK(B293),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4290,7 +4335,7 @@
       <c r="E293" s="10"/>
       <c r="F293" s="10"/>
     </row>
-    <row r="294" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A294" s="13" t="str">
         <f>IF(ISBLANK(B294),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4301,7 +4346,7 @@
       <c r="E294" s="10"/>
       <c r="F294" s="10"/>
     </row>
-    <row r="295" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A295" s="13" t="str">
         <f>IF(ISBLANK(B295),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4312,7 +4357,7 @@
       <c r="E295" s="10"/>
       <c r="F295" s="10"/>
     </row>
-    <row r="296" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A296" s="13" t="str">
         <f>IF(ISBLANK(B296),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4323,7 +4368,7 @@
       <c r="E296" s="10"/>
       <c r="F296" s="10"/>
     </row>
-    <row r="297" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A297" s="13" t="str">
         <f>IF(ISBLANK(B297),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4334,7 +4379,7 @@
       <c r="E297" s="10"/>
       <c r="F297" s="10"/>
     </row>
-    <row r="298" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A298" s="13" t="str">
         <f>IF(ISBLANK(B298),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4345,7 +4390,7 @@
       <c r="E298" s="10"/>
       <c r="F298" s="10"/>
     </row>
-    <row r="299" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A299" s="13" t="str">
         <f>IF(ISBLANK(B299),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4356,7 +4401,7 @@
       <c r="E299" s="10"/>
       <c r="F299" s="10"/>
     </row>
-    <row r="300" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A300" s="13" t="str">
         <f>IF(ISBLANK(B300),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4367,7 +4412,7 @@
       <c r="E300" s="10"/>
       <c r="F300" s="10"/>
     </row>
-    <row r="301" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A301" s="13" t="str">
         <f>IF(ISBLANK(B301),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4378,7 +4423,7 @@
       <c r="E301" s="10"/>
       <c r="F301" s="10"/>
     </row>
-    <row r="302" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A302" s="13" t="str">
         <f>IF(ISBLANK(B302),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4389,7 +4434,7 @@
       <c r="E302" s="10"/>
       <c r="F302" s="10"/>
     </row>
-    <row r="303" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A303" s="13" t="str">
         <f>IF(ISBLANK(B303),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4400,7 +4445,7 @@
       <c r="E303" s="10"/>
       <c r="F303" s="10"/>
     </row>
-    <row r="304" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A304" s="13" t="str">
         <f>IF(ISBLANK(B304),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4411,7 +4456,7 @@
       <c r="E304" s="10"/>
       <c r="F304" s="10"/>
     </row>
-    <row r="305" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A305" s="13" t="str">
         <f>IF(ISBLANK(B305),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4422,7 +4467,7 @@
       <c r="E305" s="10"/>
       <c r="F305" s="10"/>
     </row>
-    <row r="306" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A306" s="13" t="str">
         <f>IF(ISBLANK(B306),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4433,7 +4478,7 @@
       <c r="E306" s="10"/>
       <c r="F306" s="10"/>
     </row>
-    <row r="307" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A307" s="13" t="str">
         <f>IF(ISBLANK(B307),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4444,7 +4489,7 @@
       <c r="E307" s="10"/>
       <c r="F307" s="10"/>
     </row>
-    <row r="308" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A308" s="13" t="str">
         <f>IF(ISBLANK(B308),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4455,7 +4500,7 @@
       <c r="E308" s="10"/>
       <c r="F308" s="10"/>
     </row>
-    <row r="309" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A309" s="13" t="str">
         <f>IF(ISBLANK(B309),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4466,7 +4511,7 @@
       <c r="E309" s="10"/>
       <c r="F309" s="10"/>
     </row>
-    <row r="310" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A310" s="13" t="str">
         <f>IF(ISBLANK(B310),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4477,7 +4522,7 @@
       <c r="E310" s="10"/>
       <c r="F310" s="10"/>
     </row>
-    <row r="311" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A311" s="13" t="str">
         <f>IF(ISBLANK(B311),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4488,7 +4533,7 @@
       <c r="E311" s="10"/>
       <c r="F311" s="10"/>
     </row>
-    <row r="312" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="312" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A312" s="13" t="str">
         <f>IF(ISBLANK(B312),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4499,7 +4544,7 @@
       <c r="E312" s="10"/>
       <c r="F312" s="10"/>
     </row>
-    <row r="313" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="313" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A313" s="13" t="str">
         <f>IF(ISBLANK(B313),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4510,7 +4555,7 @@
       <c r="E313" s="10"/>
       <c r="F313" s="10"/>
     </row>
-    <row r="314" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="314" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A314" s="13" t="str">
         <f>IF(ISBLANK(B314),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4521,7 +4566,7 @@
       <c r="E314" s="10"/>
       <c r="F314" s="10"/>
     </row>
-    <row r="315" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="315" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A315" s="13" t="str">
         <f>IF(ISBLANK(B315),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4532,7 +4577,7 @@
       <c r="E315" s="10"/>
       <c r="F315" s="10"/>
     </row>
-    <row r="316" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="316" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A316" s="13" t="str">
         <f>IF(ISBLANK(B316),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4543,7 +4588,7 @@
       <c r="E316" s="10"/>
       <c r="F316" s="10"/>
     </row>
-    <row r="317" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="317" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A317" s="13" t="str">
         <f>IF(ISBLANK(B317),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4554,7 +4599,7 @@
       <c r="E317" s="10"/>
       <c r="F317" s="10"/>
     </row>
-    <row r="318" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="318" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A318" s="13" t="str">
         <f>IF(ISBLANK(B318),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4565,7 +4610,7 @@
       <c r="E318" s="10"/>
       <c r="F318" s="10"/>
     </row>
-    <row r="319" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="319" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A319" s="13" t="str">
         <f>IF(ISBLANK(B319),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4576,7 +4621,7 @@
       <c r="E319" s="10"/>
       <c r="F319" s="10"/>
     </row>
-    <row r="320" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="320" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A320" s="13" t="str">
         <f>IF(ISBLANK(B320),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4587,7 +4632,7 @@
       <c r="E320" s="10"/>
       <c r="F320" s="10"/>
     </row>
-    <row r="321" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="321" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A321" s="13" t="str">
         <f>IF(ISBLANK(B321),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4598,7 +4643,7 @@
       <c r="E321" s="10"/>
       <c r="F321" s="10"/>
     </row>
-    <row r="322" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="322" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A322" s="13" t="str">
         <f>IF(ISBLANK(B322),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4609,7 +4654,7 @@
       <c r="E322" s="10"/>
       <c r="F322" s="10"/>
     </row>
-    <row r="323" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="323" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A323" s="13" t="str">
         <f>IF(ISBLANK(B323),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4620,7 +4665,7 @@
       <c r="E323" s="10"/>
       <c r="F323" s="10"/>
     </row>
-    <row r="324" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="324" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A324" s="13" t="str">
         <f>IF(ISBLANK(B324),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4631,7 +4676,7 @@
       <c r="E324" s="10"/>
       <c r="F324" s="10"/>
     </row>
-    <row r="325" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="325" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A325" s="13" t="str">
         <f>IF(ISBLANK(B325),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4642,7 +4687,7 @@
       <c r="E325" s="10"/>
       <c r="F325" s="10"/>
     </row>
-    <row r="326" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="326" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A326" s="13" t="str">
         <f>IF(ISBLANK(B326),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4653,7 +4698,7 @@
       <c r="E326" s="10"/>
       <c r="F326" s="10"/>
     </row>
-    <row r="327" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="327" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A327" s="13" t="str">
         <f>IF(ISBLANK(B327),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4664,7 +4709,7 @@
       <c r="E327" s="10"/>
       <c r="F327" s="10"/>
     </row>
-    <row r="328" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="328" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A328" s="13" t="str">
         <f>IF(ISBLANK(B328),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4675,7 +4720,7 @@
       <c r="E328" s="10"/>
       <c r="F328" s="10"/>
     </row>
-    <row r="329" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="329" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A329" s="13" t="str">
         <f>IF(ISBLANK(B329),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4686,7 +4731,7 @@
       <c r="E329" s="10"/>
       <c r="F329" s="10"/>
     </row>
-    <row r="330" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="330" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A330" s="13" t="str">
         <f>IF(ISBLANK(B330),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4697,7 +4742,7 @@
       <c r="E330" s="10"/>
       <c r="F330" s="10"/>
     </row>
-    <row r="331" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="331" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A331" s="13" t="str">
         <f>IF(ISBLANK(B331),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4708,7 +4753,7 @@
       <c r="E331" s="10"/>
       <c r="F331" s="10"/>
     </row>
-    <row r="332" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="332" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A332" s="13" t="str">
         <f>IF(ISBLANK(B332),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4719,7 +4764,7 @@
       <c r="E332" s="10"/>
       <c r="F332" s="10"/>
     </row>
-    <row r="333" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="333" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A333" s="13" t="str">
         <f>IF(ISBLANK(B333),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4730,7 +4775,7 @@
       <c r="E333" s="10"/>
       <c r="F333" s="10"/>
     </row>
-    <row r="334" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="334" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A334" s="13" t="str">
         <f>IF(ISBLANK(B334),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4741,7 +4786,7 @@
       <c r="E334" s="10"/>
       <c r="F334" s="10"/>
     </row>
-    <row r="335" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="335" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A335" s="13" t="str">
         <f>IF(ISBLANK(B335),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4752,7 +4797,7 @@
       <c r="E335" s="10"/>
       <c r="F335" s="10"/>
     </row>
-    <row r="336" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="336" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A336" s="13" t="str">
         <f>IF(ISBLANK(B336),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4763,7 +4808,7 @@
       <c r="E336" s="10"/>
       <c r="F336" s="10"/>
     </row>
-    <row r="337" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="337" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A337" s="13" t="str">
         <f>IF(ISBLANK(B337),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4774,7 +4819,7 @@
       <c r="E337" s="10"/>
       <c r="F337" s="10"/>
     </row>
-    <row r="338" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="338" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A338" s="13" t="str">
         <f>IF(ISBLANK(B338),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4785,7 +4830,7 @@
       <c r="E338" s="10"/>
       <c r="F338" s="10"/>
     </row>
-    <row r="339" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="339" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A339" s="13" t="str">
         <f>IF(ISBLANK(B339),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4796,7 +4841,7 @@
       <c r="E339" s="10"/>
       <c r="F339" s="10"/>
     </row>
-    <row r="340" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="340" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A340" s="13" t="str">
         <f>IF(ISBLANK(B340),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4807,7 +4852,7 @@
       <c r="E340" s="10"/>
       <c r="F340" s="10"/>
     </row>
-    <row r="341" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="341" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A341" s="13" t="str">
         <f>IF(ISBLANK(B341),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4818,7 +4863,7 @@
       <c r="E341" s="10"/>
       <c r="F341" s="10"/>
     </row>
-    <row r="342" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="342" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A342" s="13" t="str">
         <f>IF(ISBLANK(B342),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4829,7 +4874,7 @@
       <c r="E342" s="10"/>
       <c r="F342" s="10"/>
     </row>
-    <row r="343" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="343" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A343" s="13" t="str">
         <f>IF(ISBLANK(B343),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4840,7 +4885,7 @@
       <c r="E343" s="10"/>
       <c r="F343" s="10"/>
     </row>
-    <row r="344" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="344" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A344" s="13" t="str">
         <f>IF(ISBLANK(B344),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4851,7 +4896,7 @@
       <c r="E344" s="10"/>
       <c r="F344" s="10"/>
     </row>
-    <row r="345" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="345" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A345" s="13" t="str">
         <f>IF(ISBLANK(B345),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4862,7 +4907,7 @@
       <c r="E345" s="10"/>
       <c r="F345" s="10"/>
     </row>
-    <row r="346" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="346" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A346" s="13" t="str">
         <f>IF(ISBLANK(B346),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4873,7 +4918,7 @@
       <c r="E346" s="10"/>
       <c r="F346" s="10"/>
     </row>
-    <row r="347" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="347" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A347" s="13" t="str">
         <f>IF(ISBLANK(B347),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4884,7 +4929,7 @@
       <c r="E347" s="10"/>
       <c r="F347" s="10"/>
     </row>
-    <row r="348" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="348" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A348" s="13" t="str">
         <f>IF(ISBLANK(B348),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4895,7 +4940,7 @@
       <c r="E348" s="10"/>
       <c r="F348" s="10"/>
     </row>
-    <row r="349" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="349" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A349" s="13" t="str">
         <f>IF(ISBLANK(B349),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4906,7 +4951,7 @@
       <c r="E349" s="10"/>
       <c r="F349" s="10"/>
     </row>
-    <row r="350" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="350" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A350" s="13" t="str">
         <f>IF(ISBLANK(B350),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4917,7 +4962,7 @@
       <c r="E350" s="10"/>
       <c r="F350" s="10"/>
     </row>
-    <row r="351" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="351" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A351" s="13" t="str">
         <f>IF(ISBLANK(B351),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4928,7 +4973,7 @@
       <c r="E351" s="10"/>
       <c r="F351" s="10"/>
     </row>
-    <row r="352" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="352" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A352" s="13" t="str">
         <f>IF(ISBLANK(B352),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4939,7 +4984,7 @@
       <c r="E352" s="10"/>
       <c r="F352" s="10"/>
     </row>
-    <row r="353" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="353" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A353" s="13" t="str">
         <f>IF(ISBLANK(B353),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4950,7 +4995,7 @@
       <c r="E353" s="10"/>
       <c r="F353" s="10"/>
     </row>
-    <row r="354" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="354" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A354" s="13" t="str">
         <f>IF(ISBLANK(B354),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4961,7 +5006,7 @@
       <c r="E354" s="10"/>
       <c r="F354" s="10"/>
     </row>
-    <row r="355" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="355" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A355" s="13" t="str">
         <f>IF(ISBLANK(B355),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4972,7 +5017,7 @@
       <c r="E355" s="10"/>
       <c r="F355" s="10"/>
     </row>
-    <row r="356" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="356" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A356" s="13" t="str">
         <f>IF(ISBLANK(B356),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4983,7 +5028,7 @@
       <c r="E356" s="10"/>
       <c r="F356" s="10"/>
     </row>
-    <row r="357" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="357" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A357" s="13" t="str">
         <f>IF(ISBLANK(B357),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4994,7 +5039,7 @@
       <c r="E357" s="10"/>
       <c r="F357" s="10"/>
     </row>
-    <row r="358" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="358" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A358" s="13" t="str">
         <f>IF(ISBLANK(B358),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5005,7 +5050,7 @@
       <c r="E358" s="10"/>
       <c r="F358" s="10"/>
     </row>
-    <row r="359" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="359" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A359" s="13" t="str">
         <f>IF(ISBLANK(B359),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5016,7 +5061,7 @@
       <c r="E359" s="10"/>
       <c r="F359" s="10"/>
     </row>
-    <row r="360" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="360" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A360" s="13" t="str">
         <f>IF(ISBLANK(B360),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5027,7 +5072,7 @@
       <c r="E360" s="10"/>
       <c r="F360" s="10"/>
     </row>
-    <row r="361" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="361" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A361" s="13" t="str">
         <f>IF(ISBLANK(B361),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5038,7 +5083,7 @@
       <c r="E361" s="10"/>
       <c r="F361" s="10"/>
     </row>
-    <row r="362" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="362" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A362" s="13" t="str">
         <f>IF(ISBLANK(B362),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5049,7 +5094,7 @@
       <c r="E362" s="10"/>
       <c r="F362" s="10"/>
     </row>
-    <row r="363" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="363" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A363" s="13" t="str">
         <f>IF(ISBLANK(B363),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5060,7 +5105,7 @@
       <c r="E363" s="10"/>
       <c r="F363" s="10"/>
     </row>
-    <row r="364" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="364" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A364" s="13" t="str">
         <f>IF(ISBLANK(B364),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5071,7 +5116,7 @@
       <c r="E364" s="10"/>
       <c r="F364" s="10"/>
     </row>
-    <row r="365" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="365" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A365" s="13" t="str">
         <f>IF(ISBLANK(B365),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5082,7 +5127,7 @@
       <c r="E365" s="10"/>
       <c r="F365" s="10"/>
     </row>
-    <row r="366" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="366" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A366" s="13" t="str">
         <f>IF(ISBLANK(B366),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5093,7 +5138,7 @@
       <c r="E366" s="10"/>
       <c r="F366" s="10"/>
     </row>
-    <row r="367" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="367" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A367" s="13" t="str">
         <f>IF(ISBLANK(B367),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5104,7 +5149,7 @@
       <c r="E367" s="10"/>
       <c r="F367" s="10"/>
     </row>
-    <row r="368" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="368" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A368" s="13" t="str">
         <f>IF(ISBLANK(B368),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5115,7 +5160,7 @@
       <c r="E368" s="10"/>
       <c r="F368" s="10"/>
     </row>
-    <row r="369" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="369" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A369" s="13" t="str">
         <f>IF(ISBLANK(B369),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5126,7 +5171,7 @@
       <c r="E369" s="10"/>
       <c r="F369" s="10"/>
     </row>
-    <row r="370" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="370" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A370" s="13" t="str">
         <f>IF(ISBLANK(B370),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5137,7 +5182,7 @@
       <c r="E370" s="10"/>
       <c r="F370" s="10"/>
     </row>
-    <row r="371" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="371" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A371" s="13" t="str">
         <f>IF(ISBLANK(B371),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5148,7 +5193,7 @@
       <c r="E371" s="10"/>
       <c r="F371" s="10"/>
     </row>
-    <row r="372" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="372" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A372" s="13" t="str">
         <f>IF(ISBLANK(B372),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5159,7 +5204,7 @@
       <c r="E372" s="10"/>
       <c r="F372" s="10"/>
     </row>
-    <row r="373" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="373" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A373" s="13" t="str">
         <f>IF(ISBLANK(B373),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5170,7 +5215,7 @@
       <c r="E373" s="10"/>
       <c r="F373" s="10"/>
     </row>
-    <row r="374" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="374" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A374" s="13" t="str">
         <f>IF(ISBLANK(B374),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5181,7 +5226,7 @@
       <c r="E374" s="10"/>
       <c r="F374" s="10"/>
     </row>
-    <row r="375" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="375" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A375" s="13" t="str">
         <f>IF(ISBLANK(B375),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5192,7 +5237,7 @@
       <c r="E375" s="10"/>
       <c r="F375" s="10"/>
     </row>
-    <row r="376" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="376" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A376" s="13" t="str">
         <f>IF(ISBLANK(B376),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5203,7 +5248,7 @@
       <c r="E376" s="10"/>
       <c r="F376" s="10"/>
     </row>
-    <row r="377" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="377" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A377" s="13" t="str">
         <f>IF(ISBLANK(B377),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5214,7 +5259,7 @@
       <c r="E377" s="10"/>
       <c r="F377" s="10"/>
     </row>
-    <row r="378" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="378" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A378" s="13" t="str">
         <f>IF(ISBLANK(B378),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5225,7 +5270,7 @@
       <c r="E378" s="10"/>
       <c r="F378" s="10"/>
     </row>
-    <row r="379" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="379" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A379" s="13" t="str">
         <f>IF(ISBLANK(B379),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5236,7 +5281,7 @@
       <c r="E379" s="10"/>
       <c r="F379" s="10"/>
     </row>
-    <row r="380" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="380" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A380" s="13" t="str">
         <f>IF(ISBLANK(B380),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5247,7 +5292,7 @@
       <c r="E380" s="10"/>
       <c r="F380" s="10"/>
     </row>
-    <row r="381" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="381" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A381" s="13" t="str">
         <f>IF(ISBLANK(B381),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5258,7 +5303,7 @@
       <c r="E381" s="10"/>
       <c r="F381" s="10"/>
     </row>
-    <row r="382" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="382" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A382" s="13" t="str">
         <f>IF(ISBLANK(B382),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5269,7 +5314,7 @@
       <c r="E382" s="10"/>
       <c r="F382" s="10"/>
     </row>
-    <row r="383" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="383" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A383" s="13" t="str">
         <f>IF(ISBLANK(B383),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5280,7 +5325,7 @@
       <c r="E383" s="10"/>
       <c r="F383" s="10"/>
     </row>
-    <row r="384" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="384" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A384" s="13" t="str">
         <f>IF(ISBLANK(B384),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5291,7 +5336,7 @@
       <c r="E384" s="10"/>
       <c r="F384" s="10"/>
     </row>
-    <row r="385" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="385" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A385" s="13" t="str">
         <f>IF(ISBLANK(B385),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5302,7 +5347,7 @@
       <c r="E385" s="10"/>
       <c r="F385" s="10"/>
     </row>
-    <row r="386" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="386" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A386" s="13" t="str">
         <f>IF(ISBLANK(B386),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5313,7 +5358,7 @@
       <c r="E386" s="10"/>
       <c r="F386" s="10"/>
     </row>
-    <row r="387" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="387" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A387" s="13" t="str">
         <f>IF(ISBLANK(B387),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5324,7 +5369,7 @@
       <c r="E387" s="10"/>
       <c r="F387" s="10"/>
     </row>
-    <row r="388" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="388" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A388" s="13" t="str">
         <f>IF(ISBLANK(B388),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5335,7 +5380,7 @@
       <c r="E388" s="10"/>
       <c r="F388" s="10"/>
     </row>
-    <row r="389" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="389" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A389" s="13" t="str">
         <f>IF(ISBLANK(B389),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5346,7 +5391,7 @@
       <c r="E389" s="10"/>
       <c r="F389" s="10"/>
     </row>
-    <row r="390" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="390" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A390" s="13" t="str">
         <f>IF(ISBLANK(B390),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5357,7 +5402,7 @@
       <c r="E390" s="10"/>
       <c r="F390" s="10"/>
     </row>
-    <row r="391" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="391" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A391" s="13" t="str">
         <f>IF(ISBLANK(B391),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5368,7 +5413,7 @@
       <c r="E391" s="10"/>
       <c r="F391" s="10"/>
     </row>
-    <row r="392" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="392" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A392" s="13" t="str">
         <f>IF(ISBLANK(B392),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5379,7 +5424,7 @@
       <c r="E392" s="10"/>
       <c r="F392" s="10"/>
     </row>
-    <row r="393" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="393" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A393" s="13" t="str">
         <f>IF(ISBLANK(B393),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5390,7 +5435,7 @@
       <c r="E393" s="10"/>
       <c r="F393" s="10"/>
     </row>
-    <row r="394" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="394" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A394" s="13" t="str">
         <f>IF(ISBLANK(B394),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5401,7 +5446,7 @@
       <c r="E394" s="10"/>
       <c r="F394" s="10"/>
     </row>
-    <row r="395" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="395" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A395" s="13" t="str">
         <f>IF(ISBLANK(B395),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5412,7 +5457,7 @@
       <c r="E395" s="10"/>
       <c r="F395" s="10"/>
     </row>
-    <row r="396" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="396" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A396" s="13" t="str">
         <f>IF(ISBLANK(B396),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5423,7 +5468,7 @@
       <c r="E396" s="10"/>
       <c r="F396" s="10"/>
     </row>
-    <row r="397" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="397" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A397" s="13" t="str">
         <f>IF(ISBLANK(B397),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5434,7 +5479,7 @@
       <c r="E397" s="10"/>
       <c r="F397" s="10"/>
     </row>
-    <row r="398" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="398" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A398" s="13" t="str">
         <f>IF(ISBLANK(B398),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5445,7 +5490,7 @@
       <c r="E398" s="10"/>
       <c r="F398" s="10"/>
     </row>
-    <row r="399" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="399" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A399" s="13" t="str">
         <f>IF(ISBLANK(B399),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5456,7 +5501,7 @@
       <c r="E399" s="10"/>
       <c r="F399" s="10"/>
     </row>
-    <row r="400" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="400" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A400" s="13" t="str">
         <f>IF(ISBLANK(B400),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5467,7 +5512,7 @@
       <c r="E400" s="10"/>
       <c r="F400" s="10"/>
     </row>
-    <row r="401" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="401" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A401" s="13" t="str">
         <f>IF(ISBLANK(B401),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5478,7 +5523,7 @@
       <c r="E401" s="10"/>
       <c r="F401" s="10"/>
     </row>
-    <row r="402" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="402" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A402" s="13" t="str">
         <f>IF(ISBLANK(B402),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5489,7 +5534,7 @@
       <c r="E402" s="10"/>
       <c r="F402" s="10"/>
     </row>
-    <row r="403" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="403" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A403" s="13" t="str">
         <f>IF(ISBLANK(B403),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5500,7 +5545,7 @@
       <c r="E403" s="10"/>
       <c r="F403" s="10"/>
     </row>
-    <row r="404" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="404" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A404" s="13" t="str">
         <f>IF(ISBLANK(B404),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5511,7 +5556,7 @@
       <c r="E404" s="10"/>
       <c r="F404" s="10"/>
     </row>
-    <row r="405" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="405" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A405" s="13" t="str">
         <f>IF(ISBLANK(B405),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5522,7 +5567,7 @@
       <c r="E405" s="10"/>
       <c r="F405" s="10"/>
     </row>
-    <row r="406" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="406" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A406" s="13" t="str">
         <f>IF(ISBLANK(B406),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5533,7 +5578,7 @@
       <c r="E406" s="10"/>
       <c r="F406" s="10"/>
     </row>
-    <row r="407" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="407" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A407" s="13" t="str">
         <f>IF(ISBLANK(B407),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5544,7 +5589,7 @@
       <c r="E407" s="10"/>
       <c r="F407" s="10"/>
     </row>
-    <row r="408" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="408" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A408" s="13" t="str">
         <f>IF(ISBLANK(B408),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5555,7 +5600,7 @@
       <c r="E408" s="10"/>
       <c r="F408" s="10"/>
     </row>
-    <row r="409" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="409" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A409" s="13" t="str">
         <f>IF(ISBLANK(B409),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5566,7 +5611,7 @@
       <c r="E409" s="10"/>
       <c r="F409" s="10"/>
     </row>
-    <row r="410" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="410" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A410" s="13" t="str">
         <f>IF(ISBLANK(B410),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5577,7 +5622,7 @@
       <c r="E410" s="10"/>
       <c r="F410" s="10"/>
     </row>
-    <row r="411" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="411" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A411" s="13" t="str">
         <f>IF(ISBLANK(B411),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5588,7 +5633,7 @@
       <c r="E411" s="10"/>
       <c r="F411" s="10"/>
     </row>
-    <row r="412" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="412" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A412" s="13" t="str">
         <f>IF(ISBLANK(B412),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5599,7 +5644,7 @@
       <c r="E412" s="10"/>
       <c r="F412" s="10"/>
     </row>
-    <row r="413" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="413" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A413" s="13" t="str">
         <f>IF(ISBLANK(B413),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5610,7 +5655,7 @@
       <c r="E413" s="10"/>
       <c r="F413" s="10"/>
     </row>
-    <row r="414" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="414" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A414" s="13" t="str">
         <f>IF(ISBLANK(B414),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5621,7 +5666,7 @@
       <c r="E414" s="10"/>
       <c r="F414" s="10"/>
     </row>
-    <row r="415" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="415" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A415" s="13" t="str">
         <f>IF(ISBLANK(B415),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5632,7 +5677,7 @@
       <c r="E415" s="10"/>
       <c r="F415" s="10"/>
     </row>
-    <row r="416" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="416" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A416" s="13" t="str">
         <f>IF(ISBLANK(B416),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5643,7 +5688,7 @@
       <c r="E416" s="10"/>
       <c r="F416" s="10"/>
     </row>
-    <row r="417" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="417" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A417" s="13" t="str">
         <f>IF(ISBLANK(B417),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5654,7 +5699,7 @@
       <c r="E417" s="10"/>
       <c r="F417" s="10"/>
     </row>
-    <row r="418" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="418" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A418" s="13" t="str">
         <f>IF(ISBLANK(B418),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5665,7 +5710,7 @@
       <c r="E418" s="10"/>
       <c r="F418" s="10"/>
     </row>
-    <row r="419" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="419" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A419" s="13" t="str">
         <f>IF(ISBLANK(B419),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5676,7 +5721,7 @@
       <c r="E419" s="10"/>
       <c r="F419" s="10"/>
     </row>
-    <row r="420" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="420" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A420" s="13" t="str">
         <f>IF(ISBLANK(B420),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5687,7 +5732,7 @@
       <c r="E420" s="10"/>
       <c r="F420" s="10"/>
     </row>
-    <row r="421" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="421" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A421" s="13" t="str">
         <f>IF(ISBLANK(B421),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5698,7 +5743,7 @@
       <c r="E421" s="10"/>
       <c r="F421" s="10"/>
     </row>
-    <row r="422" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="422" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A422" s="13" t="str">
         <f>IF(ISBLANK(B422),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5709,7 +5754,7 @@
       <c r="E422" s="10"/>
       <c r="F422" s="10"/>
     </row>
-    <row r="423" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="423" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A423" s="13" t="str">
         <f>IF(ISBLANK(B423),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5720,7 +5765,7 @@
       <c r="E423" s="10"/>
       <c r="F423" s="10"/>
     </row>
-    <row r="424" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="424" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A424" s="13" t="str">
         <f>IF(ISBLANK(B424),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5731,7 +5776,7 @@
       <c r="E424" s="10"/>
       <c r="F424" s="10"/>
     </row>
-    <row r="425" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="425" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A425" s="13" t="str">
         <f>IF(ISBLANK(B425),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5742,7 +5787,7 @@
       <c r="E425" s="10"/>
       <c r="F425" s="10"/>
     </row>
-    <row r="426" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="426" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A426" s="13" t="str">
         <f>IF(ISBLANK(B426),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5753,7 +5798,7 @@
       <c r="E426" s="10"/>
       <c r="F426" s="10"/>
     </row>
-    <row r="427" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="427" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A427" s="13" t="str">
         <f>IF(ISBLANK(B427),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5764,7 +5809,7 @@
       <c r="E427" s="10"/>
       <c r="F427" s="10"/>
     </row>
-    <row r="428" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="428" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A428" s="13" t="str">
         <f>IF(ISBLANK(B428),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5775,7 +5820,7 @@
       <c r="E428" s="10"/>
       <c r="F428" s="10"/>
     </row>
-    <row r="429" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="429" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A429" s="13" t="str">
         <f>IF(ISBLANK(B429),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5786,7 +5831,7 @@
       <c r="E429" s="10"/>
       <c r="F429" s="10"/>
     </row>
-    <row r="430" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="430" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A430" s="13" t="str">
         <f>IF(ISBLANK(B430),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5797,7 +5842,7 @@
       <c r="E430" s="10"/>
       <c r="F430" s="10"/>
     </row>
-    <row r="431" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="431" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A431" s="13" t="str">
         <f>IF(ISBLANK(B431),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5808,7 +5853,7 @@
       <c r="E431" s="10"/>
       <c r="F431" s="10"/>
     </row>
-    <row r="432" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="432" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A432" s="13" t="str">
         <f>IF(ISBLANK(B432),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5819,7 +5864,7 @@
       <c r="E432" s="10"/>
       <c r="F432" s="10"/>
     </row>
-    <row r="433" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="433" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A433" s="13" t="str">
         <f>IF(ISBLANK(B433),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5830,7 +5875,7 @@
       <c r="E433" s="10"/>
       <c r="F433" s="10"/>
     </row>
-    <row r="434" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="434" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A434" s="13" t="str">
         <f>IF(ISBLANK(B434),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5841,7 +5886,7 @@
       <c r="E434" s="10"/>
       <c r="F434" s="10"/>
     </row>
-    <row r="435" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="435" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A435" s="13" t="str">
         <f>IF(ISBLANK(B435),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5852,7 +5897,7 @@
       <c r="E435" s="10"/>
       <c r="F435" s="10"/>
     </row>
-    <row r="436" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="436" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A436" s="13" t="str">
         <f>IF(ISBLANK(B436),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5863,7 +5908,7 @@
       <c r="E436" s="10"/>
       <c r="F436" s="10"/>
     </row>
-    <row r="437" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="437" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A437" s="13" t="str">
         <f>IF(ISBLANK(B437),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5874,7 +5919,7 @@
       <c r="E437" s="10"/>
       <c r="F437" s="10"/>
     </row>
-    <row r="438" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="438" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A438" s="13" t="str">
         <f>IF(ISBLANK(B438),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5885,7 +5930,7 @@
       <c r="E438" s="10"/>
       <c r="F438" s="10"/>
     </row>
-    <row r="439" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="439" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A439" s="13" t="str">
         <f>IF(ISBLANK(B439),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5896,7 +5941,7 @@
       <c r="E439" s="10"/>
       <c r="F439" s="10"/>
     </row>
-    <row r="440" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="440" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A440" s="13" t="str">
         <f>IF(ISBLANK(B440),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5907,7 +5952,7 @@
       <c r="E440" s="10"/>
       <c r="F440" s="10"/>
     </row>
-    <row r="441" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="441" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A441" s="13" t="str">
         <f>IF(ISBLANK(B441),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5918,7 +5963,7 @@
       <c r="E441" s="10"/>
       <c r="F441" s="10"/>
     </row>
-    <row r="442" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="442" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A442" s="13" t="str">
         <f>IF(ISBLANK(B442),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5929,7 +5974,7 @@
       <c r="E442" s="10"/>
       <c r="F442" s="10"/>
     </row>
-    <row r="443" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="443" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A443" s="13" t="str">
         <f>IF(ISBLANK(B443),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5940,7 +5985,7 @@
       <c r="E443" s="10"/>
       <c r="F443" s="10"/>
     </row>
-    <row r="444" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="444" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A444" s="13" t="str">
         <f>IF(ISBLANK(B444),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5951,7 +5996,7 @@
       <c r="E444" s="10"/>
       <c r="F444" s="10"/>
     </row>
-    <row r="445" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="445" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A445" s="13" t="str">
         <f>IF(ISBLANK(B445),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5962,7 +6007,7 @@
       <c r="E445" s="10"/>
       <c r="F445" s="10"/>
     </row>
-    <row r="446" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="446" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A446" s="13" t="str">
         <f>IF(ISBLANK(B446),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5973,7 +6018,7 @@
       <c r="E446" s="10"/>
       <c r="F446" s="10"/>
     </row>
-    <row r="447" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="447" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A447" s="13" t="str">
         <f>IF(ISBLANK(B447),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5984,7 +6029,7 @@
       <c r="E447" s="10"/>
       <c r="F447" s="10"/>
     </row>
-    <row r="448" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="448" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A448" s="13" t="str">
         <f>IF(ISBLANK(B448),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5995,7 +6040,7 @@
       <c r="E448" s="10"/>
       <c r="F448" s="10"/>
     </row>
-    <row r="449" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="449" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A449" s="13" t="str">
         <f>IF(ISBLANK(B449),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6006,7 +6051,7 @@
       <c r="E449" s="10"/>
       <c r="F449" s="10"/>
     </row>
-    <row r="450" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="450" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A450" s="13" t="str">
         <f>IF(ISBLANK(B450),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6017,7 +6062,7 @@
       <c r="E450" s="10"/>
       <c r="F450" s="10"/>
     </row>
-    <row r="451" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="451" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A451" s="13" t="str">
         <f>IF(ISBLANK(B451),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6028,7 +6073,7 @@
       <c r="E451" s="10"/>
       <c r="F451" s="10"/>
     </row>
-    <row r="452" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="452" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A452" s="13" t="str">
         <f>IF(ISBLANK(B452),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6039,7 +6084,7 @@
       <c r="E452" s="10"/>
       <c r="F452" s="10"/>
     </row>
-    <row r="453" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="453" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A453" s="13" t="str">
         <f>IF(ISBLANK(B453),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6050,7 +6095,7 @@
       <c r="E453" s="10"/>
       <c r="F453" s="10"/>
     </row>
-    <row r="454" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="454" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A454" s="13" t="str">
         <f>IF(ISBLANK(B454),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6061,7 +6106,7 @@
       <c r="E454" s="10"/>
       <c r="F454" s="10"/>
     </row>
-    <row r="455" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="455" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A455" s="13" t="str">
         <f>IF(ISBLANK(B455),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6072,7 +6117,7 @@
       <c r="E455" s="10"/>
       <c r="F455" s="10"/>
     </row>
-    <row r="456" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="456" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A456" s="13" t="str">
         <f>IF(ISBLANK(B456),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6083,7 +6128,7 @@
       <c r="E456" s="10"/>
       <c r="F456" s="10"/>
     </row>
-    <row r="457" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="457" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A457" s="13" t="str">
         <f>IF(ISBLANK(B457),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6094,7 +6139,7 @@
       <c r="E457" s="10"/>
       <c r="F457" s="10"/>
     </row>
-    <row r="458" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="458" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A458" s="13" t="str">
         <f>IF(ISBLANK(B458),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6105,7 +6150,7 @@
       <c r="E458" s="10"/>
       <c r="F458" s="10"/>
     </row>
-    <row r="459" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="459" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A459" s="13" t="str">
         <f>IF(ISBLANK(B459),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6116,7 +6161,7 @@
       <c r="E459" s="10"/>
       <c r="F459" s="10"/>
     </row>
-    <row r="460" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="460" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A460" s="13" t="str">
         <f>IF(ISBLANK(B460),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6127,7 +6172,7 @@
       <c r="E460" s="10"/>
       <c r="F460" s="10"/>
     </row>
-    <row r="461" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="461" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A461" s="13" t="str">
         <f>IF(ISBLANK(B461),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6138,7 +6183,7 @@
       <c r="E461" s="10"/>
       <c r="F461" s="10"/>
     </row>
-    <row r="462" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="462" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A462" s="13" t="str">
         <f>IF(ISBLANK(B462),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6149,7 +6194,7 @@
       <c r="E462" s="10"/>
       <c r="F462" s="10"/>
     </row>
-    <row r="463" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="463" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A463" s="13" t="str">
         <f>IF(ISBLANK(B463),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6160,7 +6205,7 @@
       <c r="E463" s="10"/>
       <c r="F463" s="10"/>
     </row>
-    <row r="464" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="464" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A464" s="13" t="str">
         <f>IF(ISBLANK(B464),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6171,7 +6216,7 @@
       <c r="E464" s="10"/>
       <c r="F464" s="10"/>
     </row>
-    <row r="465" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="465" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A465" s="13" t="str">
         <f>IF(ISBLANK(B465),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6182,7 +6227,7 @@
       <c r="E465" s="10"/>
       <c r="F465" s="10"/>
     </row>
-    <row r="466" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="466" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A466" s="13" t="str">
         <f>IF(ISBLANK(B466),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6193,7 +6238,7 @@
       <c r="E466" s="10"/>
       <c r="F466" s="10"/>
     </row>
-    <row r="467" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="467" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A467" s="13" t="str">
         <f>IF(ISBLANK(B467),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6204,7 +6249,7 @@
       <c r="E467" s="10"/>
       <c r="F467" s="10"/>
     </row>
-    <row r="468" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="468" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A468" s="13" t="str">
         <f>IF(ISBLANK(B468),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6215,7 +6260,7 @@
       <c r="E468" s="10"/>
       <c r="F468" s="10"/>
     </row>
-    <row r="469" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="469" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A469" s="13" t="str">
         <f>IF(ISBLANK(B469),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6226,7 +6271,7 @@
       <c r="E469" s="10"/>
       <c r="F469" s="10"/>
     </row>
-    <row r="470" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="470" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A470" s="13" t="str">
         <f>IF(ISBLANK(B470),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6237,7 +6282,7 @@
       <c r="E470" s="10"/>
       <c r="F470" s="10"/>
     </row>
-    <row r="471" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="471" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A471" s="13" t="str">
         <f>IF(ISBLANK(B471),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6248,7 +6293,7 @@
       <c r="E471" s="10"/>
       <c r="F471" s="10"/>
     </row>
-    <row r="472" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="472" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A472" s="13" t="str">
         <f>IF(ISBLANK(B472),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6259,7 +6304,7 @@
       <c r="E472" s="10"/>
       <c r="F472" s="10"/>
     </row>
-    <row r="473" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="473" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A473" s="13" t="str">
         <f>IF(ISBLANK(B473),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6270,7 +6315,7 @@
       <c r="E473" s="10"/>
       <c r="F473" s="10"/>
     </row>
-    <row r="474" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="474" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A474" s="13" t="str">
         <f>IF(ISBLANK(B474),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6281,7 +6326,7 @@
       <c r="E474" s="10"/>
       <c r="F474" s="10"/>
     </row>
-    <row r="475" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="475" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A475" s="13" t="str">
         <f>IF(ISBLANK(B475),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6292,7 +6337,7 @@
       <c r="E475" s="10"/>
       <c r="F475" s="10"/>
     </row>
-    <row r="476" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="476" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A476" s="13" t="str">
         <f>IF(ISBLANK(B476),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6303,7 +6348,7 @@
       <c r="E476" s="10"/>
       <c r="F476" s="10"/>
     </row>
-    <row r="477" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="477" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A477" s="13" t="str">
         <f>IF(ISBLANK(B477),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6314,7 +6359,7 @@
       <c r="E477" s="10"/>
       <c r="F477" s="10"/>
     </row>
-    <row r="478" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="478" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A478" s="13" t="str">
         <f>IF(ISBLANK(B478),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6325,7 +6370,7 @@
       <c r="E478" s="10"/>
       <c r="F478" s="10"/>
     </row>
-    <row r="479" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="479" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A479" s="13" t="str">
         <f>IF(ISBLANK(B479),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6336,7 +6381,7 @@
       <c r="E479" s="10"/>
       <c r="F479" s="10"/>
     </row>
-    <row r="480" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="480" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A480" s="13" t="str">
         <f>IF(ISBLANK(B480),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6347,7 +6392,7 @@
       <c r="E480" s="10"/>
       <c r="F480" s="10"/>
     </row>
-    <row r="481" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="481" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A481" s="13" t="str">
         <f>IF(ISBLANK(B481),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6358,7 +6403,7 @@
       <c r="E481" s="10"/>
       <c r="F481" s="10"/>
     </row>
-    <row r="482" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="482" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A482" s="13" t="str">
         <f>IF(ISBLANK(B482),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6369,7 +6414,7 @@
       <c r="E482" s="10"/>
       <c r="F482" s="10"/>
     </row>
-    <row r="483" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="483" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A483" s="13" t="str">
         <f>IF(ISBLANK(B483),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6380,7 +6425,7 @@
       <c r="E483" s="10"/>
       <c r="F483" s="10"/>
     </row>
-    <row r="484" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="484" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A484" s="13" t="str">
         <f>IF(ISBLANK(B484),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6391,7 +6436,7 @@
       <c r="E484" s="10"/>
       <c r="F484" s="10"/>
     </row>
-    <row r="485" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="485" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A485" s="13" t="str">
         <f>IF(ISBLANK(B485),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6402,7 +6447,7 @@
       <c r="E485" s="10"/>
       <c r="F485" s="10"/>
     </row>
-    <row r="486" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="486" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A486" s="13" t="str">
         <f>IF(ISBLANK(B486),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6413,7 +6458,7 @@
       <c r="E486" s="10"/>
       <c r="F486" s="10"/>
     </row>
-    <row r="487" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="487" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A487" s="13" t="str">
         <f>IF(ISBLANK(B487),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6424,7 +6469,7 @@
       <c r="E487" s="10"/>
       <c r="F487" s="10"/>
     </row>
-    <row r="488" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="488" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A488" s="13" t="str">
         <f>IF(ISBLANK(B488),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6435,7 +6480,7 @@
       <c r="E488" s="10"/>
       <c r="F488" s="10"/>
     </row>
-    <row r="489" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="489" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A489" s="13" t="str">
         <f>IF(ISBLANK(B489),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6446,7 +6491,7 @@
       <c r="E489" s="10"/>
       <c r="F489" s="10"/>
     </row>
-    <row r="490" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="490" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A490" s="13" t="str">
         <f>IF(ISBLANK(B490),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6457,7 +6502,7 @@
       <c r="E490" s="10"/>
       <c r="F490" s="10"/>
     </row>
-    <row r="491" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="491" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A491" s="13" t="str">
         <f>IF(ISBLANK(B491),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6468,7 +6513,7 @@
       <c r="E491" s="10"/>
       <c r="F491" s="10"/>
     </row>
-    <row r="492" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="492" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A492" s="13" t="str">
         <f>IF(ISBLANK(B492),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6479,7 +6524,7 @@
       <c r="E492" s="10"/>
       <c r="F492" s="10"/>
     </row>
-    <row r="493" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="493" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A493" s="13" t="str">
         <f>IF(ISBLANK(B493),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6490,7 +6535,7 @@
       <c r="E493" s="10"/>
       <c r="F493" s="10"/>
     </row>
-    <row r="494" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="494" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A494" s="13" t="str">
         <f>IF(ISBLANK(B494),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6501,7 +6546,7 @@
       <c r="E494" s="10"/>
       <c r="F494" s="10"/>
     </row>
-    <row r="495" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="495" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A495" s="13" t="str">
         <f>IF(ISBLANK(B495),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6512,7 +6557,7 @@
       <c r="E495" s="10"/>
       <c r="F495" s="10"/>
     </row>
-    <row r="496" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="496" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A496" s="13" t="str">
         <f>IF(ISBLANK(B496),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6523,7 +6568,7 @@
       <c r="E496" s="10"/>
       <c r="F496" s="10"/>
     </row>
-    <row r="497" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="497" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A497" s="13" t="str">
         <f>IF(ISBLANK(B497),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6534,7 +6579,7 @@
       <c r="E497" s="10"/>
       <c r="F497" s="10"/>
     </row>
-    <row r="498" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="498" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A498" s="13" t="str">
         <f>IF(ISBLANK(B498),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6545,7 +6590,7 @@
       <c r="E498" s="10"/>
       <c r="F498" s="10"/>
     </row>
-    <row r="499" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="499" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A499" s="13" t="str">
         <f>IF(ISBLANK(B499),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6556,7 +6601,7 @@
       <c r="E499" s="10"/>
       <c r="F499" s="10"/>
     </row>
-    <row r="500" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="500" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A500" s="13" t="str">
         <f>IF(ISBLANK(B500),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6567,7 +6612,7 @@
       <c r="E500" s="10"/>
       <c r="F500" s="10"/>
     </row>
-    <row r="501" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="501" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A501" s="13" t="str">
         <f>IF(ISBLANK(B501),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6578,7 +6623,7 @@
       <c r="E501" s="10"/>
       <c r="F501" s="10"/>
     </row>
-    <row r="502" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="502" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A502" s="13" t="str">
         <f>IF(ISBLANK(B502),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6589,7 +6634,7 @@
       <c r="E502" s="10"/>
       <c r="F502" s="10"/>
     </row>
-    <row r="503" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="503" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A503" s="13" t="str">
         <f>IF(ISBLANK(B503),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6600,7 +6645,7 @@
       <c r="E503" s="10"/>
       <c r="F503" s="10"/>
     </row>
-    <row r="504" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="504" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A504" s="13" t="str">
         <f>IF(ISBLANK(B504),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6611,7 +6656,7 @@
       <c r="E504" s="10"/>
       <c r="F504" s="10"/>
     </row>
-    <row r="505" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="505" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A505" s="13" t="str">
         <f>IF(ISBLANK(B505),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6622,7 +6667,7 @@
       <c r="E505" s="10"/>
       <c r="F505" s="10"/>
     </row>
-    <row r="506" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="506" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A506" s="13" t="str">
         <f>IF(ISBLANK(B506),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6633,7 +6678,7 @@
       <c r="E506" s="10"/>
       <c r="F506" s="10"/>
     </row>
-    <row r="507" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="507" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A507" s="13" t="str">
         <f>IF(ISBLANK(B507),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6644,7 +6689,7 @@
       <c r="E507" s="10"/>
       <c r="F507" s="10"/>
     </row>
-    <row r="508" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="508" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A508" s="13" t="str">
         <f>IF(ISBLANK(B508),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6655,7 +6700,7 @@
       <c r="E508" s="10"/>
       <c r="F508" s="10"/>
     </row>
-    <row r="509" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="509" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A509" s="13" t="str">
         <f>IF(ISBLANK(B509),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6666,7 +6711,7 @@
       <c r="E509" s="10"/>
       <c r="F509" s="10"/>
     </row>
-    <row r="510" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="510" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A510" s="13" t="str">
         <f>IF(ISBLANK(B510),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6677,7 +6722,7 @@
       <c r="E510" s="10"/>
       <c r="F510" s="10"/>
     </row>
-    <row r="511" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="511" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A511" s="13" t="str">
         <f>IF(ISBLANK(B511),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6688,7 +6733,7 @@
       <c r="E511" s="10"/>
       <c r="F511" s="10"/>
     </row>
-    <row r="512" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="512" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A512" s="13" t="str">
         <f>IF(ISBLANK(B512),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6699,7 +6744,7 @@
       <c r="E512" s="10"/>
       <c r="F512" s="10"/>
     </row>
-    <row r="513" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="513" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A513" s="13" t="str">
         <f>IF(ISBLANK(B513),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6710,7 +6755,7 @@
       <c r="E513" s="10"/>
       <c r="F513" s="10"/>
     </row>
-    <row r="514" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="514" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A514" s="13" t="str">
         <f>IF(ISBLANK(B514),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6721,7 +6766,7 @@
       <c r="E514" s="10"/>
       <c r="F514" s="10"/>
     </row>
-    <row r="515" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="515" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A515" s="13" t="str">
         <f>IF(ISBLANK(B515),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6732,7 +6777,7 @@
       <c r="E515" s="10"/>
       <c r="F515" s="10"/>
     </row>
-    <row r="516" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="516" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A516" s="13" t="str">
         <f>IF(ISBLANK(B516),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6743,7 +6788,7 @@
       <c r="E516" s="10"/>
       <c r="F516" s="10"/>
     </row>
-    <row r="517" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="517" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A517" s="13" t="str">
         <f>IF(ISBLANK(B517),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6754,7 +6799,7 @@
       <c r="E517" s="10"/>
       <c r="F517" s="10"/>
     </row>
-    <row r="518" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="518" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A518" s="13" t="str">
         <f>IF(ISBLANK(B518),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6765,7 +6810,7 @@
       <c r="E518" s="10"/>
       <c r="F518" s="10"/>
     </row>
-    <row r="519" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="519" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A519" s="13" t="str">
         <f>IF(ISBLANK(B519),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6776,7 +6821,7 @@
       <c r="E519" s="10"/>
       <c r="F519" s="10"/>
     </row>
-    <row r="520" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="520" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A520" s="13" t="str">
         <f>IF(ISBLANK(B520),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6787,7 +6832,7 @@
       <c r="E520" s="10"/>
       <c r="F520" s="10"/>
     </row>
-    <row r="521" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="521" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A521" s="13" t="str">
         <f>IF(ISBLANK(B521),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6798,7 +6843,7 @@
       <c r="E521" s="10"/>
       <c r="F521" s="10"/>
     </row>
-    <row r="522" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="522" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A522" s="13" t="str">
         <f>IF(ISBLANK(B522),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6809,7 +6854,7 @@
       <c r="E522" s="10"/>
       <c r="F522" s="10"/>
     </row>
-    <row r="523" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="523" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A523" s="13" t="str">
         <f>IF(ISBLANK(B523),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6820,7 +6865,7 @@
       <c r="E523" s="10"/>
       <c r="F523" s="10"/>
     </row>
-    <row r="524" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="524" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A524" s="13" t="str">
         <f>IF(ISBLANK(B524),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6831,7 +6876,7 @@
       <c r="E524" s="10"/>
       <c r="F524" s="10"/>
     </row>
-    <row r="525" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="525" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A525" s="13" t="str">
         <f>IF(ISBLANK(B525),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6842,7 +6887,7 @@
       <c r="E525" s="10"/>
       <c r="F525" s="10"/>
     </row>
-    <row r="526" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="526" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A526" s="13" t="str">
         <f>IF(ISBLANK(B526),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6853,7 +6898,7 @@
       <c r="E526" s="10"/>
       <c r="F526" s="10"/>
     </row>
-    <row r="527" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="527" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A527" s="13" t="str">
         <f>IF(ISBLANK(B527),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6864,7 +6909,7 @@
       <c r="E527" s="10"/>
       <c r="F527" s="10"/>
     </row>
-    <row r="528" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="528" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A528" s="13" t="str">
         <f>IF(ISBLANK(B528),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6875,7 +6920,7 @@
       <c r="E528" s="10"/>
       <c r="F528" s="10"/>
     </row>
-    <row r="529" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="529" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A529" s="13" t="str">
         <f>IF(ISBLANK(B529),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6886,7 +6931,7 @@
       <c r="E529" s="10"/>
       <c r="F529" s="10"/>
     </row>
-    <row r="530" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="530" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A530" s="13" t="str">
         <f>IF(ISBLANK(B530),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6897,7 +6942,7 @@
       <c r="E530" s="10"/>
       <c r="F530" s="10"/>
     </row>
-    <row r="531" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="531" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A531" s="13" t="str">
         <f>IF(ISBLANK(B531),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6914,24 +6959,24 @@
     <mergeCell ref="C2:D2"/>
   </mergeCells>
   <conditionalFormatting sqref="D6:D531">
-    <cfRule type="expression" dxfId="5" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="13" priority="2" stopIfTrue="1">
       <formula>$D6="Meeting"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="3">
+    <cfRule type="expression" dxfId="12" priority="3">
       <formula>$D6="Documentation"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="11" priority="4" stopIfTrue="1">
       <formula>$D6="Test"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="10" priority="5" stopIfTrue="1">
       <formula>$D6="Analyse"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="9" priority="7" stopIfTrue="1">
       <formula>$D6="Dévelopement"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D21">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="8" priority="1">
       <formula>$D$21="Imprévu"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6951,6 +6996,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="be0d3259-a7ce-4623-88ec-81594dfcbc1c" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="99ffe1f3-7857-457f-add0-5bdef636f38d">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D4F20F00DBE2EE49BE9523363A2DF18B" ma:contentTypeVersion="13" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="83ae57d85107fc73e8c281aedb059e49">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="99ffe1f3-7857-457f-add0-5bdef636f38d" xmlns:ns3="be0d3259-a7ce-4623-88ec-81594dfcbc1c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b000e6a26fbebedf4c24f086a5622afe" ns2:_="" ns3:_="">
     <xsd:import namespace="99ffe1f3-7857-457f-add0-5bdef636f38d"/>
@@ -7173,27 +7238,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="be0d3259-a7ce-4623-88ec-81594dfcbc1c" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="99ffe1f3-7857-457f-add0-5bdef636f38d">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BDECA689-F55E-43C8-8CEF-25DE741768EA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8EB0028C-89CE-4553-AB94-94DC6E832369}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="be0d3259-a7ce-4623-88ec-81594dfcbc1c"/>
+    <ds:schemaRef ds:uri="99ffe1f3-7857-457f-add0-5bdef636f38d"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{146BE2DA-6117-4657-9EA0-437EBB1E64B8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7210,23 +7274,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8EB0028C-89CE-4553-AB94-94DC6E832369}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="be0d3259-a7ce-4623-88ec-81594dfcbc1c"/>
-    <ds:schemaRef ds:uri="99ffe1f3-7857-457f-add0-5bdef636f38d"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BDECA689-F55E-43C8-8CEF-25DE741768EA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/docs/Journal-de-Travail_Berchel-Joachim.xlsx
+++ b/docs/Journal-de-Travail_Berchel-Joachim.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\px59nyu\Documents\GitHub\joachim-MonProjetGenial\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cyco\Documents\GitHub\joachim-MonProjetGenial\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{324DD3F4-9D44-419E-BECE-3C34C0445C51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6CF9EB2-6369-4632-A299-010BB8A6EBF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6CC57B32-2488-5244-B7A6-FB7E808234AC}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{6CC57B32-2488-5244-B7A6-FB7E808234AC}"/>
   </bookViews>
   <sheets>
     <sheet name="Journal de travail" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="62">
   <si>
     <t>Journal de travail</t>
   </si>
@@ -211,6 +211,21 @@
   </si>
   <si>
     <t>Je commence à envoyer mes fichiers après demande</t>
+  </si>
+  <si>
+    <t>J'optimise l'affichage des musiques dans ma DataGridView.</t>
+  </si>
+  <si>
+    <t>J'envoie les fichiers sérialisé, aucun problème à faire cela mais mon code doit être compatible avec au moins une personne de la classe et ils n'ont pas maintenu la cohérence de la double sérialisation.</t>
+  </si>
+  <si>
+    <t>Mon application peut maintenant télécharger les fichiers, cela fonctionne.</t>
+  </si>
+  <si>
+    <t>J'optimise quelques problèmes dans mon code.</t>
+  </si>
+  <si>
+    <t>Je duplique mon projet et je simule 2 clients, mon application fonctionne. Cela fonctionne donc avec toutes les personnes ayant suivi les normes d'enveloppes proposés dans le GitHub de Philippe.</t>
   </si>
 </sst>
 </file>
@@ -397,56 +412,6 @@
   </cellStyles>
   <dxfs count="14">
     <dxf>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="25" formatCode="hh:mm"/>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="21" formatCode="dd/mmm"/>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="2" tint="-9.9978637043366805E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FFFF0000"/>
@@ -494,6 +459,56 @@
       <fill>
         <patternFill>
           <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="25" formatCode="hh:mm"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="21" formatCode="dd/mmm"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="2" tint="-9.9978637043366805E-2"/>
         </patternFill>
       </fill>
     </dxf>
@@ -566,7 +581,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{45CB4986-052B-374B-A8D0-88D41B362A09}" name="Table2" displayName="Table2" ref="A5:F531" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{45CB4986-052B-374B-A8D0-88D41B362A09}" name="Table2" displayName="Table2" ref="A5:F531" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
   <autoFilter ref="A5:F531" xr:uid="{45CB4986-052B-374B-A8D0-88D41B362A09}">
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -574,14 +589,14 @@
     <filterColumn colId="5" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{F92771A6-FBDD-734E-AD68-EEBCABBE5406}" name="Semaine" dataDxfId="5">
+    <tableColumn id="1" xr3:uid="{F92771A6-FBDD-734E-AD68-EEBCABBE5406}" name="Semaine" dataDxfId="11">
       <calculatedColumnFormula>IF(ISBLANK(B6),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{8A6A2217-ACA1-B64A-AACC-E62161ECEC47}" name="Jour" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{7CF180A9-4021-614A-ABFA-FD02FA7EE89D}" name="Temps [h]" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{DA59D006-464D-084D-8523-AF3DB167EDE2}" name="Type" dataDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{5207D366-301C-BA4D-A840-0D62AE8890E1}" name="Description" dataDxfId="1"/>
-    <tableColumn id="6" xr3:uid="{F7678D64-0216-D64A-A954-D1A966D4BF65}" name="Remarques/problèmes" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{8A6A2217-ACA1-B64A-AACC-E62161ECEC47}" name="Jour" dataDxfId="10"/>
+    <tableColumn id="3" xr3:uid="{7CF180A9-4021-614A-ABFA-FD02FA7EE89D}" name="Temps [h]" dataDxfId="9"/>
+    <tableColumn id="4" xr3:uid="{DA59D006-464D-084D-8523-AF3DB167EDE2}" name="Type" dataDxfId="8"/>
+    <tableColumn id="5" xr3:uid="{5207D366-301C-BA4D-A840-0D62AE8890E1}" name="Description" dataDxfId="7"/>
+    <tableColumn id="6" xr3:uid="{F7678D64-0216-D64A-A954-D1A966D4BF65}" name="Remarques/problèmes" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -776,27 +791,27 @@
   <dimension ref="A1:N531"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B42" sqref="B42"/>
+      <pane ySplit="5" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.625" style="13" customWidth="1"/>
-    <col min="2" max="2" width="9.875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="13.875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="13.875" style="28" customWidth="1"/>
+    <col min="1" max="1" width="14.58203125" style="13" customWidth="1"/>
+    <col min="2" max="2" width="9.83203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13.83203125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="13.83203125" style="28" customWidth="1"/>
     <col min="5" max="5" width="83.5" customWidth="1"/>
-    <col min="6" max="6" width="91.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="91.83203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11" customWidth="1"/>
     <col min="10" max="10" width="7.25" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="4.375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.58203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4.33203125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="5.5" customWidth="1"/>
-    <col min="14" max="14" width="2.875" customWidth="1"/>
+    <col min="14" max="14" width="2.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="15"/>
       <c r="B1" s="16"/>
       <c r="C1" s="17"/>
@@ -806,7 +821,7 @@
       </c>
       <c r="F1" s="18"/>
     </row>
-    <row r="2" spans="1:14" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="4" t="s">
         <v>16</v>
       </c>
@@ -839,13 +854,13 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C3" s="25">
         <f>SUM(C6:C521)</f>
-        <v>0.80555555555555547</v>
+        <v>0.86805555555555536</v>
       </c>
       <c r="D3" s="29" t="s">
         <v>13</v>
@@ -857,7 +872,7 @@
         <v>45604</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="14" t="s">
         <v>2</v>
       </c>
@@ -877,7 +892,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A6" s="13">
         <f>IF(ISBLANK(B6),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v>45</v>
@@ -896,7 +911,7 @@
       </c>
       <c r="F6" s="22"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7" s="13">
         <f>IF(ISBLANK(B7),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v>45</v>
@@ -915,7 +930,7 @@
       </c>
       <c r="F7" s="10"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A8" s="13">
         <f>IF(ISBLANK(B8),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v>45</v>
@@ -934,7 +949,7 @@
       </c>
       <c r="F8" s="23"/>
     </row>
-    <row r="9" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" ht="31" x14ac:dyDescent="0.35">
       <c r="A9" s="13">
         <f>IF(ISBLANK(B9),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v>47</v>
@@ -953,7 +968,7 @@
       </c>
       <c r="F9" s="10"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A10" s="13">
         <f>IF(ISBLANK(B10),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v>47</v>
@@ -972,7 +987,7 @@
       </c>
       <c r="F10" s="22"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A11" s="13">
         <f>IF(ISBLANK(B11),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v>47</v>
@@ -991,7 +1006,7 @@
       </c>
       <c r="F11" s="10"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A12" s="13">
         <f>IF(ISBLANK(B12),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v>47</v>
@@ -1010,7 +1025,7 @@
       </c>
       <c r="F12" s="10"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A13" s="13">
         <f>IF(ISBLANK(B13),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v>47</v>
@@ -1029,7 +1044,7 @@
       </c>
       <c r="F13" s="10"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A14" s="13">
         <f>IF(ISBLANK(B14),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v>47</v>
@@ -1048,7 +1063,7 @@
       </c>
       <c r="F14" s="10"/>
     </row>
-    <row r="15" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" ht="31" x14ac:dyDescent="0.35">
       <c r="A15" s="13">
         <f>IF(ISBLANK(B15),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v>47</v>
@@ -1067,7 +1082,7 @@
       </c>
       <c r="F15" s="10"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A16" s="13">
         <f>IF(ISBLANK(B16),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v>48</v>
@@ -1086,7 +1101,7 @@
       </c>
       <c r="F16" s="10"/>
     </row>
-    <row r="17" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="31" x14ac:dyDescent="0.35">
       <c r="A17" s="13">
         <f>IF(ISBLANK(B17),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v>48</v>
@@ -1105,7 +1120,7 @@
       </c>
       <c r="F17" s="22"/>
     </row>
-    <row r="18" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="31" x14ac:dyDescent="0.35">
       <c r="A18" s="13">
         <f>IF(ISBLANK(B18),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v>48</v>
@@ -1124,7 +1139,7 @@
       </c>
       <c r="F18" s="10"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" s="13">
         <f>IF(ISBLANK(B19),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v>48</v>
@@ -1143,7 +1158,7 @@
       </c>
       <c r="F19" s="10"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" s="13">
         <f>IF(ISBLANK(B20),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v>48</v>
@@ -1162,7 +1177,7 @@
       </c>
       <c r="F20" s="22"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" s="13">
         <f>IF(ISBLANK(B21),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v>48</v>
@@ -1181,7 +1196,7 @@
       </c>
       <c r="F21" s="10"/>
     </row>
-    <row r="22" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" ht="31" x14ac:dyDescent="0.35">
       <c r="A22" s="13">
         <f>IF(ISBLANK(B22),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v>48</v>
@@ -1200,7 +1215,7 @@
       </c>
       <c r="F22" s="22"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" s="13">
         <f>IF(ISBLANK(B23),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v>48</v>
@@ -1219,7 +1234,7 @@
       </c>
       <c r="F23" s="10"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" s="13">
         <f>IF(ISBLANK(B24),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v>50</v>
@@ -1238,7 +1253,7 @@
       </c>
       <c r="F24" s="10"/>
     </row>
-    <row r="25" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" ht="31" x14ac:dyDescent="0.35">
       <c r="A25" s="13">
         <f>IF(ISBLANK(B25),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v>50</v>
@@ -1257,7 +1272,7 @@
       </c>
       <c r="F25" s="10"/>
     </row>
-    <row r="26" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" ht="31" x14ac:dyDescent="0.35">
       <c r="A26" s="13">
         <f>IF(ISBLANK(B26),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v>50</v>
@@ -1276,7 +1291,7 @@
       </c>
       <c r="F26" s="10"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" s="13">
         <f>IF(ISBLANK(B27),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v>50</v>
@@ -1297,7 +1312,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" ht="31" x14ac:dyDescent="0.35">
       <c r="A28" s="13">
         <f>IF(ISBLANK(B28),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v>50</v>
@@ -1316,7 +1331,7 @@
       </c>
       <c r="F28" s="22"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" s="13">
         <f>IF(ISBLANK(B29),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v>50</v>
@@ -1335,7 +1350,7 @@
       </c>
       <c r="F29" s="10"/>
     </row>
-    <row r="30" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A30" s="13">
         <f>IF(ISBLANK(B30),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v>51</v>
@@ -1354,7 +1369,7 @@
       </c>
       <c r="F30" s="10"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" s="13">
         <f>IF(ISBLANK(B31),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v>51</v>
@@ -1373,7 +1388,7 @@
       </c>
       <c r="F31" s="10"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32" s="13">
         <f>IF(ISBLANK(B32),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v>51</v>
@@ -1392,7 +1407,7 @@
       </c>
       <c r="F32" s="10"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33" s="13">
         <f>IF(ISBLANK(B33),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v>51</v>
@@ -1411,7 +1426,7 @@
       </c>
       <c r="F33" s="10"/>
     </row>
-    <row r="34" spans="1:6" ht="110.25" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" ht="108.5" x14ac:dyDescent="0.35">
       <c r="A34" s="13">
         <f>IF(ISBLANK(B34),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v>51</v>
@@ -1430,7 +1445,7 @@
       </c>
       <c r="F34" s="10"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35" s="13">
         <f>IF(ISBLANK(B35),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v>51</v>
@@ -1449,7 +1464,7 @@
       </c>
       <c r="F35" s="10"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36" s="13">
         <f>IF(ISBLANK(B36),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v>51</v>
@@ -1468,7 +1483,7 @@
       </c>
       <c r="F36" s="10"/>
     </row>
-    <row r="37" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" ht="31" x14ac:dyDescent="0.35">
       <c r="A37" s="13">
         <f>IF(ISBLANK(B37),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v>2</v>
@@ -1487,7 +1502,7 @@
       </c>
       <c r="F37" s="10"/>
     </row>
-    <row r="38" spans="1:6" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" ht="77.5" x14ac:dyDescent="0.35">
       <c r="A38" s="13">
         <f>IF(ISBLANK(B38),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v>2</v>
@@ -1506,7 +1521,7 @@
       </c>
       <c r="F38" s="10"/>
     </row>
-    <row r="39" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" ht="31" x14ac:dyDescent="0.35">
       <c r="A39" s="13">
         <f>IF(ISBLANK(B39),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v>2</v>
@@ -1525,7 +1540,7 @@
       </c>
       <c r="F39" s="10"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A40" s="13">
         <f>IF(ISBLANK(B40),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v>2</v>
@@ -1544,7 +1559,7 @@
       </c>
       <c r="F40" s="10"/>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A41" s="13">
         <f>IF(ISBLANK(B41),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v>2</v>
@@ -1563,62 +1578,102 @@
       </c>
       <c r="F41" s="10"/>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="13" t="str">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A42" s="13">
         <f>IF(ISBLANK(B42),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
-        <v/>
-      </c>
-      <c r="B42" s="8"/>
-      <c r="C42" s="24"/>
-      <c r="D42" s="21"/>
-      <c r="E42" s="10"/>
+        <v>2</v>
+      </c>
+      <c r="B42" s="8">
+        <v>45668</v>
+      </c>
+      <c r="C42" s="24">
+        <v>1.3888888888888888E-2</v>
+      </c>
+      <c r="D42" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="E42" s="10" t="s">
+        <v>57</v>
+      </c>
       <c r="F42" s="10"/>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="13" t="str">
+    <row r="43" spans="1:6" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A43" s="13">
         <f>IF(ISBLANK(B43),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
-        <v/>
-      </c>
-      <c r="B43" s="8"/>
-      <c r="C43" s="24"/>
-      <c r="D43" s="21"/>
-      <c r="E43" s="20"/>
+        <v>2</v>
+      </c>
+      <c r="B43" s="8">
+        <v>45668</v>
+      </c>
+      <c r="C43" s="24">
+        <v>1.3888888888888888E-2</v>
+      </c>
+      <c r="D43" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="E43" s="20" t="s">
+        <v>58</v>
+      </c>
       <c r="F43" s="10"/>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="13" t="str">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A44" s="13">
         <f>IF(ISBLANK(B44),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
-        <v/>
-      </c>
-      <c r="B44" s="8"/>
-      <c r="C44" s="24"/>
-      <c r="D44" s="21"/>
-      <c r="E44" s="10"/>
+        <v>2</v>
+      </c>
+      <c r="B44" s="8">
+        <v>45668</v>
+      </c>
+      <c r="C44" s="24">
+        <v>6.9444444444444441E-3</v>
+      </c>
+      <c r="D44" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="E44" s="10" t="s">
+        <v>59</v>
+      </c>
       <c r="F44" s="10"/>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="13" t="str">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A45" s="13">
         <f>IF(ISBLANK(B45),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
-        <v/>
-      </c>
-      <c r="B45" s="8"/>
-      <c r="C45" s="24"/>
-      <c r="D45" s="21"/>
-      <c r="E45" s="10"/>
+        <v>2</v>
+      </c>
+      <c r="B45" s="8">
+        <v>45668</v>
+      </c>
+      <c r="C45" s="24">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="D45" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="E45" s="10" t="s">
+        <v>60</v>
+      </c>
       <c r="F45" s="10"/>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="13" t="str">
+    <row r="46" spans="1:6" ht="31" x14ac:dyDescent="0.35">
+      <c r="A46" s="13">
         <f>IF(ISBLANK(B46),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
-        <v/>
-      </c>
-      <c r="B46" s="8"/>
-      <c r="C46" s="24"/>
-      <c r="D46" s="21"/>
-      <c r="E46" s="10"/>
+        <v>2</v>
+      </c>
+      <c r="B46" s="8">
+        <v>45668</v>
+      </c>
+      <c r="C46" s="24">
+        <v>6.9444444444444441E-3</v>
+      </c>
+      <c r="D46" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E46" s="20" t="s">
+        <v>61</v>
+      </c>
       <c r="F46" s="20"/>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A47" s="13" t="str">
         <f>IF(ISBLANK(B47),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1629,7 +1684,7 @@
       <c r="E47" s="10"/>
       <c r="F47" s="10"/>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A48" s="13" t="str">
         <f>IF(ISBLANK(B48),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1640,7 +1695,7 @@
       <c r="E48" s="20"/>
       <c r="F48" s="10"/>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A49" s="13" t="str">
         <f>IF(ISBLANK(B49),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1651,7 +1706,7 @@
       <c r="E49" s="10"/>
       <c r="F49" s="10"/>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A50" s="13" t="str">
         <f>IF(ISBLANK(B50),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1662,7 +1717,7 @@
       <c r="E50" s="10"/>
       <c r="F50" s="10"/>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A51" s="13" t="str">
         <f>IF(ISBLANK(B51),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1673,7 +1728,7 @@
       <c r="E51" s="10"/>
       <c r="F51" s="10"/>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A52" s="13" t="str">
         <f>IF(ISBLANK(B52),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1684,7 +1739,7 @@
       <c r="E52" s="10"/>
       <c r="F52" s="10"/>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A53" s="13" t="str">
         <f>IF(ISBLANK(B53),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1695,7 +1750,7 @@
       <c r="E53" s="10"/>
       <c r="F53" s="10"/>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A54" s="13" t="str">
         <f>IF(ISBLANK(B54),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1706,7 +1761,7 @@
       <c r="E54" s="10"/>
       <c r="F54" s="10"/>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A55" s="13" t="str">
         <f>IF(ISBLANK(B55),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1717,7 +1772,7 @@
       <c r="E55" s="10"/>
       <c r="F55" s="10"/>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A56" s="13" t="str">
         <f>IF(ISBLANK(B56),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1728,7 +1783,7 @@
       <c r="E56" s="10"/>
       <c r="F56" s="10"/>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A57" s="13" t="str">
         <f>IF(ISBLANK(B57),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1739,7 +1794,7 @@
       <c r="E57" s="10"/>
       <c r="F57" s="10"/>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A58" s="13" t="str">
         <f>IF(ISBLANK(B58),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1750,7 +1805,7 @@
       <c r="E58" s="10"/>
       <c r="F58" s="10"/>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A59" s="13" t="str">
         <f>IF(ISBLANK(B59),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1761,7 +1816,7 @@
       <c r="E59" s="10"/>
       <c r="F59" s="10"/>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A60" s="13" t="str">
         <f>IF(ISBLANK(B60),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1772,7 +1827,7 @@
       <c r="E60" s="10"/>
       <c r="F60" s="10"/>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A61" s="13" t="str">
         <f>IF(ISBLANK(B61),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1783,7 +1838,7 @@
       <c r="E61" s="10"/>
       <c r="F61" s="10"/>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A62" s="13" t="str">
         <f>IF(ISBLANK(B62),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1794,7 +1849,7 @@
       <c r="E62" s="10"/>
       <c r="F62" s="10"/>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A63" s="13" t="str">
         <f>IF(ISBLANK(B63),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1805,7 +1860,7 @@
       <c r="E63" s="10"/>
       <c r="F63" s="10"/>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A64" s="13" t="str">
         <f>IF(ISBLANK(B64),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1816,7 +1871,7 @@
       <c r="E64" s="10"/>
       <c r="F64" s="10"/>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A65" s="13" t="str">
         <f>IF(ISBLANK(B65),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1827,7 +1882,7 @@
       <c r="E65" s="10"/>
       <c r="F65" s="10"/>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A66" s="13" t="str">
         <f>IF(ISBLANK(B66),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1838,7 +1893,7 @@
       <c r="E66" s="10"/>
       <c r="F66" s="10"/>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A67" s="13" t="str">
         <f>IF(ISBLANK(B67),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1849,7 +1904,7 @@
       <c r="E67" s="10"/>
       <c r="F67" s="10"/>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A68" s="13" t="str">
         <f>IF(ISBLANK(B68),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1860,7 +1915,7 @@
       <c r="E68" s="10"/>
       <c r="F68" s="10"/>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A69" s="13" t="str">
         <f>IF(ISBLANK(B69),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1871,7 +1926,7 @@
       <c r="E69" s="10"/>
       <c r="F69" s="10"/>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A70" s="13" t="str">
         <f>IF(ISBLANK(B70),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1882,7 +1937,7 @@
       <c r="E70" s="10"/>
       <c r="F70" s="10"/>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A71" s="13" t="str">
         <f>IF(ISBLANK(B71),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1893,7 +1948,7 @@
       <c r="E71" s="10"/>
       <c r="F71" s="10"/>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A72" s="13" t="str">
         <f>IF(ISBLANK(B72),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1904,7 +1959,7 @@
       <c r="E72" s="10"/>
       <c r="F72" s="10"/>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A73" s="13" t="str">
         <f>IF(ISBLANK(B73),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1915,7 +1970,7 @@
       <c r="E73" s="10"/>
       <c r="F73" s="10"/>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A74" s="13" t="str">
         <f>IF(ISBLANK(B74),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1926,7 +1981,7 @@
       <c r="E74" s="10"/>
       <c r="F74" s="10"/>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A75" s="13" t="str">
         <f>IF(ISBLANK(B75),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1937,7 +1992,7 @@
       <c r="E75" s="10"/>
       <c r="F75" s="10"/>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A76" s="13" t="str">
         <f>IF(ISBLANK(B76),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1948,7 +2003,7 @@
       <c r="E76" s="10"/>
       <c r="F76" s="10"/>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A77" s="13" t="str">
         <f>IF(ISBLANK(B77),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1959,7 +2014,7 @@
       <c r="E77" s="10"/>
       <c r="F77" s="10"/>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A78" s="13" t="str">
         <f>IF(ISBLANK(B78),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1970,7 +2025,7 @@
       <c r="E78" s="10"/>
       <c r="F78" s="10"/>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A79" s="13" t="str">
         <f>IF(ISBLANK(B79),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1981,7 +2036,7 @@
       <c r="E79" s="10"/>
       <c r="F79" s="10"/>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A80" s="13" t="str">
         <f>IF(ISBLANK(B80),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -1992,7 +2047,7 @@
       <c r="E80" s="10"/>
       <c r="F80" s="10"/>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A81" s="13" t="str">
         <f>IF(ISBLANK(B81),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2003,7 +2058,7 @@
       <c r="E81" s="10"/>
       <c r="F81" s="10"/>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A82" s="13" t="str">
         <f>IF(ISBLANK(B82),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2014,7 +2069,7 @@
       <c r="E82" s="10"/>
       <c r="F82" s="10"/>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A83" s="13" t="str">
         <f>IF(ISBLANK(B83),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2025,7 +2080,7 @@
       <c r="E83" s="10"/>
       <c r="F83" s="10"/>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A84" s="13" t="str">
         <f>IF(ISBLANK(B84),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2036,7 +2091,7 @@
       <c r="E84" s="10"/>
       <c r="F84" s="10"/>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A85" s="13" t="str">
         <f>IF(ISBLANK(B85),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2047,7 +2102,7 @@
       <c r="E85" s="10"/>
       <c r="F85" s="10"/>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A86" s="13" t="str">
         <f>IF(ISBLANK(B86),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2058,7 +2113,7 @@
       <c r="E86" s="10"/>
       <c r="F86" s="10"/>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A87" s="13" t="str">
         <f>IF(ISBLANK(B87),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2069,7 +2124,7 @@
       <c r="E87" s="10"/>
       <c r="F87" s="10"/>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A88" s="13" t="str">
         <f>IF(ISBLANK(B88),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2080,7 +2135,7 @@
       <c r="E88" s="10"/>
       <c r="F88" s="10"/>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A89" s="13" t="str">
         <f>IF(ISBLANK(B89),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2091,7 +2146,7 @@
       <c r="E89" s="10"/>
       <c r="F89" s="10"/>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A90" s="13" t="str">
         <f>IF(ISBLANK(B90),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2102,7 +2157,7 @@
       <c r="E90" s="10"/>
       <c r="F90" s="10"/>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A91" s="13" t="str">
         <f>IF(ISBLANK(B91),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2113,7 +2168,7 @@
       <c r="E91" s="10"/>
       <c r="F91" s="10"/>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A92" s="13" t="str">
         <f>IF(ISBLANK(B92),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2124,7 +2179,7 @@
       <c r="E92" s="10"/>
       <c r="F92" s="10"/>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A93" s="13" t="str">
         <f>IF(ISBLANK(B93),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2135,7 +2190,7 @@
       <c r="E93" s="10"/>
       <c r="F93" s="10"/>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A94" s="13" t="str">
         <f>IF(ISBLANK(B94),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2146,7 +2201,7 @@
       <c r="E94" s="10"/>
       <c r="F94" s="10"/>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A95" s="13" t="str">
         <f>IF(ISBLANK(B95),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2157,7 +2212,7 @@
       <c r="E95" s="10"/>
       <c r="F95" s="10"/>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A96" s="13" t="str">
         <f>IF(ISBLANK(B96),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2168,7 +2223,7 @@
       <c r="E96" s="10"/>
       <c r="F96" s="10"/>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A97" s="13" t="str">
         <f>IF(ISBLANK(B97),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2179,7 +2234,7 @@
       <c r="E97" s="10"/>
       <c r="F97" s="10"/>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A98" s="13" t="str">
         <f>IF(ISBLANK(B98),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2190,7 +2245,7 @@
       <c r="E98" s="10"/>
       <c r="F98" s="10"/>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A99" s="13" t="str">
         <f>IF(ISBLANK(B99),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2201,7 +2256,7 @@
       <c r="E99" s="10"/>
       <c r="F99" s="10"/>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A100" s="13" t="str">
         <f>IF(ISBLANK(B100),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2212,7 +2267,7 @@
       <c r="E100" s="10"/>
       <c r="F100" s="10"/>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A101" s="13" t="str">
         <f>IF(ISBLANK(B101),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2223,7 +2278,7 @@
       <c r="E101" s="10"/>
       <c r="F101" s="10"/>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A102" s="13" t="str">
         <f>IF(ISBLANK(B102),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2234,7 +2289,7 @@
       <c r="E102" s="10"/>
       <c r="F102" s="10"/>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A103" s="13" t="str">
         <f>IF(ISBLANK(B103),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2245,7 +2300,7 @@
       <c r="E103" s="10"/>
       <c r="F103" s="10"/>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A104" s="13" t="str">
         <f>IF(ISBLANK(B104),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2256,7 +2311,7 @@
       <c r="E104" s="10"/>
       <c r="F104" s="10"/>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A105" s="13" t="str">
         <f>IF(ISBLANK(B105),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2267,7 +2322,7 @@
       <c r="E105" s="10"/>
       <c r="F105" s="10"/>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A106" s="13" t="str">
         <f>IF(ISBLANK(B106),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2278,7 +2333,7 @@
       <c r="E106" s="10"/>
       <c r="F106" s="10"/>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A107" s="13" t="str">
         <f>IF(ISBLANK(B107),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2289,7 +2344,7 @@
       <c r="E107" s="10"/>
       <c r="F107" s="10"/>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A108" s="13" t="str">
         <f>IF(ISBLANK(B108),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2300,7 +2355,7 @@
       <c r="E108" s="10"/>
       <c r="F108" s="10"/>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A109" s="13" t="str">
         <f>IF(ISBLANK(B109),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2311,7 +2366,7 @@
       <c r="E109" s="10"/>
       <c r="F109" s="10"/>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A110" s="13" t="str">
         <f>IF(ISBLANK(B110),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2322,7 +2377,7 @@
       <c r="E110" s="10"/>
       <c r="F110" s="10"/>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A111" s="13" t="str">
         <f>IF(ISBLANK(B111),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2333,7 +2388,7 @@
       <c r="E111" s="10"/>
       <c r="F111" s="10"/>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A112" s="13" t="str">
         <f>IF(ISBLANK(B112),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2344,7 +2399,7 @@
       <c r="E112" s="10"/>
       <c r="F112" s="10"/>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A113" s="13" t="str">
         <f>IF(ISBLANK(B113),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2355,7 +2410,7 @@
       <c r="E113" s="10"/>
       <c r="F113" s="10"/>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A114" s="13" t="str">
         <f>IF(ISBLANK(B114),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2366,7 +2421,7 @@
       <c r="E114" s="10"/>
       <c r="F114" s="10"/>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A115" s="13" t="str">
         <f>IF(ISBLANK(B115),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2377,7 +2432,7 @@
       <c r="E115" s="10"/>
       <c r="F115" s="10"/>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A116" s="13" t="str">
         <f>IF(ISBLANK(B116),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2388,7 +2443,7 @@
       <c r="E116" s="10"/>
       <c r="F116" s="10"/>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A117" s="13" t="str">
         <f>IF(ISBLANK(B117),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2399,7 +2454,7 @@
       <c r="E117" s="10"/>
       <c r="F117" s="10"/>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A118" s="13" t="str">
         <f>IF(ISBLANK(B118),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2410,7 +2465,7 @@
       <c r="E118" s="10"/>
       <c r="F118" s="10"/>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A119" s="13" t="str">
         <f>IF(ISBLANK(B119),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2421,7 +2476,7 @@
       <c r="E119" s="10"/>
       <c r="F119" s="10"/>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A120" s="13" t="str">
         <f>IF(ISBLANK(B120),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2432,7 +2487,7 @@
       <c r="E120" s="10"/>
       <c r="F120" s="10"/>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A121" s="13" t="str">
         <f>IF(ISBLANK(B121),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2443,7 +2498,7 @@
       <c r="E121" s="10"/>
       <c r="F121" s="10"/>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A122" s="13" t="str">
         <f>IF(ISBLANK(B122),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2454,7 +2509,7 @@
       <c r="E122" s="10"/>
       <c r="F122" s="10"/>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A123" s="13" t="str">
         <f>IF(ISBLANK(B123),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2465,7 +2520,7 @@
       <c r="E123" s="10"/>
       <c r="F123" s="10"/>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A124" s="13" t="str">
         <f>IF(ISBLANK(B124),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2476,7 +2531,7 @@
       <c r="E124" s="10"/>
       <c r="F124" s="10"/>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A125" s="13" t="str">
         <f>IF(ISBLANK(B125),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2487,7 +2542,7 @@
       <c r="E125" s="10"/>
       <c r="F125" s="10"/>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A126" s="13" t="str">
         <f>IF(ISBLANK(B126),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2498,7 +2553,7 @@
       <c r="E126" s="10"/>
       <c r="F126" s="10"/>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A127" s="13" t="str">
         <f>IF(ISBLANK(B127),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2509,7 +2564,7 @@
       <c r="E127" s="10"/>
       <c r="F127" s="10"/>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A128" s="13" t="str">
         <f>IF(ISBLANK(B128),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2520,7 +2575,7 @@
       <c r="E128" s="10"/>
       <c r="F128" s="10"/>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A129" s="13" t="str">
         <f>IF(ISBLANK(B129),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2531,7 +2586,7 @@
       <c r="E129" s="10"/>
       <c r="F129" s="10"/>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A130" s="13" t="str">
         <f>IF(ISBLANK(B130),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2542,7 +2597,7 @@
       <c r="E130" s="10"/>
       <c r="F130" s="10"/>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A131" s="13" t="str">
         <f>IF(ISBLANK(B131),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2553,7 +2608,7 @@
       <c r="E131" s="10"/>
       <c r="F131" s="10"/>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A132" s="13" t="str">
         <f>IF(ISBLANK(B132),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2564,7 +2619,7 @@
       <c r="E132" s="10"/>
       <c r="F132" s="10"/>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A133" s="13" t="str">
         <f>IF(ISBLANK(B133),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2575,7 +2630,7 @@
       <c r="E133" s="10"/>
       <c r="F133" s="10"/>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A134" s="13" t="str">
         <f>IF(ISBLANK(B134),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2586,7 +2641,7 @@
       <c r="E134" s="10"/>
       <c r="F134" s="10"/>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A135" s="13" t="str">
         <f>IF(ISBLANK(B135),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2597,7 +2652,7 @@
       <c r="E135" s="10"/>
       <c r="F135" s="10"/>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A136" s="13" t="str">
         <f>IF(ISBLANK(B136),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2608,7 +2663,7 @@
       <c r="E136" s="10"/>
       <c r="F136" s="10"/>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A137" s="13" t="str">
         <f>IF(ISBLANK(B137),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2619,7 +2674,7 @@
       <c r="E137" s="10"/>
       <c r="F137" s="10"/>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A138" s="13" t="str">
         <f>IF(ISBLANK(B138),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2630,7 +2685,7 @@
       <c r="E138" s="10"/>
       <c r="F138" s="10"/>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A139" s="13" t="str">
         <f>IF(ISBLANK(B139),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2641,7 +2696,7 @@
       <c r="E139" s="10"/>
       <c r="F139" s="10"/>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A140" s="13" t="str">
         <f>IF(ISBLANK(B140),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2652,7 +2707,7 @@
       <c r="E140" s="10"/>
       <c r="F140" s="10"/>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A141" s="13" t="str">
         <f>IF(ISBLANK(B141),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2663,7 +2718,7 @@
       <c r="E141" s="10"/>
       <c r="F141" s="10"/>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A142" s="13" t="str">
         <f>IF(ISBLANK(B142),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2674,7 +2729,7 @@
       <c r="E142" s="10"/>
       <c r="F142" s="10"/>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A143" s="13" t="str">
         <f>IF(ISBLANK(B143),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2685,7 +2740,7 @@
       <c r="E143" s="10"/>
       <c r="F143" s="10"/>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A144" s="13" t="str">
         <f>IF(ISBLANK(B144),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2696,7 +2751,7 @@
       <c r="E144" s="10"/>
       <c r="F144" s="10"/>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A145" s="13" t="str">
         <f>IF(ISBLANK(B145),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2707,7 +2762,7 @@
       <c r="E145" s="10"/>
       <c r="F145" s="10"/>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A146" s="13" t="str">
         <f>IF(ISBLANK(B146),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2718,7 +2773,7 @@
       <c r="E146" s="10"/>
       <c r="F146" s="10"/>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A147" s="13" t="str">
         <f>IF(ISBLANK(B147),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2729,7 +2784,7 @@
       <c r="E147" s="10"/>
       <c r="F147" s="10"/>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A148" s="13" t="str">
         <f>IF(ISBLANK(B148),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2740,7 +2795,7 @@
       <c r="E148" s="10"/>
       <c r="F148" s="10"/>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A149" s="13" t="str">
         <f>IF(ISBLANK(B149),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2751,7 +2806,7 @@
       <c r="E149" s="10"/>
       <c r="F149" s="10"/>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A150" s="13" t="str">
         <f>IF(ISBLANK(B150),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2762,7 +2817,7 @@
       <c r="E150" s="10"/>
       <c r="F150" s="10"/>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A151" s="13" t="str">
         <f>IF(ISBLANK(B151),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2773,7 +2828,7 @@
       <c r="E151" s="10"/>
       <c r="F151" s="10"/>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A152" s="13" t="str">
         <f>IF(ISBLANK(B152),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2784,7 +2839,7 @@
       <c r="E152" s="10"/>
       <c r="F152" s="10"/>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A153" s="13" t="str">
         <f>IF(ISBLANK(B153),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2795,7 +2850,7 @@
       <c r="E153" s="10"/>
       <c r="F153" s="10"/>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A154" s="13" t="str">
         <f>IF(ISBLANK(B154),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2806,7 +2861,7 @@
       <c r="E154" s="10"/>
       <c r="F154" s="10"/>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A155" s="13" t="str">
         <f>IF(ISBLANK(B155),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2817,7 +2872,7 @@
       <c r="E155" s="10"/>
       <c r="F155" s="10"/>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A156" s="13" t="str">
         <f>IF(ISBLANK(B156),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2828,7 +2883,7 @@
       <c r="E156" s="10"/>
       <c r="F156" s="10"/>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A157" s="13" t="str">
         <f>IF(ISBLANK(B157),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2839,7 +2894,7 @@
       <c r="E157" s="10"/>
       <c r="F157" s="10"/>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A158" s="13" t="str">
         <f>IF(ISBLANK(B158),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2850,7 +2905,7 @@
       <c r="E158" s="10"/>
       <c r="F158" s="10"/>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A159" s="13" t="str">
         <f>IF(ISBLANK(B159),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2861,7 +2916,7 @@
       <c r="E159" s="10"/>
       <c r="F159" s="10"/>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A160" s="13" t="str">
         <f>IF(ISBLANK(B160),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2872,7 +2927,7 @@
       <c r="E160" s="10"/>
       <c r="F160" s="10"/>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A161" s="13" t="str">
         <f>IF(ISBLANK(B161),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2883,7 +2938,7 @@
       <c r="E161" s="10"/>
       <c r="F161" s="10"/>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A162" s="13" t="str">
         <f>IF(ISBLANK(B162),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2894,7 +2949,7 @@
       <c r="E162" s="10"/>
       <c r="F162" s="10"/>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A163" s="13" t="str">
         <f>IF(ISBLANK(B163),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2905,7 +2960,7 @@
       <c r="E163" s="10"/>
       <c r="F163" s="10"/>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A164" s="13" t="str">
         <f>IF(ISBLANK(B164),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2916,7 +2971,7 @@
       <c r="E164" s="10"/>
       <c r="F164" s="10"/>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A165" s="13" t="str">
         <f>IF(ISBLANK(B165),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2927,7 +2982,7 @@
       <c r="E165" s="10"/>
       <c r="F165" s="10"/>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A166" s="13" t="str">
         <f>IF(ISBLANK(B166),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2938,7 +2993,7 @@
       <c r="E166" s="10"/>
       <c r="F166" s="10"/>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A167" s="13" t="str">
         <f>IF(ISBLANK(B167),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2949,7 +3004,7 @@
       <c r="E167" s="10"/>
       <c r="F167" s="10"/>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A168" s="13" t="str">
         <f>IF(ISBLANK(B168),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2960,7 +3015,7 @@
       <c r="E168" s="10"/>
       <c r="F168" s="10"/>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A169" s="13" t="str">
         <f>IF(ISBLANK(B169),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2971,7 +3026,7 @@
       <c r="E169" s="10"/>
       <c r="F169" s="10"/>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A170" s="13" t="str">
         <f>IF(ISBLANK(B170),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2982,7 +3037,7 @@
       <c r="E170" s="10"/>
       <c r="F170" s="10"/>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A171" s="13" t="str">
         <f>IF(ISBLANK(B171),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -2993,7 +3048,7 @@
       <c r="E171" s="10"/>
       <c r="F171" s="10"/>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A172" s="13" t="str">
         <f>IF(ISBLANK(B172),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3004,7 +3059,7 @@
       <c r="E172" s="10"/>
       <c r="F172" s="10"/>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A173" s="13" t="str">
         <f>IF(ISBLANK(B173),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3015,7 +3070,7 @@
       <c r="E173" s="10"/>
       <c r="F173" s="10"/>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A174" s="13" t="str">
         <f>IF(ISBLANK(B174),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3026,7 +3081,7 @@
       <c r="E174" s="10"/>
       <c r="F174" s="10"/>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A175" s="13" t="str">
         <f>IF(ISBLANK(B175),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3037,7 +3092,7 @@
       <c r="E175" s="10"/>
       <c r="F175" s="10"/>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A176" s="13" t="str">
         <f>IF(ISBLANK(B176),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3048,7 +3103,7 @@
       <c r="E176" s="10"/>
       <c r="F176" s="10"/>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A177" s="13" t="str">
         <f>IF(ISBLANK(B177),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3059,7 +3114,7 @@
       <c r="E177" s="10"/>
       <c r="F177" s="10"/>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A178" s="13" t="str">
         <f>IF(ISBLANK(B178),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3070,7 +3125,7 @@
       <c r="E178" s="10"/>
       <c r="F178" s="10"/>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A179" s="13" t="str">
         <f>IF(ISBLANK(B179),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3081,7 +3136,7 @@
       <c r="E179" s="10"/>
       <c r="F179" s="10"/>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A180" s="13" t="str">
         <f>IF(ISBLANK(B180),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3092,7 +3147,7 @@
       <c r="E180" s="10"/>
       <c r="F180" s="10"/>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A181" s="13" t="str">
         <f>IF(ISBLANK(B181),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3103,7 +3158,7 @@
       <c r="E181" s="10"/>
       <c r="F181" s="10"/>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A182" s="13" t="str">
         <f>IF(ISBLANK(B182),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3114,7 +3169,7 @@
       <c r="E182" s="10"/>
       <c r="F182" s="10"/>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A183" s="13" t="str">
         <f>IF(ISBLANK(B183),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3125,7 +3180,7 @@
       <c r="E183" s="10"/>
       <c r="F183" s="10"/>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A184" s="13" t="str">
         <f>IF(ISBLANK(B184),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3136,7 +3191,7 @@
       <c r="E184" s="10"/>
       <c r="F184" s="10"/>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A185" s="13" t="str">
         <f>IF(ISBLANK(B185),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3147,7 +3202,7 @@
       <c r="E185" s="10"/>
       <c r="F185" s="10"/>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A186" s="13" t="str">
         <f>IF(ISBLANK(B186),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3158,7 +3213,7 @@
       <c r="E186" s="10"/>
       <c r="F186" s="10"/>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A187" s="13" t="str">
         <f>IF(ISBLANK(B187),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3169,7 +3224,7 @@
       <c r="E187" s="10"/>
       <c r="F187" s="10"/>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A188" s="13" t="str">
         <f>IF(ISBLANK(B188),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3180,7 +3235,7 @@
       <c r="E188" s="10"/>
       <c r="F188" s="10"/>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A189" s="13" t="str">
         <f>IF(ISBLANK(B189),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3191,7 +3246,7 @@
       <c r="E189" s="10"/>
       <c r="F189" s="10"/>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A190" s="13" t="str">
         <f>IF(ISBLANK(B190),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3202,7 +3257,7 @@
       <c r="E190" s="10"/>
       <c r="F190" s="10"/>
     </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A191" s="13" t="str">
         <f>IF(ISBLANK(B191),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3213,7 +3268,7 @@
       <c r="E191" s="10"/>
       <c r="F191" s="10"/>
     </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A192" s="13" t="str">
         <f>IF(ISBLANK(B192),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3224,7 +3279,7 @@
       <c r="E192" s="10"/>
       <c r="F192" s="10"/>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A193" s="13" t="str">
         <f>IF(ISBLANK(B193),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3235,7 +3290,7 @@
       <c r="E193" s="10"/>
       <c r="F193" s="10"/>
     </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A194" s="13" t="str">
         <f>IF(ISBLANK(B194),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3246,7 +3301,7 @@
       <c r="E194" s="10"/>
       <c r="F194" s="10"/>
     </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A195" s="13" t="str">
         <f>IF(ISBLANK(B195),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3257,7 +3312,7 @@
       <c r="E195" s="10"/>
       <c r="F195" s="10"/>
     </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A196" s="13" t="str">
         <f>IF(ISBLANK(B196),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3268,7 +3323,7 @@
       <c r="E196" s="10"/>
       <c r="F196" s="10"/>
     </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A197" s="13" t="str">
         <f>IF(ISBLANK(B197),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3279,7 +3334,7 @@
       <c r="E197" s="10"/>
       <c r="F197" s="10"/>
     </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A198" s="13" t="str">
         <f>IF(ISBLANK(B198),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3290,7 +3345,7 @@
       <c r="E198" s="10"/>
       <c r="F198" s="10"/>
     </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A199" s="13" t="str">
         <f>IF(ISBLANK(B199),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3301,7 +3356,7 @@
       <c r="E199" s="10"/>
       <c r="F199" s="10"/>
     </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A200" s="13" t="str">
         <f>IF(ISBLANK(B200),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3312,7 +3367,7 @@
       <c r="E200" s="10"/>
       <c r="F200" s="10"/>
     </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A201" s="13" t="str">
         <f>IF(ISBLANK(B201),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3323,7 +3378,7 @@
       <c r="E201" s="10"/>
       <c r="F201" s="10"/>
     </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A202" s="13" t="str">
         <f>IF(ISBLANK(B202),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3334,7 +3389,7 @@
       <c r="E202" s="10"/>
       <c r="F202" s="10"/>
     </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A203" s="13" t="str">
         <f>IF(ISBLANK(B203),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3345,7 +3400,7 @@
       <c r="E203" s="10"/>
       <c r="F203" s="10"/>
     </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A204" s="13" t="str">
         <f>IF(ISBLANK(B204),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3356,7 +3411,7 @@
       <c r="E204" s="10"/>
       <c r="F204" s="10"/>
     </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A205" s="13" t="str">
         <f>IF(ISBLANK(B205),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3367,7 +3422,7 @@
       <c r="E205" s="10"/>
       <c r="F205" s="10"/>
     </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A206" s="13" t="str">
         <f>IF(ISBLANK(B206),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3378,7 +3433,7 @@
       <c r="E206" s="10"/>
       <c r="F206" s="10"/>
     </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A207" s="13" t="str">
         <f>IF(ISBLANK(B207),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3389,7 +3444,7 @@
       <c r="E207" s="10"/>
       <c r="F207" s="10"/>
     </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A208" s="13" t="str">
         <f>IF(ISBLANK(B208),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3400,7 +3455,7 @@
       <c r="E208" s="10"/>
       <c r="F208" s="10"/>
     </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A209" s="13" t="str">
         <f>IF(ISBLANK(B209),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3411,7 +3466,7 @@
       <c r="E209" s="10"/>
       <c r="F209" s="10"/>
     </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A210" s="13" t="str">
         <f>IF(ISBLANK(B210),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3422,7 +3477,7 @@
       <c r="E210" s="10"/>
       <c r="F210" s="10"/>
     </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A211" s="13" t="str">
         <f>IF(ISBLANK(B211),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3433,7 +3488,7 @@
       <c r="E211" s="10"/>
       <c r="F211" s="10"/>
     </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A212" s="13" t="str">
         <f>IF(ISBLANK(B212),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3444,7 +3499,7 @@
       <c r="E212" s="10"/>
       <c r="F212" s="10"/>
     </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A213" s="13" t="str">
         <f>IF(ISBLANK(B213),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3455,7 +3510,7 @@
       <c r="E213" s="10"/>
       <c r="F213" s="10"/>
     </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A214" s="13" t="str">
         <f>IF(ISBLANK(B214),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3466,7 +3521,7 @@
       <c r="E214" s="10"/>
       <c r="F214" s="10"/>
     </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A215" s="13" t="str">
         <f>IF(ISBLANK(B215),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3477,7 +3532,7 @@
       <c r="E215" s="10"/>
       <c r="F215" s="10"/>
     </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A216" s="13" t="str">
         <f>IF(ISBLANK(B216),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3488,7 +3543,7 @@
       <c r="E216" s="10"/>
       <c r="F216" s="10"/>
     </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A217" s="13" t="str">
         <f>IF(ISBLANK(B217),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3499,7 +3554,7 @@
       <c r="E217" s="10"/>
       <c r="F217" s="10"/>
     </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A218" s="13" t="str">
         <f>IF(ISBLANK(B218),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3510,7 +3565,7 @@
       <c r="E218" s="10"/>
       <c r="F218" s="10"/>
     </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A219" s="13" t="str">
         <f>IF(ISBLANK(B219),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3521,7 +3576,7 @@
       <c r="E219" s="10"/>
       <c r="F219" s="10"/>
     </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A220" s="13" t="str">
         <f>IF(ISBLANK(B220),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3532,7 +3587,7 @@
       <c r="E220" s="10"/>
       <c r="F220" s="10"/>
     </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A221" s="13" t="str">
         <f>IF(ISBLANK(B221),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3543,7 +3598,7 @@
       <c r="E221" s="10"/>
       <c r="F221" s="10"/>
     </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A222" s="13" t="str">
         <f>IF(ISBLANK(B222),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3554,7 +3609,7 @@
       <c r="E222" s="10"/>
       <c r="F222" s="10"/>
     </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A223" s="13" t="str">
         <f>IF(ISBLANK(B223),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3565,7 +3620,7 @@
       <c r="E223" s="10"/>
       <c r="F223" s="10"/>
     </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A224" s="13" t="str">
         <f>IF(ISBLANK(B224),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3576,7 +3631,7 @@
       <c r="E224" s="10"/>
       <c r="F224" s="10"/>
     </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A225" s="13" t="str">
         <f>IF(ISBLANK(B225),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3587,7 +3642,7 @@
       <c r="E225" s="10"/>
       <c r="F225" s="10"/>
     </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A226" s="13" t="str">
         <f>IF(ISBLANK(B226),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3598,7 +3653,7 @@
       <c r="E226" s="10"/>
       <c r="F226" s="10"/>
     </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A227" s="13" t="str">
         <f>IF(ISBLANK(B227),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3609,7 +3664,7 @@
       <c r="E227" s="10"/>
       <c r="F227" s="10"/>
     </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A228" s="13" t="str">
         <f>IF(ISBLANK(B228),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3620,7 +3675,7 @@
       <c r="E228" s="10"/>
       <c r="F228" s="10"/>
     </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A229" s="13" t="str">
         <f>IF(ISBLANK(B229),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3631,7 +3686,7 @@
       <c r="E229" s="10"/>
       <c r="F229" s="10"/>
     </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A230" s="13" t="str">
         <f>IF(ISBLANK(B230),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3642,7 +3697,7 @@
       <c r="E230" s="10"/>
       <c r="F230" s="10"/>
     </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A231" s="13" t="str">
         <f>IF(ISBLANK(B231),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3653,7 +3708,7 @@
       <c r="E231" s="10"/>
       <c r="F231" s="10"/>
     </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A232" s="13" t="str">
         <f>IF(ISBLANK(B232),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3664,7 +3719,7 @@
       <c r="E232" s="10"/>
       <c r="F232" s="10"/>
     </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A233" s="13" t="str">
         <f>IF(ISBLANK(B233),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3675,7 +3730,7 @@
       <c r="E233" s="10"/>
       <c r="F233" s="10"/>
     </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A234" s="13" t="str">
         <f>IF(ISBLANK(B234),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3686,7 +3741,7 @@
       <c r="E234" s="10"/>
       <c r="F234" s="10"/>
     </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A235" s="13" t="str">
         <f>IF(ISBLANK(B235),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3697,7 +3752,7 @@
       <c r="E235" s="10"/>
       <c r="F235" s="10"/>
     </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A236" s="13" t="str">
         <f>IF(ISBLANK(B236),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3708,7 +3763,7 @@
       <c r="E236" s="10"/>
       <c r="F236" s="10"/>
     </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A237" s="13" t="str">
         <f>IF(ISBLANK(B237),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3719,7 +3774,7 @@
       <c r="E237" s="10"/>
       <c r="F237" s="10"/>
     </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A238" s="13" t="str">
         <f>IF(ISBLANK(B238),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3730,7 +3785,7 @@
       <c r="E238" s="10"/>
       <c r="F238" s="10"/>
     </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A239" s="13" t="str">
         <f>IF(ISBLANK(B239),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3741,7 +3796,7 @@
       <c r="E239" s="10"/>
       <c r="F239" s="10"/>
     </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A240" s="13" t="str">
         <f>IF(ISBLANK(B240),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3752,7 +3807,7 @@
       <c r="E240" s="10"/>
       <c r="F240" s="10"/>
     </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A241" s="13" t="str">
         <f>IF(ISBLANK(B241),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3763,7 +3818,7 @@
       <c r="E241" s="10"/>
       <c r="F241" s="10"/>
     </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A242" s="13" t="str">
         <f>IF(ISBLANK(B242),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3774,7 +3829,7 @@
       <c r="E242" s="10"/>
       <c r="F242" s="10"/>
     </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A243" s="13" t="str">
         <f>IF(ISBLANK(B243),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3785,7 +3840,7 @@
       <c r="E243" s="10"/>
       <c r="F243" s="10"/>
     </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A244" s="13" t="str">
         <f>IF(ISBLANK(B244),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3796,7 +3851,7 @@
       <c r="E244" s="10"/>
       <c r="F244" s="10"/>
     </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A245" s="13" t="str">
         <f>IF(ISBLANK(B245),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3807,7 +3862,7 @@
       <c r="E245" s="10"/>
       <c r="F245" s="10"/>
     </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A246" s="13" t="str">
         <f>IF(ISBLANK(B246),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3818,7 +3873,7 @@
       <c r="E246" s="10"/>
       <c r="F246" s="10"/>
     </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A247" s="13" t="str">
         <f>IF(ISBLANK(B247),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3829,7 +3884,7 @@
       <c r="E247" s="10"/>
       <c r="F247" s="10"/>
     </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A248" s="13" t="str">
         <f>IF(ISBLANK(B248),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3840,7 +3895,7 @@
       <c r="E248" s="10"/>
       <c r="F248" s="10"/>
     </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A249" s="13" t="str">
         <f>IF(ISBLANK(B249),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3851,7 +3906,7 @@
       <c r="E249" s="10"/>
       <c r="F249" s="10"/>
     </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A250" s="13" t="str">
         <f>IF(ISBLANK(B250),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3862,7 +3917,7 @@
       <c r="E250" s="10"/>
       <c r="F250" s="10"/>
     </row>
-    <row r="251" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A251" s="13" t="str">
         <f>IF(ISBLANK(B251),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3873,7 +3928,7 @@
       <c r="E251" s="10"/>
       <c r="F251" s="10"/>
     </row>
-    <row r="252" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A252" s="13" t="str">
         <f>IF(ISBLANK(B252),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3884,7 +3939,7 @@
       <c r="E252" s="10"/>
       <c r="F252" s="10"/>
     </row>
-    <row r="253" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A253" s="13" t="str">
         <f>IF(ISBLANK(B253),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3895,7 +3950,7 @@
       <c r="E253" s="10"/>
       <c r="F253" s="10"/>
     </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A254" s="13" t="str">
         <f>IF(ISBLANK(B254),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3906,7 +3961,7 @@
       <c r="E254" s="10"/>
       <c r="F254" s="10"/>
     </row>
-    <row r="255" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A255" s="13" t="str">
         <f>IF(ISBLANK(B255),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3917,7 +3972,7 @@
       <c r="E255" s="10"/>
       <c r="F255" s="10"/>
     </row>
-    <row r="256" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A256" s="13" t="str">
         <f>IF(ISBLANK(B256),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3928,7 +3983,7 @@
       <c r="E256" s="10"/>
       <c r="F256" s="10"/>
     </row>
-    <row r="257" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A257" s="13" t="str">
         <f>IF(ISBLANK(B257),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3939,7 +3994,7 @@
       <c r="E257" s="10"/>
       <c r="F257" s="10"/>
     </row>
-    <row r="258" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A258" s="13" t="str">
         <f>IF(ISBLANK(B258),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3950,7 +4005,7 @@
       <c r="E258" s="10"/>
       <c r="F258" s="10"/>
     </row>
-    <row r="259" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A259" s="13" t="str">
         <f>IF(ISBLANK(B259),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3961,7 +4016,7 @@
       <c r="E259" s="10"/>
       <c r="F259" s="10"/>
     </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A260" s="13" t="str">
         <f>IF(ISBLANK(B260),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3972,7 +4027,7 @@
       <c r="E260" s="10"/>
       <c r="F260" s="10"/>
     </row>
-    <row r="261" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A261" s="13" t="str">
         <f>IF(ISBLANK(B261),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3983,7 +4038,7 @@
       <c r="E261" s="10"/>
       <c r="F261" s="10"/>
     </row>
-    <row r="262" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A262" s="13" t="str">
         <f>IF(ISBLANK(B262),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -3994,7 +4049,7 @@
       <c r="E262" s="10"/>
       <c r="F262" s="10"/>
     </row>
-    <row r="263" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A263" s="13" t="str">
         <f>IF(ISBLANK(B263),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4005,7 +4060,7 @@
       <c r="E263" s="10"/>
       <c r="F263" s="10"/>
     </row>
-    <row r="264" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A264" s="13" t="str">
         <f>IF(ISBLANK(B264),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4016,7 +4071,7 @@
       <c r="E264" s="10"/>
       <c r="F264" s="10"/>
     </row>
-    <row r="265" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A265" s="13" t="str">
         <f>IF(ISBLANK(B265),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4027,7 +4082,7 @@
       <c r="E265" s="10"/>
       <c r="F265" s="10"/>
     </row>
-    <row r="266" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A266" s="13" t="str">
         <f>IF(ISBLANK(B266),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4038,7 +4093,7 @@
       <c r="E266" s="10"/>
       <c r="F266" s="10"/>
     </row>
-    <row r="267" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A267" s="13" t="str">
         <f>IF(ISBLANK(B267),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4049,7 +4104,7 @@
       <c r="E267" s="10"/>
       <c r="F267" s="10"/>
     </row>
-    <row r="268" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A268" s="13" t="str">
         <f>IF(ISBLANK(B268),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4060,7 +4115,7 @@
       <c r="E268" s="10"/>
       <c r="F268" s="10"/>
     </row>
-    <row r="269" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A269" s="13" t="str">
         <f>IF(ISBLANK(B269),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4071,7 +4126,7 @@
       <c r="E269" s="10"/>
       <c r="F269" s="10"/>
     </row>
-    <row r="270" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A270" s="13" t="str">
         <f>IF(ISBLANK(B270),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4082,7 +4137,7 @@
       <c r="E270" s="10"/>
       <c r="F270" s="10"/>
     </row>
-    <row r="271" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A271" s="13" t="str">
         <f>IF(ISBLANK(B271),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4093,7 +4148,7 @@
       <c r="E271" s="10"/>
       <c r="F271" s="10"/>
     </row>
-    <row r="272" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A272" s="13" t="str">
         <f>IF(ISBLANK(B272),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4104,7 +4159,7 @@
       <c r="E272" s="10"/>
       <c r="F272" s="10"/>
     </row>
-    <row r="273" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A273" s="13" t="str">
         <f>IF(ISBLANK(B273),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4115,7 +4170,7 @@
       <c r="E273" s="10"/>
       <c r="F273" s="10"/>
     </row>
-    <row r="274" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A274" s="13" t="str">
         <f>IF(ISBLANK(B274),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4126,7 +4181,7 @@
       <c r="E274" s="10"/>
       <c r="F274" s="10"/>
     </row>
-    <row r="275" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A275" s="13" t="str">
         <f>IF(ISBLANK(B275),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4137,7 +4192,7 @@
       <c r="E275" s="10"/>
       <c r="F275" s="10"/>
     </row>
-    <row r="276" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A276" s="13" t="str">
         <f>IF(ISBLANK(B276),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4148,7 +4203,7 @@
       <c r="E276" s="10"/>
       <c r="F276" s="10"/>
     </row>
-    <row r="277" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A277" s="13" t="str">
         <f>IF(ISBLANK(B277),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4159,7 +4214,7 @@
       <c r="E277" s="10"/>
       <c r="F277" s="10"/>
     </row>
-    <row r="278" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A278" s="13" t="str">
         <f>IF(ISBLANK(B278),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4170,7 +4225,7 @@
       <c r="E278" s="10"/>
       <c r="F278" s="10"/>
     </row>
-    <row r="279" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A279" s="13" t="str">
         <f>IF(ISBLANK(B279),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4181,7 +4236,7 @@
       <c r="E279" s="10"/>
       <c r="F279" s="10"/>
     </row>
-    <row r="280" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A280" s="13" t="str">
         <f>IF(ISBLANK(B280),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4192,7 +4247,7 @@
       <c r="E280" s="10"/>
       <c r="F280" s="10"/>
     </row>
-    <row r="281" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A281" s="13" t="str">
         <f>IF(ISBLANK(B281),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4203,7 +4258,7 @@
       <c r="E281" s="10"/>
       <c r="F281" s="10"/>
     </row>
-    <row r="282" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A282" s="13" t="str">
         <f>IF(ISBLANK(B282),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4214,7 +4269,7 @@
       <c r="E282" s="10"/>
       <c r="F282" s="10"/>
     </row>
-    <row r="283" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A283" s="13" t="str">
         <f>IF(ISBLANK(B283),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4225,7 +4280,7 @@
       <c r="E283" s="10"/>
       <c r="F283" s="10"/>
     </row>
-    <row r="284" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A284" s="13" t="str">
         <f>IF(ISBLANK(B284),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4236,7 +4291,7 @@
       <c r="E284" s="10"/>
       <c r="F284" s="10"/>
     </row>
-    <row r="285" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A285" s="13" t="str">
         <f>IF(ISBLANK(B285),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4247,7 +4302,7 @@
       <c r="E285" s="10"/>
       <c r="F285" s="10"/>
     </row>
-    <row r="286" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A286" s="13" t="str">
         <f>IF(ISBLANK(B286),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4258,7 +4313,7 @@
       <c r="E286" s="10"/>
       <c r="F286" s="10"/>
     </row>
-    <row r="287" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A287" s="13" t="str">
         <f>IF(ISBLANK(B287),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4269,7 +4324,7 @@
       <c r="E287" s="10"/>
       <c r="F287" s="10"/>
     </row>
-    <row r="288" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A288" s="13" t="str">
         <f>IF(ISBLANK(B288),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4280,7 +4335,7 @@
       <c r="E288" s="10"/>
       <c r="F288" s="10"/>
     </row>
-    <row r="289" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A289" s="13" t="str">
         <f>IF(ISBLANK(B289),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4291,7 +4346,7 @@
       <c r="E289" s="10"/>
       <c r="F289" s="10"/>
     </row>
-    <row r="290" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A290" s="13" t="str">
         <f>IF(ISBLANK(B290),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4302,7 +4357,7 @@
       <c r="E290" s="10"/>
       <c r="F290" s="10"/>
     </row>
-    <row r="291" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A291" s="13" t="str">
         <f>IF(ISBLANK(B291),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4313,7 +4368,7 @@
       <c r="E291" s="10"/>
       <c r="F291" s="10"/>
     </row>
-    <row r="292" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A292" s="13" t="str">
         <f>IF(ISBLANK(B292),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4324,7 +4379,7 @@
       <c r="E292" s="10"/>
       <c r="F292" s="10"/>
     </row>
-    <row r="293" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A293" s="13" t="str">
         <f>IF(ISBLANK(B293),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4335,7 +4390,7 @@
       <c r="E293" s="10"/>
       <c r="F293" s="10"/>
     </row>
-    <row r="294" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A294" s="13" t="str">
         <f>IF(ISBLANK(B294),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4346,7 +4401,7 @@
       <c r="E294" s="10"/>
       <c r="F294" s="10"/>
     </row>
-    <row r="295" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A295" s="13" t="str">
         <f>IF(ISBLANK(B295),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4357,7 +4412,7 @@
       <c r="E295" s="10"/>
       <c r="F295" s="10"/>
     </row>
-    <row r="296" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A296" s="13" t="str">
         <f>IF(ISBLANK(B296),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4368,7 +4423,7 @@
       <c r="E296" s="10"/>
       <c r="F296" s="10"/>
     </row>
-    <row r="297" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A297" s="13" t="str">
         <f>IF(ISBLANK(B297),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4379,7 +4434,7 @@
       <c r="E297" s="10"/>
       <c r="F297" s="10"/>
     </row>
-    <row r="298" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A298" s="13" t="str">
         <f>IF(ISBLANK(B298),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4390,7 +4445,7 @@
       <c r="E298" s="10"/>
       <c r="F298" s="10"/>
     </row>
-    <row r="299" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A299" s="13" t="str">
         <f>IF(ISBLANK(B299),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4401,7 +4456,7 @@
       <c r="E299" s="10"/>
       <c r="F299" s="10"/>
     </row>
-    <row r="300" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A300" s="13" t="str">
         <f>IF(ISBLANK(B300),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4412,7 +4467,7 @@
       <c r="E300" s="10"/>
       <c r="F300" s="10"/>
     </row>
-    <row r="301" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A301" s="13" t="str">
         <f>IF(ISBLANK(B301),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4423,7 +4478,7 @@
       <c r="E301" s="10"/>
       <c r="F301" s="10"/>
     </row>
-    <row r="302" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A302" s="13" t="str">
         <f>IF(ISBLANK(B302),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4434,7 +4489,7 @@
       <c r="E302" s="10"/>
       <c r="F302" s="10"/>
     </row>
-    <row r="303" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A303" s="13" t="str">
         <f>IF(ISBLANK(B303),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4445,7 +4500,7 @@
       <c r="E303" s="10"/>
       <c r="F303" s="10"/>
     </row>
-    <row r="304" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A304" s="13" t="str">
         <f>IF(ISBLANK(B304),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4456,7 +4511,7 @@
       <c r="E304" s="10"/>
       <c r="F304" s="10"/>
     </row>
-    <row r="305" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A305" s="13" t="str">
         <f>IF(ISBLANK(B305),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4467,7 +4522,7 @@
       <c r="E305" s="10"/>
       <c r="F305" s="10"/>
     </row>
-    <row r="306" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A306" s="13" t="str">
         <f>IF(ISBLANK(B306),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4478,7 +4533,7 @@
       <c r="E306" s="10"/>
       <c r="F306" s="10"/>
     </row>
-    <row r="307" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A307" s="13" t="str">
         <f>IF(ISBLANK(B307),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4489,7 +4544,7 @@
       <c r="E307" s="10"/>
       <c r="F307" s="10"/>
     </row>
-    <row r="308" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A308" s="13" t="str">
         <f>IF(ISBLANK(B308),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4500,7 +4555,7 @@
       <c r="E308" s="10"/>
       <c r="F308" s="10"/>
     </row>
-    <row r="309" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A309" s="13" t="str">
         <f>IF(ISBLANK(B309),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4511,7 +4566,7 @@
       <c r="E309" s="10"/>
       <c r="F309" s="10"/>
     </row>
-    <row r="310" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A310" s="13" t="str">
         <f>IF(ISBLANK(B310),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4522,7 +4577,7 @@
       <c r="E310" s="10"/>
       <c r="F310" s="10"/>
     </row>
-    <row r="311" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A311" s="13" t="str">
         <f>IF(ISBLANK(B311),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4533,7 +4588,7 @@
       <c r="E311" s="10"/>
       <c r="F311" s="10"/>
     </row>
-    <row r="312" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A312" s="13" t="str">
         <f>IF(ISBLANK(B312),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4544,7 +4599,7 @@
       <c r="E312" s="10"/>
       <c r="F312" s="10"/>
     </row>
-    <row r="313" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A313" s="13" t="str">
         <f>IF(ISBLANK(B313),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4555,7 +4610,7 @@
       <c r="E313" s="10"/>
       <c r="F313" s="10"/>
     </row>
-    <row r="314" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A314" s="13" t="str">
         <f>IF(ISBLANK(B314),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4566,7 +4621,7 @@
       <c r="E314" s="10"/>
       <c r="F314" s="10"/>
     </row>
-    <row r="315" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A315" s="13" t="str">
         <f>IF(ISBLANK(B315),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4577,7 +4632,7 @@
       <c r="E315" s="10"/>
       <c r="F315" s="10"/>
     </row>
-    <row r="316" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A316" s="13" t="str">
         <f>IF(ISBLANK(B316),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4588,7 +4643,7 @@
       <c r="E316" s="10"/>
       <c r="F316" s="10"/>
     </row>
-    <row r="317" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A317" s="13" t="str">
         <f>IF(ISBLANK(B317),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4599,7 +4654,7 @@
       <c r="E317" s="10"/>
       <c r="F317" s="10"/>
     </row>
-    <row r="318" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A318" s="13" t="str">
         <f>IF(ISBLANK(B318),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4610,7 +4665,7 @@
       <c r="E318" s="10"/>
       <c r="F318" s="10"/>
     </row>
-    <row r="319" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A319" s="13" t="str">
         <f>IF(ISBLANK(B319),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4621,7 +4676,7 @@
       <c r="E319" s="10"/>
       <c r="F319" s="10"/>
     </row>
-    <row r="320" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A320" s="13" t="str">
         <f>IF(ISBLANK(B320),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4632,7 +4687,7 @@
       <c r="E320" s="10"/>
       <c r="F320" s="10"/>
     </row>
-    <row r="321" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A321" s="13" t="str">
         <f>IF(ISBLANK(B321),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4643,7 +4698,7 @@
       <c r="E321" s="10"/>
       <c r="F321" s="10"/>
     </row>
-    <row r="322" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A322" s="13" t="str">
         <f>IF(ISBLANK(B322),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4654,7 +4709,7 @@
       <c r="E322" s="10"/>
       <c r="F322" s="10"/>
     </row>
-    <row r="323" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A323" s="13" t="str">
         <f>IF(ISBLANK(B323),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4665,7 +4720,7 @@
       <c r="E323" s="10"/>
       <c r="F323" s="10"/>
     </row>
-    <row r="324" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A324" s="13" t="str">
         <f>IF(ISBLANK(B324),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4676,7 +4731,7 @@
       <c r="E324" s="10"/>
       <c r="F324" s="10"/>
     </row>
-    <row r="325" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A325" s="13" t="str">
         <f>IF(ISBLANK(B325),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4687,7 +4742,7 @@
       <c r="E325" s="10"/>
       <c r="F325" s="10"/>
     </row>
-    <row r="326" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A326" s="13" t="str">
         <f>IF(ISBLANK(B326),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4698,7 +4753,7 @@
       <c r="E326" s="10"/>
       <c r="F326" s="10"/>
     </row>
-    <row r="327" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A327" s="13" t="str">
         <f>IF(ISBLANK(B327),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4709,7 +4764,7 @@
       <c r="E327" s="10"/>
       <c r="F327" s="10"/>
     </row>
-    <row r="328" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A328" s="13" t="str">
         <f>IF(ISBLANK(B328),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4720,7 +4775,7 @@
       <c r="E328" s="10"/>
       <c r="F328" s="10"/>
     </row>
-    <row r="329" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A329" s="13" t="str">
         <f>IF(ISBLANK(B329),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4731,7 +4786,7 @@
       <c r="E329" s="10"/>
       <c r="F329" s="10"/>
     </row>
-    <row r="330" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A330" s="13" t="str">
         <f>IF(ISBLANK(B330),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4742,7 +4797,7 @@
       <c r="E330" s="10"/>
       <c r="F330" s="10"/>
     </row>
-    <row r="331" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A331" s="13" t="str">
         <f>IF(ISBLANK(B331),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4753,7 +4808,7 @@
       <c r="E331" s="10"/>
       <c r="F331" s="10"/>
     </row>
-    <row r="332" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A332" s="13" t="str">
         <f>IF(ISBLANK(B332),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4764,7 +4819,7 @@
       <c r="E332" s="10"/>
       <c r="F332" s="10"/>
     </row>
-    <row r="333" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A333" s="13" t="str">
         <f>IF(ISBLANK(B333),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4775,7 +4830,7 @@
       <c r="E333" s="10"/>
       <c r="F333" s="10"/>
     </row>
-    <row r="334" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A334" s="13" t="str">
         <f>IF(ISBLANK(B334),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4786,7 +4841,7 @@
       <c r="E334" s="10"/>
       <c r="F334" s="10"/>
     </row>
-    <row r="335" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A335" s="13" t="str">
         <f>IF(ISBLANK(B335),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4797,7 +4852,7 @@
       <c r="E335" s="10"/>
       <c r="F335" s="10"/>
     </row>
-    <row r="336" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A336" s="13" t="str">
         <f>IF(ISBLANK(B336),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4808,7 +4863,7 @@
       <c r="E336" s="10"/>
       <c r="F336" s="10"/>
     </row>
-    <row r="337" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A337" s="13" t="str">
         <f>IF(ISBLANK(B337),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4819,7 +4874,7 @@
       <c r="E337" s="10"/>
       <c r="F337" s="10"/>
     </row>
-    <row r="338" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A338" s="13" t="str">
         <f>IF(ISBLANK(B338),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4830,7 +4885,7 @@
       <c r="E338" s="10"/>
       <c r="F338" s="10"/>
     </row>
-    <row r="339" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A339" s="13" t="str">
         <f>IF(ISBLANK(B339),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4841,7 +4896,7 @@
       <c r="E339" s="10"/>
       <c r="F339" s="10"/>
     </row>
-    <row r="340" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A340" s="13" t="str">
         <f>IF(ISBLANK(B340),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4852,7 +4907,7 @@
       <c r="E340" s="10"/>
       <c r="F340" s="10"/>
     </row>
-    <row r="341" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A341" s="13" t="str">
         <f>IF(ISBLANK(B341),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4863,7 +4918,7 @@
       <c r="E341" s="10"/>
       <c r="F341" s="10"/>
     </row>
-    <row r="342" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A342" s="13" t="str">
         <f>IF(ISBLANK(B342),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4874,7 +4929,7 @@
       <c r="E342" s="10"/>
       <c r="F342" s="10"/>
     </row>
-    <row r="343" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A343" s="13" t="str">
         <f>IF(ISBLANK(B343),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4885,7 +4940,7 @@
       <c r="E343" s="10"/>
       <c r="F343" s="10"/>
     </row>
-    <row r="344" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A344" s="13" t="str">
         <f>IF(ISBLANK(B344),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4896,7 +4951,7 @@
       <c r="E344" s="10"/>
       <c r="F344" s="10"/>
     </row>
-    <row r="345" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A345" s="13" t="str">
         <f>IF(ISBLANK(B345),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4907,7 +4962,7 @@
       <c r="E345" s="10"/>
       <c r="F345" s="10"/>
     </row>
-    <row r="346" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A346" s="13" t="str">
         <f>IF(ISBLANK(B346),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4918,7 +4973,7 @@
       <c r="E346" s="10"/>
       <c r="F346" s="10"/>
     </row>
-    <row r="347" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A347" s="13" t="str">
         <f>IF(ISBLANK(B347),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4929,7 +4984,7 @@
       <c r="E347" s="10"/>
       <c r="F347" s="10"/>
     </row>
-    <row r="348" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A348" s="13" t="str">
         <f>IF(ISBLANK(B348),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4940,7 +4995,7 @@
       <c r="E348" s="10"/>
       <c r="F348" s="10"/>
     </row>
-    <row r="349" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A349" s="13" t="str">
         <f>IF(ISBLANK(B349),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4951,7 +5006,7 @@
       <c r="E349" s="10"/>
       <c r="F349" s="10"/>
     </row>
-    <row r="350" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A350" s="13" t="str">
         <f>IF(ISBLANK(B350),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4962,7 +5017,7 @@
       <c r="E350" s="10"/>
       <c r="F350" s="10"/>
     </row>
-    <row r="351" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A351" s="13" t="str">
         <f>IF(ISBLANK(B351),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4973,7 +5028,7 @@
       <c r="E351" s="10"/>
       <c r="F351" s="10"/>
     </row>
-    <row r="352" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A352" s="13" t="str">
         <f>IF(ISBLANK(B352),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4984,7 +5039,7 @@
       <c r="E352" s="10"/>
       <c r="F352" s="10"/>
     </row>
-    <row r="353" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A353" s="13" t="str">
         <f>IF(ISBLANK(B353),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -4995,7 +5050,7 @@
       <c r="E353" s="10"/>
       <c r="F353" s="10"/>
     </row>
-    <row r="354" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A354" s="13" t="str">
         <f>IF(ISBLANK(B354),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5006,7 +5061,7 @@
       <c r="E354" s="10"/>
       <c r="F354" s="10"/>
     </row>
-    <row r="355" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A355" s="13" t="str">
         <f>IF(ISBLANK(B355),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5017,7 +5072,7 @@
       <c r="E355" s="10"/>
       <c r="F355" s="10"/>
     </row>
-    <row r="356" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A356" s="13" t="str">
         <f>IF(ISBLANK(B356),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5028,7 +5083,7 @@
       <c r="E356" s="10"/>
       <c r="F356" s="10"/>
     </row>
-    <row r="357" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A357" s="13" t="str">
         <f>IF(ISBLANK(B357),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5039,7 +5094,7 @@
       <c r="E357" s="10"/>
       <c r="F357" s="10"/>
     </row>
-    <row r="358" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A358" s="13" t="str">
         <f>IF(ISBLANK(B358),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5050,7 +5105,7 @@
       <c r="E358" s="10"/>
       <c r="F358" s="10"/>
     </row>
-    <row r="359" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A359" s="13" t="str">
         <f>IF(ISBLANK(B359),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5061,7 +5116,7 @@
       <c r="E359" s="10"/>
       <c r="F359" s="10"/>
     </row>
-    <row r="360" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A360" s="13" t="str">
         <f>IF(ISBLANK(B360),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5072,7 +5127,7 @@
       <c r="E360" s="10"/>
       <c r="F360" s="10"/>
     </row>
-    <row r="361" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A361" s="13" t="str">
         <f>IF(ISBLANK(B361),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5083,7 +5138,7 @@
       <c r="E361" s="10"/>
       <c r="F361" s="10"/>
     </row>
-    <row r="362" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A362" s="13" t="str">
         <f>IF(ISBLANK(B362),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5094,7 +5149,7 @@
       <c r="E362" s="10"/>
       <c r="F362" s="10"/>
     </row>
-    <row r="363" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A363" s="13" t="str">
         <f>IF(ISBLANK(B363),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5105,7 +5160,7 @@
       <c r="E363" s="10"/>
       <c r="F363" s="10"/>
     </row>
-    <row r="364" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A364" s="13" t="str">
         <f>IF(ISBLANK(B364),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5116,7 +5171,7 @@
       <c r="E364" s="10"/>
       <c r="F364" s="10"/>
     </row>
-    <row r="365" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A365" s="13" t="str">
         <f>IF(ISBLANK(B365),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5127,7 +5182,7 @@
       <c r="E365" s="10"/>
       <c r="F365" s="10"/>
     </row>
-    <row r="366" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A366" s="13" t="str">
         <f>IF(ISBLANK(B366),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5138,7 +5193,7 @@
       <c r="E366" s="10"/>
       <c r="F366" s="10"/>
     </row>
-    <row r="367" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A367" s="13" t="str">
         <f>IF(ISBLANK(B367),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5149,7 +5204,7 @@
       <c r="E367" s="10"/>
       <c r="F367" s="10"/>
     </row>
-    <row r="368" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A368" s="13" t="str">
         <f>IF(ISBLANK(B368),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5160,7 +5215,7 @@
       <c r="E368" s="10"/>
       <c r="F368" s="10"/>
     </row>
-    <row r="369" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A369" s="13" t="str">
         <f>IF(ISBLANK(B369),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5171,7 +5226,7 @@
       <c r="E369" s="10"/>
       <c r="F369" s="10"/>
     </row>
-    <row r="370" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A370" s="13" t="str">
         <f>IF(ISBLANK(B370),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5182,7 +5237,7 @@
       <c r="E370" s="10"/>
       <c r="F370" s="10"/>
     </row>
-    <row r="371" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A371" s="13" t="str">
         <f>IF(ISBLANK(B371),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5193,7 +5248,7 @@
       <c r="E371" s="10"/>
       <c r="F371" s="10"/>
     </row>
-    <row r="372" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A372" s="13" t="str">
         <f>IF(ISBLANK(B372),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5204,7 +5259,7 @@
       <c r="E372" s="10"/>
       <c r="F372" s="10"/>
     </row>
-    <row r="373" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A373" s="13" t="str">
         <f>IF(ISBLANK(B373),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5215,7 +5270,7 @@
       <c r="E373" s="10"/>
       <c r="F373" s="10"/>
     </row>
-    <row r="374" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A374" s="13" t="str">
         <f>IF(ISBLANK(B374),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5226,7 +5281,7 @@
       <c r="E374" s="10"/>
       <c r="F374" s="10"/>
     </row>
-    <row r="375" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A375" s="13" t="str">
         <f>IF(ISBLANK(B375),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5237,7 +5292,7 @@
       <c r="E375" s="10"/>
       <c r="F375" s="10"/>
     </row>
-    <row r="376" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A376" s="13" t="str">
         <f>IF(ISBLANK(B376),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5248,7 +5303,7 @@
       <c r="E376" s="10"/>
       <c r="F376" s="10"/>
     </row>
-    <row r="377" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A377" s="13" t="str">
         <f>IF(ISBLANK(B377),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5259,7 +5314,7 @@
       <c r="E377" s="10"/>
       <c r="F377" s="10"/>
     </row>
-    <row r="378" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A378" s="13" t="str">
         <f>IF(ISBLANK(B378),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5270,7 +5325,7 @@
       <c r="E378" s="10"/>
       <c r="F378" s="10"/>
     </row>
-    <row r="379" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A379" s="13" t="str">
         <f>IF(ISBLANK(B379),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5281,7 +5336,7 @@
       <c r="E379" s="10"/>
       <c r="F379" s="10"/>
     </row>
-    <row r="380" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A380" s="13" t="str">
         <f>IF(ISBLANK(B380),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5292,7 +5347,7 @@
       <c r="E380" s="10"/>
       <c r="F380" s="10"/>
     </row>
-    <row r="381" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A381" s="13" t="str">
         <f>IF(ISBLANK(B381),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5303,7 +5358,7 @@
       <c r="E381" s="10"/>
       <c r="F381" s="10"/>
     </row>
-    <row r="382" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A382" s="13" t="str">
         <f>IF(ISBLANK(B382),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5314,7 +5369,7 @@
       <c r="E382" s="10"/>
       <c r="F382" s="10"/>
     </row>
-    <row r="383" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A383" s="13" t="str">
         <f>IF(ISBLANK(B383),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5325,7 +5380,7 @@
       <c r="E383" s="10"/>
       <c r="F383" s="10"/>
     </row>
-    <row r="384" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A384" s="13" t="str">
         <f>IF(ISBLANK(B384),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5336,7 +5391,7 @@
       <c r="E384" s="10"/>
       <c r="F384" s="10"/>
     </row>
-    <row r="385" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A385" s="13" t="str">
         <f>IF(ISBLANK(B385),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5347,7 +5402,7 @@
       <c r="E385" s="10"/>
       <c r="F385" s="10"/>
     </row>
-    <row r="386" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A386" s="13" t="str">
         <f>IF(ISBLANK(B386),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5358,7 +5413,7 @@
       <c r="E386" s="10"/>
       <c r="F386" s="10"/>
     </row>
-    <row r="387" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A387" s="13" t="str">
         <f>IF(ISBLANK(B387),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5369,7 +5424,7 @@
       <c r="E387" s="10"/>
       <c r="F387" s="10"/>
     </row>
-    <row r="388" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A388" s="13" t="str">
         <f>IF(ISBLANK(B388),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5380,7 +5435,7 @@
       <c r="E388" s="10"/>
       <c r="F388" s="10"/>
     </row>
-    <row r="389" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A389" s="13" t="str">
         <f>IF(ISBLANK(B389),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5391,7 +5446,7 @@
       <c r="E389" s="10"/>
       <c r="F389" s="10"/>
     </row>
-    <row r="390" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A390" s="13" t="str">
         <f>IF(ISBLANK(B390),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5402,7 +5457,7 @@
       <c r="E390" s="10"/>
       <c r="F390" s="10"/>
     </row>
-    <row r="391" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A391" s="13" t="str">
         <f>IF(ISBLANK(B391),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5413,7 +5468,7 @@
       <c r="E391" s="10"/>
       <c r="F391" s="10"/>
     </row>
-    <row r="392" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A392" s="13" t="str">
         <f>IF(ISBLANK(B392),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5424,7 +5479,7 @@
       <c r="E392" s="10"/>
       <c r="F392" s="10"/>
     </row>
-    <row r="393" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A393" s="13" t="str">
         <f>IF(ISBLANK(B393),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5435,7 +5490,7 @@
       <c r="E393" s="10"/>
       <c r="F393" s="10"/>
     </row>
-    <row r="394" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A394" s="13" t="str">
         <f>IF(ISBLANK(B394),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5446,7 +5501,7 @@
       <c r="E394" s="10"/>
       <c r="F394" s="10"/>
     </row>
-    <row r="395" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A395" s="13" t="str">
         <f>IF(ISBLANK(B395),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5457,7 +5512,7 @@
       <c r="E395" s="10"/>
       <c r="F395" s="10"/>
     </row>
-    <row r="396" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A396" s="13" t="str">
         <f>IF(ISBLANK(B396),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5468,7 +5523,7 @@
       <c r="E396" s="10"/>
       <c r="F396" s="10"/>
     </row>
-    <row r="397" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A397" s="13" t="str">
         <f>IF(ISBLANK(B397),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5479,7 +5534,7 @@
       <c r="E397" s="10"/>
       <c r="F397" s="10"/>
     </row>
-    <row r="398" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A398" s="13" t="str">
         <f>IF(ISBLANK(B398),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5490,7 +5545,7 @@
       <c r="E398" s="10"/>
       <c r="F398" s="10"/>
     </row>
-    <row r="399" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A399" s="13" t="str">
         <f>IF(ISBLANK(B399),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5501,7 +5556,7 @@
       <c r="E399" s="10"/>
       <c r="F399" s="10"/>
     </row>
-    <row r="400" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A400" s="13" t="str">
         <f>IF(ISBLANK(B400),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5512,7 +5567,7 @@
       <c r="E400" s="10"/>
       <c r="F400" s="10"/>
     </row>
-    <row r="401" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A401" s="13" t="str">
         <f>IF(ISBLANK(B401),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5523,7 +5578,7 @@
       <c r="E401" s="10"/>
       <c r="F401" s="10"/>
     </row>
-    <row r="402" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A402" s="13" t="str">
         <f>IF(ISBLANK(B402),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5534,7 +5589,7 @@
       <c r="E402" s="10"/>
       <c r="F402" s="10"/>
     </row>
-    <row r="403" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A403" s="13" t="str">
         <f>IF(ISBLANK(B403),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5545,7 +5600,7 @@
       <c r="E403" s="10"/>
       <c r="F403" s="10"/>
     </row>
-    <row r="404" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A404" s="13" t="str">
         <f>IF(ISBLANK(B404),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5556,7 +5611,7 @@
       <c r="E404" s="10"/>
       <c r="F404" s="10"/>
     </row>
-    <row r="405" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A405" s="13" t="str">
         <f>IF(ISBLANK(B405),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5567,7 +5622,7 @@
       <c r="E405" s="10"/>
       <c r="F405" s="10"/>
     </row>
-    <row r="406" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A406" s="13" t="str">
         <f>IF(ISBLANK(B406),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5578,7 +5633,7 @@
       <c r="E406" s="10"/>
       <c r="F406" s="10"/>
     </row>
-    <row r="407" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A407" s="13" t="str">
         <f>IF(ISBLANK(B407),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5589,7 +5644,7 @@
       <c r="E407" s="10"/>
       <c r="F407" s="10"/>
     </row>
-    <row r="408" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A408" s="13" t="str">
         <f>IF(ISBLANK(B408),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5600,7 +5655,7 @@
       <c r="E408" s="10"/>
       <c r="F408" s="10"/>
     </row>
-    <row r="409" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A409" s="13" t="str">
         <f>IF(ISBLANK(B409),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5611,7 +5666,7 @@
       <c r="E409" s="10"/>
       <c r="F409" s="10"/>
     </row>
-    <row r="410" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A410" s="13" t="str">
         <f>IF(ISBLANK(B410),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5622,7 +5677,7 @@
       <c r="E410" s="10"/>
       <c r="F410" s="10"/>
     </row>
-    <row r="411" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A411" s="13" t="str">
         <f>IF(ISBLANK(B411),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5633,7 +5688,7 @@
       <c r="E411" s="10"/>
       <c r="F411" s="10"/>
     </row>
-    <row r="412" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A412" s="13" t="str">
         <f>IF(ISBLANK(B412),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5644,7 +5699,7 @@
       <c r="E412" s="10"/>
       <c r="F412" s="10"/>
     </row>
-    <row r="413" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A413" s="13" t="str">
         <f>IF(ISBLANK(B413),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5655,7 +5710,7 @@
       <c r="E413" s="10"/>
       <c r="F413" s="10"/>
     </row>
-    <row r="414" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A414" s="13" t="str">
         <f>IF(ISBLANK(B414),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5666,7 +5721,7 @@
       <c r="E414" s="10"/>
       <c r="F414" s="10"/>
     </row>
-    <row r="415" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A415" s="13" t="str">
         <f>IF(ISBLANK(B415),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5677,7 +5732,7 @@
       <c r="E415" s="10"/>
       <c r="F415" s="10"/>
     </row>
-    <row r="416" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A416" s="13" t="str">
         <f>IF(ISBLANK(B416),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5688,7 +5743,7 @@
       <c r="E416" s="10"/>
       <c r="F416" s="10"/>
     </row>
-    <row r="417" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A417" s="13" t="str">
         <f>IF(ISBLANK(B417),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5699,7 +5754,7 @@
       <c r="E417" s="10"/>
       <c r="F417" s="10"/>
     </row>
-    <row r="418" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A418" s="13" t="str">
         <f>IF(ISBLANK(B418),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5710,7 +5765,7 @@
       <c r="E418" s="10"/>
       <c r="F418" s="10"/>
     </row>
-    <row r="419" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A419" s="13" t="str">
         <f>IF(ISBLANK(B419),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5721,7 +5776,7 @@
       <c r="E419" s="10"/>
       <c r="F419" s="10"/>
     </row>
-    <row r="420" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A420" s="13" t="str">
         <f>IF(ISBLANK(B420),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5732,7 +5787,7 @@
       <c r="E420" s="10"/>
       <c r="F420" s="10"/>
     </row>
-    <row r="421" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A421" s="13" t="str">
         <f>IF(ISBLANK(B421),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5743,7 +5798,7 @@
       <c r="E421" s="10"/>
       <c r="F421" s="10"/>
     </row>
-    <row r="422" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A422" s="13" t="str">
         <f>IF(ISBLANK(B422),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5754,7 +5809,7 @@
       <c r="E422" s="10"/>
       <c r="F422" s="10"/>
     </row>
-    <row r="423" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A423" s="13" t="str">
         <f>IF(ISBLANK(B423),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5765,7 +5820,7 @@
       <c r="E423" s="10"/>
       <c r="F423" s="10"/>
     </row>
-    <row r="424" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A424" s="13" t="str">
         <f>IF(ISBLANK(B424),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5776,7 +5831,7 @@
       <c r="E424" s="10"/>
       <c r="F424" s="10"/>
     </row>
-    <row r="425" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A425" s="13" t="str">
         <f>IF(ISBLANK(B425),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5787,7 +5842,7 @@
       <c r="E425" s="10"/>
       <c r="F425" s="10"/>
     </row>
-    <row r="426" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A426" s="13" t="str">
         <f>IF(ISBLANK(B426),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5798,7 +5853,7 @@
       <c r="E426" s="10"/>
       <c r="F426" s="10"/>
     </row>
-    <row r="427" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A427" s="13" t="str">
         <f>IF(ISBLANK(B427),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5809,7 +5864,7 @@
       <c r="E427" s="10"/>
       <c r="F427" s="10"/>
     </row>
-    <row r="428" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A428" s="13" t="str">
         <f>IF(ISBLANK(B428),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5820,7 +5875,7 @@
       <c r="E428" s="10"/>
       <c r="F428" s="10"/>
     </row>
-    <row r="429" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A429" s="13" t="str">
         <f>IF(ISBLANK(B429),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5831,7 +5886,7 @@
       <c r="E429" s="10"/>
       <c r="F429" s="10"/>
     </row>
-    <row r="430" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A430" s="13" t="str">
         <f>IF(ISBLANK(B430),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5842,7 +5897,7 @@
       <c r="E430" s="10"/>
       <c r="F430" s="10"/>
     </row>
-    <row r="431" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A431" s="13" t="str">
         <f>IF(ISBLANK(B431),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5853,7 +5908,7 @@
       <c r="E431" s="10"/>
       <c r="F431" s="10"/>
     </row>
-    <row r="432" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A432" s="13" t="str">
         <f>IF(ISBLANK(B432),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5864,7 +5919,7 @@
       <c r="E432" s="10"/>
       <c r="F432" s="10"/>
     </row>
-    <row r="433" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A433" s="13" t="str">
         <f>IF(ISBLANK(B433),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5875,7 +5930,7 @@
       <c r="E433" s="10"/>
       <c r="F433" s="10"/>
     </row>
-    <row r="434" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A434" s="13" t="str">
         <f>IF(ISBLANK(B434),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5886,7 +5941,7 @@
       <c r="E434" s="10"/>
       <c r="F434" s="10"/>
     </row>
-    <row r="435" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A435" s="13" t="str">
         <f>IF(ISBLANK(B435),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5897,7 +5952,7 @@
       <c r="E435" s="10"/>
       <c r="F435" s="10"/>
     </row>
-    <row r="436" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A436" s="13" t="str">
         <f>IF(ISBLANK(B436),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5908,7 +5963,7 @@
       <c r="E436" s="10"/>
       <c r="F436" s="10"/>
     </row>
-    <row r="437" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A437" s="13" t="str">
         <f>IF(ISBLANK(B437),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5919,7 +5974,7 @@
       <c r="E437" s="10"/>
       <c r="F437" s="10"/>
     </row>
-    <row r="438" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A438" s="13" t="str">
         <f>IF(ISBLANK(B438),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5930,7 +5985,7 @@
       <c r="E438" s="10"/>
       <c r="F438" s="10"/>
     </row>
-    <row r="439" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A439" s="13" t="str">
         <f>IF(ISBLANK(B439),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5941,7 +5996,7 @@
       <c r="E439" s="10"/>
       <c r="F439" s="10"/>
     </row>
-    <row r="440" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A440" s="13" t="str">
         <f>IF(ISBLANK(B440),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5952,7 +6007,7 @@
       <c r="E440" s="10"/>
       <c r="F440" s="10"/>
     </row>
-    <row r="441" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A441" s="13" t="str">
         <f>IF(ISBLANK(B441),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5963,7 +6018,7 @@
       <c r="E441" s="10"/>
       <c r="F441" s="10"/>
     </row>
-    <row r="442" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A442" s="13" t="str">
         <f>IF(ISBLANK(B442),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5974,7 +6029,7 @@
       <c r="E442" s="10"/>
       <c r="F442" s="10"/>
     </row>
-    <row r="443" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A443" s="13" t="str">
         <f>IF(ISBLANK(B443),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5985,7 +6040,7 @@
       <c r="E443" s="10"/>
       <c r="F443" s="10"/>
     </row>
-    <row r="444" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A444" s="13" t="str">
         <f>IF(ISBLANK(B444),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -5996,7 +6051,7 @@
       <c r="E444" s="10"/>
       <c r="F444" s="10"/>
     </row>
-    <row r="445" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A445" s="13" t="str">
         <f>IF(ISBLANK(B445),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6007,7 +6062,7 @@
       <c r="E445" s="10"/>
       <c r="F445" s="10"/>
     </row>
-    <row r="446" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A446" s="13" t="str">
         <f>IF(ISBLANK(B446),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6018,7 +6073,7 @@
       <c r="E446" s="10"/>
       <c r="F446" s="10"/>
     </row>
-    <row r="447" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A447" s="13" t="str">
         <f>IF(ISBLANK(B447),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6029,7 +6084,7 @@
       <c r="E447" s="10"/>
       <c r="F447" s="10"/>
     </row>
-    <row r="448" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A448" s="13" t="str">
         <f>IF(ISBLANK(B448),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6040,7 +6095,7 @@
       <c r="E448" s="10"/>
       <c r="F448" s="10"/>
     </row>
-    <row r="449" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A449" s="13" t="str">
         <f>IF(ISBLANK(B449),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6051,7 +6106,7 @@
       <c r="E449" s="10"/>
       <c r="F449" s="10"/>
     </row>
-    <row r="450" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A450" s="13" t="str">
         <f>IF(ISBLANK(B450),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6062,7 +6117,7 @@
       <c r="E450" s="10"/>
       <c r="F450" s="10"/>
     </row>
-    <row r="451" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A451" s="13" t="str">
         <f>IF(ISBLANK(B451),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6073,7 +6128,7 @@
       <c r="E451" s="10"/>
       <c r="F451" s="10"/>
     </row>
-    <row r="452" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A452" s="13" t="str">
         <f>IF(ISBLANK(B452),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6084,7 +6139,7 @@
       <c r="E452" s="10"/>
       <c r="F452" s="10"/>
     </row>
-    <row r="453" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A453" s="13" t="str">
         <f>IF(ISBLANK(B453),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6095,7 +6150,7 @@
       <c r="E453" s="10"/>
       <c r="F453" s="10"/>
     </row>
-    <row r="454" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A454" s="13" t="str">
         <f>IF(ISBLANK(B454),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6106,7 +6161,7 @@
       <c r="E454" s="10"/>
       <c r="F454" s="10"/>
     </row>
-    <row r="455" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A455" s="13" t="str">
         <f>IF(ISBLANK(B455),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6117,7 +6172,7 @@
       <c r="E455" s="10"/>
       <c r="F455" s="10"/>
     </row>
-    <row r="456" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A456" s="13" t="str">
         <f>IF(ISBLANK(B456),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6128,7 +6183,7 @@
       <c r="E456" s="10"/>
       <c r="F456" s="10"/>
     </row>
-    <row r="457" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A457" s="13" t="str">
         <f>IF(ISBLANK(B457),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6139,7 +6194,7 @@
       <c r="E457" s="10"/>
       <c r="F457" s="10"/>
     </row>
-    <row r="458" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A458" s="13" t="str">
         <f>IF(ISBLANK(B458),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6150,7 +6205,7 @@
       <c r="E458" s="10"/>
       <c r="F458" s="10"/>
     </row>
-    <row r="459" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A459" s="13" t="str">
         <f>IF(ISBLANK(B459),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6161,7 +6216,7 @@
       <c r="E459" s="10"/>
       <c r="F459" s="10"/>
     </row>
-    <row r="460" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A460" s="13" t="str">
         <f>IF(ISBLANK(B460),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6172,7 +6227,7 @@
       <c r="E460" s="10"/>
       <c r="F460" s="10"/>
     </row>
-    <row r="461" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A461" s="13" t="str">
         <f>IF(ISBLANK(B461),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6183,7 +6238,7 @@
       <c r="E461" s="10"/>
       <c r="F461" s="10"/>
     </row>
-    <row r="462" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A462" s="13" t="str">
         <f>IF(ISBLANK(B462),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6194,7 +6249,7 @@
       <c r="E462" s="10"/>
       <c r="F462" s="10"/>
     </row>
-    <row r="463" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A463" s="13" t="str">
         <f>IF(ISBLANK(B463),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6205,7 +6260,7 @@
       <c r="E463" s="10"/>
       <c r="F463" s="10"/>
     </row>
-    <row r="464" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A464" s="13" t="str">
         <f>IF(ISBLANK(B464),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6216,7 +6271,7 @@
       <c r="E464" s="10"/>
       <c r="F464" s="10"/>
     </row>
-    <row r="465" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A465" s="13" t="str">
         <f>IF(ISBLANK(B465),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6227,7 +6282,7 @@
       <c r="E465" s="10"/>
       <c r="F465" s="10"/>
     </row>
-    <row r="466" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A466" s="13" t="str">
         <f>IF(ISBLANK(B466),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6238,7 +6293,7 @@
       <c r="E466" s="10"/>
       <c r="F466" s="10"/>
     </row>
-    <row r="467" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A467" s="13" t="str">
         <f>IF(ISBLANK(B467),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6249,7 +6304,7 @@
       <c r="E467" s="10"/>
       <c r="F467" s="10"/>
     </row>
-    <row r="468" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A468" s="13" t="str">
         <f>IF(ISBLANK(B468),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6260,7 +6315,7 @@
       <c r="E468" s="10"/>
       <c r="F468" s="10"/>
     </row>
-    <row r="469" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A469" s="13" t="str">
         <f>IF(ISBLANK(B469),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6271,7 +6326,7 @@
       <c r="E469" s="10"/>
       <c r="F469" s="10"/>
     </row>
-    <row r="470" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A470" s="13" t="str">
         <f>IF(ISBLANK(B470),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6282,7 +6337,7 @@
       <c r="E470" s="10"/>
       <c r="F470" s="10"/>
     </row>
-    <row r="471" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A471" s="13" t="str">
         <f>IF(ISBLANK(B471),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6293,7 +6348,7 @@
       <c r="E471" s="10"/>
       <c r="F471" s="10"/>
     </row>
-    <row r="472" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A472" s="13" t="str">
         <f>IF(ISBLANK(B472),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6304,7 +6359,7 @@
       <c r="E472" s="10"/>
       <c r="F472" s="10"/>
     </row>
-    <row r="473" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A473" s="13" t="str">
         <f>IF(ISBLANK(B473),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6315,7 +6370,7 @@
       <c r="E473" s="10"/>
       <c r="F473" s="10"/>
     </row>
-    <row r="474" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A474" s="13" t="str">
         <f>IF(ISBLANK(B474),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6326,7 +6381,7 @@
       <c r="E474" s="10"/>
       <c r="F474" s="10"/>
     </row>
-    <row r="475" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A475" s="13" t="str">
         <f>IF(ISBLANK(B475),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6337,7 +6392,7 @@
       <c r="E475" s="10"/>
       <c r="F475" s="10"/>
     </row>
-    <row r="476" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A476" s="13" t="str">
         <f>IF(ISBLANK(B476),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6348,7 +6403,7 @@
       <c r="E476" s="10"/>
       <c r="F476" s="10"/>
     </row>
-    <row r="477" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A477" s="13" t="str">
         <f>IF(ISBLANK(B477),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6359,7 +6414,7 @@
       <c r="E477" s="10"/>
       <c r="F477" s="10"/>
     </row>
-    <row r="478" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A478" s="13" t="str">
         <f>IF(ISBLANK(B478),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6370,7 +6425,7 @@
       <c r="E478" s="10"/>
       <c r="F478" s="10"/>
     </row>
-    <row r="479" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A479" s="13" t="str">
         <f>IF(ISBLANK(B479),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6381,7 +6436,7 @@
       <c r="E479" s="10"/>
       <c r="F479" s="10"/>
     </row>
-    <row r="480" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A480" s="13" t="str">
         <f>IF(ISBLANK(B480),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6392,7 +6447,7 @@
       <c r="E480" s="10"/>
       <c r="F480" s="10"/>
     </row>
-    <row r="481" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A481" s="13" t="str">
         <f>IF(ISBLANK(B481),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6403,7 +6458,7 @@
       <c r="E481" s="10"/>
       <c r="F481" s="10"/>
     </row>
-    <row r="482" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A482" s="13" t="str">
         <f>IF(ISBLANK(B482),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6414,7 +6469,7 @@
       <c r="E482" s="10"/>
       <c r="F482" s="10"/>
     </row>
-    <row r="483" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A483" s="13" t="str">
         <f>IF(ISBLANK(B483),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6425,7 +6480,7 @@
       <c r="E483" s="10"/>
       <c r="F483" s="10"/>
     </row>
-    <row r="484" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A484" s="13" t="str">
         <f>IF(ISBLANK(B484),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6436,7 +6491,7 @@
       <c r="E484" s="10"/>
       <c r="F484" s="10"/>
     </row>
-    <row r="485" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A485" s="13" t="str">
         <f>IF(ISBLANK(B485),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6447,7 +6502,7 @@
       <c r="E485" s="10"/>
       <c r="F485" s="10"/>
     </row>
-    <row r="486" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A486" s="13" t="str">
         <f>IF(ISBLANK(B486),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6458,7 +6513,7 @@
       <c r="E486" s="10"/>
       <c r="F486" s="10"/>
     </row>
-    <row r="487" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A487" s="13" t="str">
         <f>IF(ISBLANK(B487),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6469,7 +6524,7 @@
       <c r="E487" s="10"/>
       <c r="F487" s="10"/>
     </row>
-    <row r="488" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A488" s="13" t="str">
         <f>IF(ISBLANK(B488),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6480,7 +6535,7 @@
       <c r="E488" s="10"/>
       <c r="F488" s="10"/>
     </row>
-    <row r="489" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A489" s="13" t="str">
         <f>IF(ISBLANK(B489),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6491,7 +6546,7 @@
       <c r="E489" s="10"/>
       <c r="F489" s="10"/>
     </row>
-    <row r="490" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A490" s="13" t="str">
         <f>IF(ISBLANK(B490),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6502,7 +6557,7 @@
       <c r="E490" s="10"/>
       <c r="F490" s="10"/>
     </row>
-    <row r="491" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A491" s="13" t="str">
         <f>IF(ISBLANK(B491),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6513,7 +6568,7 @@
       <c r="E491" s="10"/>
       <c r="F491" s="10"/>
     </row>
-    <row r="492" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A492" s="13" t="str">
         <f>IF(ISBLANK(B492),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6524,7 +6579,7 @@
       <c r="E492" s="10"/>
       <c r="F492" s="10"/>
     </row>
-    <row r="493" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A493" s="13" t="str">
         <f>IF(ISBLANK(B493),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6535,7 +6590,7 @@
       <c r="E493" s="10"/>
       <c r="F493" s="10"/>
     </row>
-    <row r="494" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A494" s="13" t="str">
         <f>IF(ISBLANK(B494),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6546,7 +6601,7 @@
       <c r="E494" s="10"/>
       <c r="F494" s="10"/>
     </row>
-    <row r="495" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A495" s="13" t="str">
         <f>IF(ISBLANK(B495),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6557,7 +6612,7 @@
       <c r="E495" s="10"/>
       <c r="F495" s="10"/>
     </row>
-    <row r="496" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A496" s="13" t="str">
         <f>IF(ISBLANK(B496),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6568,7 +6623,7 @@
       <c r="E496" s="10"/>
       <c r="F496" s="10"/>
     </row>
-    <row r="497" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A497" s="13" t="str">
         <f>IF(ISBLANK(B497),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6579,7 +6634,7 @@
       <c r="E497" s="10"/>
       <c r="F497" s="10"/>
     </row>
-    <row r="498" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A498" s="13" t="str">
         <f>IF(ISBLANK(B498),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6590,7 +6645,7 @@
       <c r="E498" s="10"/>
       <c r="F498" s="10"/>
     </row>
-    <row r="499" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A499" s="13" t="str">
         <f>IF(ISBLANK(B499),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6601,7 +6656,7 @@
       <c r="E499" s="10"/>
       <c r="F499" s="10"/>
     </row>
-    <row r="500" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A500" s="13" t="str">
         <f>IF(ISBLANK(B500),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6612,7 +6667,7 @@
       <c r="E500" s="10"/>
       <c r="F500" s="10"/>
     </row>
-    <row r="501" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A501" s="13" t="str">
         <f>IF(ISBLANK(B501),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6623,7 +6678,7 @@
       <c r="E501" s="10"/>
       <c r="F501" s="10"/>
     </row>
-    <row r="502" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A502" s="13" t="str">
         <f>IF(ISBLANK(B502),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6634,7 +6689,7 @@
       <c r="E502" s="10"/>
       <c r="F502" s="10"/>
     </row>
-    <row r="503" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A503" s="13" t="str">
         <f>IF(ISBLANK(B503),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6645,7 +6700,7 @@
       <c r="E503" s="10"/>
       <c r="F503" s="10"/>
     </row>
-    <row r="504" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A504" s="13" t="str">
         <f>IF(ISBLANK(B504),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6656,7 +6711,7 @@
       <c r="E504" s="10"/>
       <c r="F504" s="10"/>
     </row>
-    <row r="505" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A505" s="13" t="str">
         <f>IF(ISBLANK(B505),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6667,7 +6722,7 @@
       <c r="E505" s="10"/>
       <c r="F505" s="10"/>
     </row>
-    <row r="506" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A506" s="13" t="str">
         <f>IF(ISBLANK(B506),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6678,7 +6733,7 @@
       <c r="E506" s="10"/>
       <c r="F506" s="10"/>
     </row>
-    <row r="507" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A507" s="13" t="str">
         <f>IF(ISBLANK(B507),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6689,7 +6744,7 @@
       <c r="E507" s="10"/>
       <c r="F507" s="10"/>
     </row>
-    <row r="508" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A508" s="13" t="str">
         <f>IF(ISBLANK(B508),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6700,7 +6755,7 @@
       <c r="E508" s="10"/>
       <c r="F508" s="10"/>
     </row>
-    <row r="509" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A509" s="13" t="str">
         <f>IF(ISBLANK(B509),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6711,7 +6766,7 @@
       <c r="E509" s="10"/>
       <c r="F509" s="10"/>
     </row>
-    <row r="510" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A510" s="13" t="str">
         <f>IF(ISBLANK(B510),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6722,7 +6777,7 @@
       <c r="E510" s="10"/>
       <c r="F510" s="10"/>
     </row>
-    <row r="511" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A511" s="13" t="str">
         <f>IF(ISBLANK(B511),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6733,7 +6788,7 @@
       <c r="E511" s="10"/>
       <c r="F511" s="10"/>
     </row>
-    <row r="512" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A512" s="13" t="str">
         <f>IF(ISBLANK(B512),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6744,7 +6799,7 @@
       <c r="E512" s="10"/>
       <c r="F512" s="10"/>
     </row>
-    <row r="513" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A513" s="13" t="str">
         <f>IF(ISBLANK(B513),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6755,7 +6810,7 @@
       <c r="E513" s="10"/>
       <c r="F513" s="10"/>
     </row>
-    <row r="514" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A514" s="13" t="str">
         <f>IF(ISBLANK(B514),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6766,7 +6821,7 @@
       <c r="E514" s="10"/>
       <c r="F514" s="10"/>
     </row>
-    <row r="515" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A515" s="13" t="str">
         <f>IF(ISBLANK(B515),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6777,7 +6832,7 @@
       <c r="E515" s="10"/>
       <c r="F515" s="10"/>
     </row>
-    <row r="516" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A516" s="13" t="str">
         <f>IF(ISBLANK(B516),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6788,7 +6843,7 @@
       <c r="E516" s="10"/>
       <c r="F516" s="10"/>
     </row>
-    <row r="517" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A517" s="13" t="str">
         <f>IF(ISBLANK(B517),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6799,7 +6854,7 @@
       <c r="E517" s="10"/>
       <c r="F517" s="10"/>
     </row>
-    <row r="518" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A518" s="13" t="str">
         <f>IF(ISBLANK(B518),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6810,7 +6865,7 @@
       <c r="E518" s="10"/>
       <c r="F518" s="10"/>
     </row>
-    <row r="519" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A519" s="13" t="str">
         <f>IF(ISBLANK(B519),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6821,7 +6876,7 @@
       <c r="E519" s="10"/>
       <c r="F519" s="10"/>
     </row>
-    <row r="520" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A520" s="13" t="str">
         <f>IF(ISBLANK(B520),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6832,7 +6887,7 @@
       <c r="E520" s="10"/>
       <c r="F520" s="10"/>
     </row>
-    <row r="521" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A521" s="13" t="str">
         <f>IF(ISBLANK(B521),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6843,7 +6898,7 @@
       <c r="E521" s="10"/>
       <c r="F521" s="10"/>
     </row>
-    <row r="522" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A522" s="13" t="str">
         <f>IF(ISBLANK(B522),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6854,7 +6909,7 @@
       <c r="E522" s="10"/>
       <c r="F522" s="10"/>
     </row>
-    <row r="523" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A523" s="13" t="str">
         <f>IF(ISBLANK(B523),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6865,7 +6920,7 @@
       <c r="E523" s="10"/>
       <c r="F523" s="10"/>
     </row>
-    <row r="524" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A524" s="13" t="str">
         <f>IF(ISBLANK(B524),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6876,7 +6931,7 @@
       <c r="E524" s="10"/>
       <c r="F524" s="10"/>
     </row>
-    <row r="525" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A525" s="13" t="str">
         <f>IF(ISBLANK(B525),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6887,7 +6942,7 @@
       <c r="E525" s="10"/>
       <c r="F525" s="10"/>
     </row>
-    <row r="526" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A526" s="13" t="str">
         <f>IF(ISBLANK(B526),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6898,7 +6953,7 @@
       <c r="E526" s="10"/>
       <c r="F526" s="10"/>
     </row>
-    <row r="527" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A527" s="13" t="str">
         <f>IF(ISBLANK(B527),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6909,7 +6964,7 @@
       <c r="E527" s="10"/>
       <c r="F527" s="10"/>
     </row>
-    <row r="528" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A528" s="13" t="str">
         <f>IF(ISBLANK(B528),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6920,7 +6975,7 @@
       <c r="E528" s="10"/>
       <c r="F528" s="10"/>
     </row>
-    <row r="529" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A529" s="13" t="str">
         <f>IF(ISBLANK(B529),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6931,7 +6986,7 @@
       <c r="E529" s="10"/>
       <c r="F529" s="10"/>
     </row>
-    <row r="530" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A530" s="13" t="str">
         <f>IF(ISBLANK(B530),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6942,7 +6997,7 @@
       <c r="E530" s="10"/>
       <c r="F530" s="10"/>
     </row>
-    <row r="531" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A531" s="13" t="str">
         <f>IF(ISBLANK(B531),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
         <v/>
@@ -6958,25 +7013,25 @@
   <mergeCells count="1">
     <mergeCell ref="C2:D2"/>
   </mergeCells>
-  <conditionalFormatting sqref="D6:D531">
-    <cfRule type="expression" dxfId="13" priority="2" stopIfTrue="1">
+  <conditionalFormatting sqref="D6:D45 D47:D531">
+    <cfRule type="expression" dxfId="5" priority="2" stopIfTrue="1">
       <formula>$D6="Meeting"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="3">
+    <cfRule type="expression" dxfId="4" priority="3">
       <formula>$D6="Documentation"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="11" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="3" priority="4" stopIfTrue="1">
       <formula>$D6="Test"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="2" priority="5" stopIfTrue="1">
       <formula>$D6="Analyse"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="7" stopIfTrue="1">
       <formula>$D6="Dévelopement"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D21">
-    <cfRule type="expression" dxfId="8" priority="1">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>$D$21="Imprévu"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7005,17 +7060,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="be0d3259-a7ce-4623-88ec-81594dfcbc1c" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="99ffe1f3-7857-457f-add0-5bdef636f38d">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D4F20F00DBE2EE49BE9523363A2DF18B" ma:contentTypeVersion="13" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="83ae57d85107fc73e8c281aedb059e49">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="99ffe1f3-7857-457f-add0-5bdef636f38d" xmlns:ns3="be0d3259-a7ce-4623-88ec-81594dfcbc1c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b000e6a26fbebedf4c24f086a5622afe" ns2:_="" ns3:_="">
     <xsd:import namespace="99ffe1f3-7857-457f-add0-5bdef636f38d"/>
@@ -7238,6 +7282,17 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="be0d3259-a7ce-4623-88ec-81594dfcbc1c" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="99ffe1f3-7857-457f-add0-5bdef636f38d">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BDECA689-F55E-43C8-8CEF-25DE741768EA}">
   <ds:schemaRefs>
@@ -7247,17 +7302,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8EB0028C-89CE-4553-AB94-94DC6E832369}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="be0d3259-a7ce-4623-88ec-81594dfcbc1c"/>
-    <ds:schemaRef ds:uri="99ffe1f3-7857-457f-add0-5bdef636f38d"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{146BE2DA-6117-4657-9EA0-437EBB1E64B8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7274,4 +7318,15 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8EB0028C-89CE-4553-AB94-94DC6E832369}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="be0d3259-a7ce-4623-88ec-81594dfcbc1c"/>
+    <ds:schemaRef ds:uri="99ffe1f3-7857-457f-add0-5bdef636f38d"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/docs/Journal-de-Travail_Berchel-Joachim.xlsx
+++ b/docs/Journal-de-Travail_Berchel-Joachim.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cyco\Documents\GitHub\joachim-MonProjetGenial\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6CF9EB2-6369-4632-A299-010BB8A6EBF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0D0DC50-ED7F-4FD3-81B1-47F2A808FEDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{6CC57B32-2488-5244-B7A6-FB7E808234AC}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="63">
   <si>
     <t>Journal de travail</t>
   </si>
@@ -226,6 +226,9 @@
   </si>
   <si>
     <t>Je duplique mon projet et je simule 2 clients, mon application fonctionne. Cela fonctionne donc avec toutes les personnes ayant suivi les normes d'enveloppes proposés dans le GitHub de Philippe.</t>
+  </si>
+  <si>
+    <t>Je termine mon rapport</t>
   </si>
 </sst>
 </file>
@@ -792,7 +795,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D46" sqref="D46"/>
+      <selection pane="bottomLeft" activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -860,7 +863,7 @@
       </c>
       <c r="C3" s="25">
         <f>SUM(C6:C521)</f>
-        <v>0.86805555555555536</v>
+        <v>0.8819444444444442</v>
       </c>
       <c r="D3" s="29" t="s">
         <v>13</v>
@@ -1674,14 +1677,22 @@
       <c r="F46" s="20"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A47" s="13" t="str">
+      <c r="A47" s="13">
         <f>IF(ISBLANK(B47),"",_xlfn.ISOWEEKNUM(Table2[[#This Row],[Jour]]))</f>
-        <v/>
-      </c>
-      <c r="B47" s="8"/>
-      <c r="C47" s="24"/>
-      <c r="D47" s="21"/>
-      <c r="E47" s="10"/>
+        <v>2</v>
+      </c>
+      <c r="B47" s="8">
+        <v>45668</v>
+      </c>
+      <c r="C47" s="24">
+        <v>1.3888888888888888E-2</v>
+      </c>
+      <c r="D47" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="E47" s="10" t="s">
+        <v>62</v>
+      </c>
       <c r="F47" s="10"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.35">
@@ -7060,6 +7071,17 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="be0d3259-a7ce-4623-88ec-81594dfcbc1c" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="99ffe1f3-7857-457f-add0-5bdef636f38d">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D4F20F00DBE2EE49BE9523363A2DF18B" ma:contentTypeVersion="13" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="83ae57d85107fc73e8c281aedb059e49">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="99ffe1f3-7857-457f-add0-5bdef636f38d" xmlns:ns3="be0d3259-a7ce-4623-88ec-81594dfcbc1c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b000e6a26fbebedf4c24f086a5622afe" ns2:_="" ns3:_="">
     <xsd:import namespace="99ffe1f3-7857-457f-add0-5bdef636f38d"/>
@@ -7282,17 +7304,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="be0d3259-a7ce-4623-88ec-81594dfcbc1c" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="99ffe1f3-7857-457f-add0-5bdef636f38d">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BDECA689-F55E-43C8-8CEF-25DE741768EA}">
   <ds:schemaRefs>
@@ -7302,6 +7313,17 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8EB0028C-89CE-4553-AB94-94DC6E832369}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="be0d3259-a7ce-4623-88ec-81594dfcbc1c"/>
+    <ds:schemaRef ds:uri="99ffe1f3-7857-457f-add0-5bdef636f38d"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{146BE2DA-6117-4657-9EA0-437EBB1E64B8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7318,15 +7340,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8EB0028C-89CE-4553-AB94-94DC6E832369}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="be0d3259-a7ce-4623-88ec-81594dfcbc1c"/>
-    <ds:schemaRef ds:uri="99ffe1f3-7857-457f-add0-5bdef636f38d"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>